--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,865 +434,960 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>오답가산점</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>의견란</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>의견난</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>-1</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>임진란</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>임진난</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>-1</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>생산량</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>생산냥</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>-1</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>결단력</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>결딴녁</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>-1</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>공권력</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>공꿘녁</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>-1</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>동원령</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>동원녕</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>-1</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>상견례</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>상견녜</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>-1</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>횡단로</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>횡단노</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>-1</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>이원론</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>이원논</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-1</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>입원료</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>이붠뇨</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>-1</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>구근류</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구근뉴</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>-1</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>신문로</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>신문노</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>-1</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>남대문로</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>남대문노</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>-1</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>추진력</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>추진녁</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>-1</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>장맛비</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>장마삐, 장맏삐</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>-1</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>등불</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>등뿔</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>-1</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>콧날</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>콘날</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>-1</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>예삿일</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>예산닐</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>-1</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>집일</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>짐닐</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>-1</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>인사말</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>인사말,</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>-1</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>머리말</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>머리말,</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>-1</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>꼬리말</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>꼬리말,</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>-1</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>고무줄</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>고무줄,</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>-1</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>동아줄</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>동아줄,</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>회수(回收)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>회수, 훼수</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>-1</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>콩밥</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>콩밥,</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>-1</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>빨랫줄</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>빨래쭐, 빨랟쭐</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>-1</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>횟수(回數)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>회쑤, 홷쑤</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>-1</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>아침밥</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>아침빱</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>-1</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>피어</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>피어, 피여</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>-1</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>되어</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>되어, 되여</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>-1</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>이오</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>이오, 이요</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>-1</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>아니오</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>아니오, 아니요</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>-1</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>마천루</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>마철루</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>-1</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>영업용</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>영엄뇽</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>막일</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>망닐</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>-1</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>솜이불</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>솜니불</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>-1</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>스물여섯</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>스물려섣</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>[그 동안] 안녕하셨는지요?</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>그동안</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>고쳐쓰기</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>어줍잖은</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>어쭙잖은</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>고쳐쓰기</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>연락드릴께요</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>연락드릴게요</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>고쳐쓰기</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>-1</v>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>적쟎은</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>적잖은</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>고쳐쓰기</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>친구가 "나는 학교에 안 가겠다"[고] 말했다</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>라고</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>대통령은 진지한 연설[로서] 국민을 설득했다</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>로써</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>아침부터 흐린 게 비가 [올런지] 몰라 우산을 미리 챙겨 나갔다</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>올른지</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>길을 나서자 갑자기 곧 [해님]이 모습을 드러냈다</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>해님</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>시장 입구에는 [앳띤] 소녀들이 우산을 들고 왁자지걸 이야기를 하며 지나가고 있었다</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>앳된</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>구분</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -469,6 +474,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,6 +495,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -509,6 +516,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -529,6 +537,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -549,6 +558,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -569,6 +579,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -589,6 +600,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -609,6 +621,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -629,6 +642,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -649,6 +663,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -669,6 +684,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -689,6 +705,11 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -709,6 +730,11 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -729,6 +755,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -749,6 +776,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -769,6 +797,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -789,6 +818,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -809,6 +839,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -829,6 +860,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -849,6 +881,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -869,6 +902,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -889,6 +923,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -909,6 +944,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -929,6 +965,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -949,6 +986,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -969,6 +1007,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -989,6 +1028,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1009,6 +1049,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1029,6 +1070,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1049,6 +1091,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1069,6 +1112,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1089,6 +1133,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1109,6 +1154,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1129,6 +1175,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1149,6 +1196,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1169,6 +1217,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1189,6 +1238,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1209,6 +1259,7 @@
           <t>발음</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1229,6 +1280,7 @@
           <t>고쳐쓰기</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1249,6 +1301,7 @@
           <t>고쳐쓰기</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1269,6 +1322,7 @@
           <t>고쳐쓰기</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1289,6 +1343,7 @@
           <t>고쳐쓰기</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1309,6 +1364,7 @@
           <t>고쳐쓰기</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1329,6 +1385,7 @@
           <t>고쳐쓰기</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1349,6 +1406,7 @@
           <t>고쳐쓰기</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1356,7 +1414,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>길을 나서자 갑자기 곧 [해님]이 모습을 드러냈다</t>
+          <t>길을 나서자 갑자기 곧 [햇님]이 모습을 드러냈다</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1369,6 +1427,7 @@
           <t>고쳐쓰기</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1389,6 +1448,7 @@
           <t>고쳐쓰기</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>오답가산점</t>
+          <t>Unnamed: 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>의견란</t>
+          <t>의견란 (발음)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,17 +468,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>임진란</t>
+          <t>임진란 (발음)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,17 +486,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>생산량</t>
+          <t>생산량 (발음)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,17 +504,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>결단력</t>
+          <t>결단력 (발음)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,17 +522,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>공권력</t>
+          <t>공권력 (발음)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,17 +540,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>동원령</t>
+          <t>동원령 (발음)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,17 +558,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>상견례</t>
+          <t>상견례 (발음)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,17 +576,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>횡단로</t>
+          <t>횡단로 (발음)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,17 +594,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>이원론</t>
+          <t>이원론 (발음)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,17 +612,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>입원료</t>
+          <t>입원료 (발음)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,17 +630,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>구근류</t>
+          <t>구근류 (발음)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,17 +648,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>신문로</t>
+          <t>신문로 (발음)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,17 +666,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>남대문로</t>
+          <t>남대문로 (발음)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,17 +684,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>추진력</t>
+          <t>추진력 (발음)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -728,17 +702,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>장맛비</t>
+          <t>장맛비 (발음)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -748,17 +720,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>등불</t>
+          <t>등불 (발음)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,17 +738,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>콧날</t>
+          <t>콧날 (발음)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -788,17 +756,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예삿일</t>
+          <t>예삿일 (발음)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,17 +774,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>집일</t>
+          <t>집일 (발음)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -828,17 +792,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>인사말</t>
+          <t>인사말 (발음)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -848,17 +810,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>머리말</t>
+          <t>머리말 (발음)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -868,17 +828,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>꼬리말</t>
+          <t>꼬리말 (발음)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -888,17 +846,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>고무줄</t>
+          <t>고무줄 (발음)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -908,17 +864,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>동아줄</t>
+          <t>동아줄 (발음)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -928,17 +882,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>회수(回收)</t>
+          <t>회수(回收) (발음)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -948,17 +900,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>콩밥</t>
+          <t>콩밥 (발음)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -968,17 +918,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>빨랫줄</t>
+          <t>빨랫줄 (발음)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -988,17 +936,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>횟수(回數)</t>
+          <t>횟수(回數) (발음)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1008,17 +954,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>아침밥</t>
+          <t>아침밥 (발음)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1028,17 +972,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>피어</t>
+          <t>피어 (발음)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1048,17 +990,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>-2</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>되어</t>
+          <t>되어 (발음)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1068,17 +1008,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>이오</t>
+          <t>이오 (발음)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1088,17 +1026,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>아니오</t>
+          <t>아니오 (발음)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1108,17 +1044,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>마천루</t>
+          <t>마천루 (발음)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1128,17 +1062,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>영업용</t>
+          <t>영업용 (발음)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1148,17 +1080,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>막일</t>
+          <t>막일 (발음)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1168,17 +1098,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>솜이불</t>
+          <t>솜이불 (발음)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1188,17 +1116,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>스물여섯</t>
+          <t>스물여섯 (발음)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1208,12 +1134,10 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>발음</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1228,12 +1152,10 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>고쳐쓰기</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1248,12 +1170,10 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>고쳐쓰기</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1268,12 +1188,10 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>고쳐쓰기</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1288,12 +1206,10 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>고쳐쓰기</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1308,12 +1224,10 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>고쳐쓰기</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1328,12 +1242,10 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>고쳐쓰기</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>-2</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1348,12 +1260,10 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>고쳐쓰기</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>-2</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1368,12 +1278,10 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>고쳐쓰기</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>-2</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1388,12 +1296,460 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>고쳐쓰기</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>-1</v>
-      </c>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>다음 문제를 [풀어라]</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>풀라</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>정부는 빈곤 문제에 대한 대책을 [세워라]</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>세우라</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>보기를 읽고 알맞은 답을 [골라라]</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>고르라</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>아버지께서는 생각이 [계신다]</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>있으시다</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>교장 선생님의 말씀이 [계시겠습니다]</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>있으시겠습니다</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>전해 드릴 말씀이 [계신] 분, 계세요?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>있으신</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>계세요?</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>주문하신 커피 [나오셨습니다]</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>나왔습니다</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>문의하신 상품은 [품절이십니다]</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>품절입니다</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>말씀하신 사이즈가 [없으십니다]</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>없습니다</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>(상점에서) [포장이세요?]</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>포장해 드릴까요?</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>손님, 여기 주문하신 물건이 [있으시겠습니다]</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>있습니다</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>이 물건의 가격은 만 원[되시겠습니다]</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>입니다</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>할아버지, [아버지께서 오셨습니다]</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>아버지가 왔습니다</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>어머니, [할머니가 왔습니다]</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>할머니께서 오셨습니다</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>(평사원이) 사장님, [이 과장 어디갔습니까?]</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>이 과장님 어디 가셨습니까?</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>나는 아버지를 [데리고] 집으로 왔다</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>모시고</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>나는 그 고구마를 선생님께 [주었다]</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>드렸다</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>나는 그것을 선생님께 [물었다]</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>여쭈었다</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>당랑거철(발음)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>당낭거철</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>금란지계(발음)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>금난지계, 금난지게</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>동가홍상(발음)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>동까홍상</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>득롱망촉(발음)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>등농망촉</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>김밥(형태소)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>김/밥</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>국밥(형태소)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>국/밥</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1322 +434,3071 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>의견란 (발음)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>의견난</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>임진란 (발음)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>임진난</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>생산량 (발음)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>생산냥</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>결단력 (발음)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>결딴녁</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>공권력 (발음)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>공꿘녁</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>동원령 (발음)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>동원녕</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>상견례 (발음)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>상견녜</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>횡단로 (발음)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>횡단노</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>이원론 (발음)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>이원논</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>입원료 (발음)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>이붠뇨</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>구근류 (발음)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구근뉴</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>신문로 (발음)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>신문노</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>남대문로 (발음)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>남대문노</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>추진력 (발음)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>추진녁</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>장맛비 (발음)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>장마삐, 장맏삐</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>등불 (발음)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>등뿔</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>콧날 (발음)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>콘날</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>예삿일 (발음)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>예산닐</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>집일 (발음)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>짐닐</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>인사말 (발음)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>인사말,</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>머리말 (발음)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>머리말,</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>꼬리말 (발음)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>꼬리말,</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>고무줄 (발음)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>고무줄,</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>동아줄 (발음)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>동아줄,</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>회수(回收) (발음)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>회수, 훼수</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>콩밥 (발음)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>콩밥,</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>빨랫줄 (발음)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>빨래쭐, 빨랟쭐</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>횟수(回數) (발음)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>회쑤, 홷쑤</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>아침밥 (발음)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>아침빱</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>피어 (발음)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>피어, 피여</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>되어 (발음)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>되어, 되여</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>이오 (발음)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>이오, 이요</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>아니오 (발음)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>아니오, 아니요</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>마천루 (발음)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>마철루</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>영업용 (발음)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>영엄뇽</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>막일 (발음)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>망닐</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>솜이불 (발음)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>솜니불</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>스물여섯 (발음)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>스물려섣</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>[그 동안] 안녕하셨는지요?</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>그동안</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>어줍잖은</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>어쭙잖은</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>연락드릴께요</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>연락드릴게요</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>적쟎은</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>적잖은</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>친구가 "나는 학교에 안 가겠다"[고] 말했다</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>라고</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>대통령은 진지한 연설[로서] 국민을 설득했다</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>로써</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>아침부터 흐린 게 비가 [올런지] 몰라 우산을 미리 챙겨 나갔다</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>올른지</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>길을 나서자 갑자기 곧 [햇님]이 모습을 드러냈다</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>해님</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>시장 입구에는 [앳띤] 소녀들이 우산을 들고 왁자지걸 이야기를 하며 지나가고 있었다</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>앳된</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>다음 문제를 [풀어라]</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>풀라</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>정부는 빈곤 문제에 대한 대책을 [세워라]</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>세우라</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>보기를 읽고 알맞은 답을 [골라라]</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>고르라</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>아버지께서는 생각이 [계신다]</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>있으시다</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>교장 선생님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>있으시겠습니다</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 [계신] 분, 계세요?</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>있으신</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>계세요?</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>문의하신 상품은 [품절이십니다]</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>품절입니다</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>말씀하신 사이즈가 [없으십니다]</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>없습니다</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>(상점에서) [포장이세요?]</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>포장해 드릴까요?</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>손님, 여기 주문하신 물건이 [있으시겠습니다]</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>이 물건의 가격은 만 원[되시겠습니다]</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>입니다</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>할아버지, [아버지께서 오셨습니다]</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>아버지가 왔습니다</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>어머니, [할머니가 왔습니다]</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>할머니께서 오셨습니다</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>(평사원이) 사장님, [이 과장 어디갔습니까?]</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>이 과장님 어디 가셨습니까?</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>나는 아버지를 [데리고] 집으로 왔다</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>모시고</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>나는 그 고구마를 선생님께 [주었다]</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>드렸다</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>나는 그것을 선생님께 [물었다]</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>여쭈었다</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>당랑거철(발음)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>당낭거철</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>금란지계(발음)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>금난지계, 금난지게</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>동가홍상(발음)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>동까홍상</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>득롱망촉(발음)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>등농망촉</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>김밥(형태소)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>김/밥</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>국밥(형태소)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>국/밥</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>선생님의 [말]을 먼저 듣고, 제 말씀을 전하겠습니다</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>말씀</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>선생님의 말씀을 먼저 듣고, 제 [말]을 전하겠습니다</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>말씀</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>딸 아이가 학교에서 돌아오기만 하면 꼭 저에게 [여쭈어봐요]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>물어봐요</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>다음으로 오늘의 주인공 공지철 씨를 [모시겠습니다]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>소개하겠습니다</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>아버님, 아범(아비)이 아직 안 [들어오셨어요]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>들어왔습니다</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>그이가 아버님께 말씀드린다고 [하셨습니다]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>했습니다</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>제 [부인]을 소개하겠습니다</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>집사람, 안사람, 처</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>이쪽에 잠깐 앉아 [계실게요]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>주시기 바랍니다</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>선생님, [수고하세요]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>고맙습니다</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>아버지에게 [야단을 맞았다]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>꾸중을 들었다, 꾸지람을 들었다, 걱정을 들었다</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>자신의 살아 있는 아버지</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>아버지</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>자신의 살아 있는 어머니</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>어머니</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>자신의 돌아가신 아버지</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>아버님</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>자신의 돌아가신 어머니</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>어머님</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>부모 앞에서 아내를 기리킬 때</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>어멈, 어미, 집사람, 안사람, ㅇㅇ 엄마</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>남편의 형</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>아주버님</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>남편의 형의 아내</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>형님</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>남편의 아우 (미혼)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>도련님</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>남편의 아우 (기혼)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>서방님</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>남편의 아우의 아내</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>동서</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>남자의 경우, 누나</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>누나, 누님</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>누나의 남편</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>매부, 매형, 자형</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>여동생의 남편</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>매부, 매형, 자형</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>남편의 누나 (손위 시누이)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>형님</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>남편의 누나의 남편</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>아주버님</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>남편의 누이동생 (손아래 시누이)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>아가씨, 아기씨</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>남편의 누이동생의 남편</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>서방님</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>(여자의 경우) 여동생의 남편</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>제부, ㅇ서방</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>자신의 살아있는 아버지</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>가친, 엄친</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>다른 사람의 살아있는 아버지</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>춘부장, 춘장, 춘당, 어르신, 어르신네</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>자신의 돌아가신 아버지</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>선친, 선고, 선부군</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>다른 사람의 돌아가신 아버지</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>선대인, 선고장, 선장</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>자신의 살아있는 어머니</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>자친, 가자, 모친</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>다른 사람의 살아있는 어머니</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>자당, 훤당, 모당, 모부인</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>자신의 돌아가신 어머니</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>선비, 선자</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>다른 사람의 돌아가신 어머니</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>선대부인</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>부장님의 따님은 집에 [계신가요]?</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>있으신가요</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>아버님께서는 집안의 대소사에 대해 항상 아랫사람들에게 [여쭈어 보십니다]</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>물어보십니다</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>이것이 바로 생전에 당신께서 [아끼던] 벼루입니다</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>아끼시던</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>큰아버지, 오늘 약주를 많이 드셨는데, 제가 [집]까지 모셔다 드리겠습니다</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>댁</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>문제가 잘 [풀려지다]</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>풀리다</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[먹혀지다]</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>먹히다</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[읽혀지다]</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>읽히다</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>아직 그 일을 [해결되어지지] 않았다</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>해결되지</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[패인] 땅</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>팬, 파인</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>철수는 여자친구에게 [채였다]</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>차였다</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>앞으로 경제가 좋아질 것으로 [보여집니다]</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>보입니다</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>이 책의 글씨는 잘 [읽혀지지] 않아요</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>읽히지</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>이 문제가 잘 [풀려지지] 않는다</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>풀리지</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>내가 합격한 것이 사실인지 [믿겨지지] 않았다</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>믿기지</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>그는 훌륭한 가수로 [불리웠다]</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>불렸다</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[잘리워진] 국토의 아픔을 잊지 말자</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>잘린</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>그 여자를 [소개시켜줘]</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>소개해줘</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>형사는 두 사건을 [연결시켰다]</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>연결하였다, 연결했다</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>그는 직접 직원을 [교육시켰다]</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>교육하였다, 교육했다</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>장비를 밤새 [가동시켜] 납품을 맞췄다</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>가동해, 가동하여</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>보검이의 귀여운 모습에 소희는 [설레였다]</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>설렜다</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>재웠다(형태소)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>자/이/우/었/다</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>태웠다(형태소)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>타/이/우/었/다</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>세웠다(형태소)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>서/이/우/었/다</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>밤을 [새다]</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>새우다</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>담배를 [피다]</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>피우다</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>들판을 [헤매이며] 돌아다니는 사람들</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>헤매며</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>그는 그 말을 몇 번이고 [되뇌였다]</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>되뇌었다</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>이 공간을 [분리시킬] 벽을 설치했다</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>분리할</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>기계를 하루 종일 [가동시켜서] 기일을 맞추다</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>가동해서</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>[헤매이다]</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>헤매다</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>[목메이다]</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>목메다</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[설레이다]</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>설레다</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[붙박히다]</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>붙박이다</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[개이다]</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>개다</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[되뇌이다]</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>되뇌다</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>돌려졌다(형태소)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>돌리/어/지/었/다</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2636 +434,3071 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>의견란 (발음)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>의견난</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>임진란 (발음)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>임진난</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>생산량 (발음)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>생산냥</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>결단력 (발음)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>결딴녁</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>공권력 (발음)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>공꿘녁</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>동원령 (발음)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>동원녕</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>상견례 (발음)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>상견녜</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>횡단로 (발음)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>횡단노</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>이원론 (발음)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>이원논</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>입원료 (발음)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>이붠뇨</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>구근류 (발음)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구근뉴</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>신문로 (발음)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>신문노</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>남대문로 (발음)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>남대문노</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>추진력 (발음)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>추진녁</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>장맛비 (발음)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>장마삐, 장맏삐</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>등불 (발음)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>등뿔</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>콧날 (발음)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>콘날</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>예삿일 (발음)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>예산닐</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>집일 (발음)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>짐닐</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>인사말 (발음)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>인사말,</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>머리말 (발음)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>머리말,</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>꼬리말 (발음)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>꼬리말,</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>고무줄 (발음)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>고무줄,</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>동아줄 (발음)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>동아줄,</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>회수(回收) (발음)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>회수, 훼수</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>콩밥 (발음)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>콩밥,</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>빨랫줄 (발음)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>빨래쭐, 빨랟쭐</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>횟수(回數) (발음)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>회쑤, 홷쑤</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>아침밥 (발음)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>아침빱</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>피어 (발음)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>피어, 피여</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>되어 (발음)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>되어, 되여</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>이오 (발음)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>이오, 이요</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>아니오 (발음)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>아니오, 아니요</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>마천루 (발음)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>마철루</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>영업용 (발음)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>영엄뇽</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>막일 (발음)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>망닐</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>솜이불 (발음)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>솜니불</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>스물여섯 (발음)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>스물려섣</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>[그 동안] 안녕하셨는지요?</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>그동안</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>어줍잖은</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>어쭙잖은</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>연락드릴께요</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>연락드릴게요</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>적쟎은</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>적잖은</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>친구가 "나는 학교에 안 가겠다"[고] 말했다</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>라고</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>대통령은 진지한 연설[로서] 국민을 설득했다</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>로써</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>아침부터 흐린 게 비가 [올런지] 몰라 우산을 미리 챙겨 나갔다</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>올른지</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>길을 나서자 갑자기 곧 [햇님]이 모습을 드러냈다</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>해님</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>시장 입구에는 [앳띤] 소녀들이 우산을 들고 왁자지걸 이야기를 하며 지나가고 있었다</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>앳된</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>다음 문제를 [풀어라]</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>풀라</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>정부는 빈곤 문제에 대한 대책을 [세워라]</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>세우라</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>보기를 읽고 알맞은 답을 [골라라]</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>고르라</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>아버지께서는 생각이 [계신다]</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>있으시다</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>교장 선생님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>있으시겠습니다</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 [계신] 분, 계세요?</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>있으신</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>계세요?</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>문의하신 상품은 [품절이십니다]</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>품절입니다</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>말씀하신 사이즈가 [없으십니다]</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>없습니다</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>(상점에서) [포장이세요?]</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>포장해 드릴까요?</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>손님, 여기 주문하신 물건이 [있으시겠습니다]</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>이 물건의 가격은 만 원[되시겠습니다]</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>입니다</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>할아버지, [아버지께서 오셨습니다]</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>아버지가 왔습니다</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>어머니, [할머니가 왔습니다]</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>할머니께서 오셨습니다</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>(평사원이) 사장님, [이 과장 어디갔습니까?]</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>이 과장님 어디 가셨습니까?</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>나는 아버지를 [데리고] 집으로 왔다</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>모시고</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>나는 그 고구마를 선생님께 [주었다]</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>드렸다</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>나는 그것을 선생님께 [물었다]</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>여쭈었다</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>당랑거철(발음)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>당낭거철</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>금란지계(발음)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>금난지계, 금난지게</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>동가홍상(발음)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>동까홍상</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>득롱망촉(발음)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>등농망촉</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>김밥(형태소)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>김/밥</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>국밥(형태소)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>국/밥</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>선생님의 [말]을 먼저 듣고, 제 말씀을 전하겠습니다</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>선생님의 말씀을 먼저 듣고, 제 [말]을 전하겠습니다</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>딸 아이가 학교에서 돌아오기만 하면 꼭 저에게 [여쭈어봐요]</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>물어봐요</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>다음으로 오늘의 주인공 공지철 씨를 [모시겠습니다]</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>소개하겠습니다</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>아버님, 아범(아비)이 아직 안 [들어오셨어요]</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>들어왔습니다</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>그이가 아버님께 말씀드린다고 [하셨습니다]</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>했습니다</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>제 [부인]을 소개하겠습니다</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>집사람, 안사람, 처</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>이쪽에 잠깐 앉아 [계실게요]</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>주시기 바랍니다</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>선생님, [수고하세요]</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>고맙습니다</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>아버지에게 [야단을 맞았다]</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>꾸중을 들었다, 꾸지람을 들었다, 걱정을 들었다</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>자신의 살아 있는 아버지</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>아버지</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>자신의 살아 있는 어머니</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>어머니</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>아버님</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>어머님</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>부모 앞에서 아내를 기리킬 때</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>어멈, 어미, 집사람, 안사람, ㅇㅇ 엄마</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>남편의 형</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>남편의 형의 아내</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>남편의 아우 (미혼)</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>도련님</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>남편의 아우 (기혼)</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>남편의 아우의 아내</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>동서</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>남자의 경우, 누나</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>누나, 누님</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>누나의 남편</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>매부, 매형, 자형</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>여동생의 남편</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>매부, 매형, 자형</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>남편의 누나 (손위 시누이)</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>남편의 누나의 남편</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>남편의 누이동생 (손아래 시누이)</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>아가씨, 아기씨</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>남편의 누이동생의 남편</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>(여자의 경우) 여동생의 남편</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>제부, ㅇ서방</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>자신의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>가친, 엄친</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>춘부장, 춘장, 춘당, 어르신, 어르신네</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>선친, 선고, 선부군</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>선대인, 선고장, 선장</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>자신의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>자친, 가자, 모친</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>자당, 훤당, 모당, 모부인</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>선비, 선자</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>선대부인</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>부장님의 따님은 집에 [계신가요]?</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>있으신가요</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>아버님께서는 집안의 대소사에 대해 항상 아랫사람들에게 [여쭈어 보십니다]</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>물어보십니다</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>이것이 바로 생전에 당신께서 [아끼던] 벼루입니다</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>아끼시던</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>큰아버지, 오늘 약주를 많이 드셨는데, 제가 [집]까지 모셔다 드리겠습니다</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>댁</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>문제가 잘 [풀려지다]</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>풀리다</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>[먹혀지다]</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>먹히다</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>[읽혀지다]</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>읽히다</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>아직 그 일을 [해결되어지지] 않았다</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>해결되지</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>[패인] 땅</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>팬, 파인</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>철수는 여자친구에게 [채였다]</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>차였다</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>앞으로 경제가 좋아질 것으로 [보여집니다]</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>보입니다</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>이 책의 글씨는 잘 [읽혀지지] 않아요</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>읽히지</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>이 문제가 잘 [풀려지지] 않는다</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>풀리지</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>내가 합격한 것이 사실인지 [믿겨지지] 않았다</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>믿기지</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>그는 훌륭한 가수로 [불리웠다]</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>불렸다</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>[잘리워진] 국토의 아픔을 잊지 말자</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>잘린</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>그 여자를 [소개시켜줘]</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>소개해줘</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>형사는 두 사건을 [연결시켰다]</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>연결하였다, 연결했다</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>그는 직접 직원을 [교육시켰다]</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>교육하였다, 교육했다</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>장비를 밤새 [가동시켜] 납품을 맞췄다</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>가동해, 가동하여</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>보검이의 귀여운 모습에 소희는 [설레였다]</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>설렜다</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>재웠다(형태소)</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>자/이/우/었/다</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>태웠다(형태소)</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>타/이/우/었/다</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>세웠다(형태소)</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>서/이/우/었/다</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>밤을 [새다]</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>새우다</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>담배를 [피다]</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>피우다</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>들판을 [헤매이며] 돌아다니는 사람들</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>헤매며</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>그는 그 말을 몇 번이고 [되뇌였다]</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>되뇌었다</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>이 공간을 [분리시킬] 벽을 설치했다</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>분리할</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>기계를 하루 종일 [가동시켜서] 기일을 맞추다</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>가동해서</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>[헤매이다]</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>헤매다</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>[목메이다]</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>목메다</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>[설레이다]</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>[붙박히다]</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>붙박이다</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>[개이다]</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>[되뇌이다]</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>되뇌다</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>돌려졌다(형태소)</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>돌리/어/지/었/다</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,13 +451,18 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -474,11 +479,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -495,11 +503,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -516,11 +527,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -537,11 +551,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -558,11 +575,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -579,11 +599,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -600,11 +623,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -621,11 +647,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -642,11 +671,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -663,11 +695,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -684,11 +719,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -705,11 +743,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -726,11 +767,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -747,11 +791,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -760,7 +807,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>장마삐, 장맏삐</t>
+          <t>장마삐 | 장맏삐</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -768,11 +815,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -789,11 +839,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -810,11 +863,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -831,11 +887,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -852,11 +911,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -865,7 +927,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>인사말,</t>
+          <t>인사말 |</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -873,11 +935,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -886,7 +951,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>머리말,</t>
+          <t>머리말 |</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -894,11 +959,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -907,7 +975,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>꼬리말,</t>
+          <t>꼬리말 |</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -915,11 +983,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -928,7 +999,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>고무줄,</t>
+          <t>고무줄 |</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -936,11 +1007,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -949,7 +1023,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>동아줄,</t>
+          <t>동아줄 |</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -957,11 +1031,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -970,7 +1047,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>회수, 훼수</t>
+          <t>회수 | 훼수</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -978,11 +1055,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -991,7 +1071,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>콩밥,</t>
+          <t>콩밥 |</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -999,11 +1079,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1012,7 +1095,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>빨래쭐, 빨랟쭐</t>
+          <t>빨래쭐 | 빨랟쭐</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1020,11 +1103,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1033,7 +1119,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>회쑤, 홷쑤</t>
+          <t>회쑤 | 홷쑤</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1041,11 +1127,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1062,11 +1151,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1075,7 +1167,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>피어, 피여</t>
+          <t>피어 | 피여</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1083,11 +1175,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1096,7 +1191,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>되어, 되여</t>
+          <t>되어 | 되여</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1104,11 +1199,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1117,7 +1215,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>이오, 이요</t>
+          <t>이오 | 이요</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1125,11 +1223,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1138,7 +1239,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>아니오, 아니요</t>
+          <t>아니오 | 아니요</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1146,11 +1247,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>613</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1167,11 +1271,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>614</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1188,11 +1295,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>615</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1209,11 +1319,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>616</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1230,11 +1343,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>617</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1251,11 +1367,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>663</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1272,11 +1391,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>664</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1293,11 +1415,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>665</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1314,11 +1439,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>666</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1335,11 +1463,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>667</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1356,11 +1487,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>668</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1377,11 +1511,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>669</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1398,11 +1535,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>670</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1419,11 +1559,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>671</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1440,11 +1583,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>782</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1461,11 +1607,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>783</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1482,11 +1631,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>784</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1503,11 +1655,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>812</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1524,11 +1679,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>813</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1545,11 +1703,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>814</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1566,11 +1727,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>815</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1587,11 +1751,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>816</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1608,11 +1775,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>817</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1629,11 +1799,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>818</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1650,11 +1823,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>819</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1671,11 +1847,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>820</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1692,11 +1871,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>821</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1713,11 +1895,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>822</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1734,11 +1919,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>823</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1755,11 +1943,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>824</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1776,11 +1967,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>825</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1797,11 +1991,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>826</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1818,11 +2015,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>827</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1839,11 +2039,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>926</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1860,11 +2063,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>927</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1873,7 +2079,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>금난지계, 금난지게</t>
+          <t>금난지계 | 금난지게</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1881,11 +2087,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>928</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1902,11 +2111,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>929</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1923,11 +2135,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>930</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1944,11 +2159,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>931</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1965,11 +2183,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1059</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1986,11 +2207,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1060</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2007,11 +2231,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1061</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2028,11 +2255,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1062</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2049,11 +2279,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1063</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2070,11 +2303,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1064</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2091,11 +2327,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1065</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2104,7 +2343,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>집사람, 안사람, 처</t>
+          <t>집사람 | 안사람 | 처</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2112,11 +2351,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1066</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2133,11 +2375,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1067</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2154,11 +2399,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1068</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2167,7 +2415,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>꾸중을 들었다, 꾸지람을 들었다, 걱정을 들었다</t>
+          <t>꾸중을 들었다 | 꾸지람을 들었다 | 걱정을 들었다</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2175,11 +2423,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1069</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2196,11 +2447,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1070</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2217,11 +2471,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1071</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2238,11 +2495,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1072</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2259,11 +2519,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1073</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2272,7 +2535,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>어멈, 어미, 집사람, 안사람, ㅇㅇ 엄마</t>
+          <t>어멈 | 어미 | 집사람 | 안사람 | ㅇㅇ 엄마</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2280,11 +2543,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>1074</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2301,11 +2567,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>1075</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2322,11 +2591,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>1076</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2343,11 +2615,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>1077</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2364,11 +2639,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>1078</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2385,11 +2663,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>1079</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2398,7 +2679,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>누나, 누님</t>
+          <t>누나 | 누님</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2406,11 +2687,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>1080</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2419,7 +2703,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>매부, 매형, 자형</t>
+          <t>매부 | 매형 | 자형</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2427,11 +2711,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>1081</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2440,7 +2727,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>매부, 매형, 자형</t>
+          <t>매부 | 매형 | 자형</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2448,11 +2735,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>1082</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2469,11 +2759,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>1083</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2490,11 +2783,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>1084</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2503,7 +2799,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>아가씨, 아기씨</t>
+          <t>아가씨 | 아기씨</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2511,11 +2807,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>1085</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2532,11 +2831,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>1086</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2545,7 +2847,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>제부, ㅇ서방</t>
+          <t>제부 | ㅇ서방</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2553,11 +2855,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>1087</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2566,7 +2871,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>가친, 엄친</t>
+          <t>가친 | 엄친</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2574,11 +2879,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>1088</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2587,7 +2895,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>춘부장, 춘장, 춘당, 어르신, 어르신네</t>
+          <t>춘부장 | 춘장 | 춘당 | 어르신 | 어르신네</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2595,11 +2903,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>1089</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2608,7 +2919,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>선친, 선고, 선부군</t>
+          <t>선친 | 선고 | 선부군</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2616,11 +2927,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>1090</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2629,7 +2943,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>선대인, 선고장, 선장</t>
+          <t>선대인 | 선고장 | 선장</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2637,11 +2951,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>1091</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2650,7 +2967,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>자친, 가자, 모친</t>
+          <t>자친 | 가자 | 모친</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2658,11 +2975,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>1092</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2671,7 +2991,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>자당, 훤당, 모당, 모부인</t>
+          <t>자당 | 훤당 | 모당 | 모부인</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2679,11 +2999,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>1093</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2692,7 +3015,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>선비, 선자</t>
+          <t>선비 | 선자</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2700,11 +3023,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>1094</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2721,11 +3047,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>1103</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2742,11 +3071,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>1104</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2763,11 +3095,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>1105</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2784,11 +3119,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>1106</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2805,11 +3143,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>1107</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2826,11 +3167,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>1108</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2847,11 +3191,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>1109</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2868,11 +3215,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>1110</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2889,11 +3239,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>1111</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2902,7 +3255,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>팬, 파인</t>
+          <t>팬 | 파인</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2910,11 +3263,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>1112</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2931,11 +3287,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>1113</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2952,11 +3311,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>1114</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2973,11 +3335,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>1115</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2994,11 +3359,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>1116</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3015,11 +3383,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>1117</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3036,11 +3407,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>1118</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3057,11 +3431,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>1119</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3078,11 +3455,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>1120</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3091,7 +3471,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>연결하였다, 연결했다</t>
+          <t>연결하였다 | 연결했다</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3099,11 +3479,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>1121</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3112,7 +3495,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>교육하였다, 교육했다</t>
+          <t>교육하였다 | 교육했다</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3120,11 +3503,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>1122</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3133,7 +3519,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>가동해, 가동하여</t>
+          <t>가동해 | 가동하여</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3141,11 +3527,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>1123</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3162,11 +3551,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>1124</v>
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3183,11 +3575,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>1125</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3204,11 +3599,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>1126</v>
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3225,11 +3623,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>1127</v>
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3246,11 +3647,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>1128</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3267,11 +3671,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>1135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3288,11 +3695,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>1136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3309,11 +3719,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>1137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3330,11 +3743,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>1138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3351,11 +3767,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>1139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3372,11 +3791,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>1140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3393,11 +3815,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>1141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3414,11 +3839,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>1142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3435,11 +3863,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>1143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3456,11 +3887,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>1144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3477,11 +3911,14 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>1145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3498,7 +3935,649 @@
           <t>단답형</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>장작 한 [강다리]
+마늘 한 [접]
+인삼 한 [채]
+-&gt; 각자 몇 개?</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>백개</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>선생님에 너에게 [물을] 일이 있다고 하셔</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>물으실</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>선생님에 너에게 물으실 일이 있다고 [해]</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>하셔</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>있습니다</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>담임 선생님은 키가 굉장히 [크다]</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>크시다</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>할아버지, 지팡이가 아주 [멋져요]</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>멋지세요</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>선생님, 비가 오는데 우산 [있어요]?</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>있으세요</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>고객님이 주문하신 커피 [나오셨습니다]</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>나왔습니다</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>지금부터 사장님의 말씀이 [계시겠습니다]</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>있으시겠습니다 | 있겠습니다</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>어머니께서 제게 시간을 [여쭈어] 보셨어요</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>물어</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>김과장님, 부장님께서 빨리 [오시라는데] 오후에 시간 있으십니까?</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>오라시는데</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>김과장님, 부장님께서 빨리 오라시는데 오후에 시간 [계십니까]?</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>있으십니까</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>차에 [치다]</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>치이다</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>날이 [개이다]</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>개다</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>마음이 [설레이다]</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>설레다</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>습관처럼 중요한 말을 [되뇌이는] 버릇이 있다</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>되뇌는</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>나는 친구 집을 찾아 골목을 [헤매이고] 다녔다</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>헤매고</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>너무 급하게 밥을 먹으면 목이 [메이기] 마련이다</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>메기</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>그는 어린 시절 기계에 손가락이 [끼는] 사고를 당했다</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>끼이는</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>밀다(피동)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>밀리다</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>밀다(사동)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>밀게 하다</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>그는 김 교수에게 박 군을 [소개시켰다]</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>소개했다</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>생각이 다른 타인을 [설득시킨다]는 건 참 힘든 일이다</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>설득한다</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>우리는 토론을 거쳐 다양한 사회적 갈등을 [해소시킨다]</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>해소한다</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[닫혀진] 마음을 열 길이 없구나</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>닫힌</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>저쪽 복도에 [놓여진] 화분은 엄청 예쁘구나</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>놓인</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>장마로 인해 [끊겨진] 통신 선로가 드디어 복구되었다</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>끊긴</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2929 +434,3810 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>의견란 (발음)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>의견난</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>임진란 (발음)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>임진난</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>생산량 (발음)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>생산냥</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>결단력 (발음)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>결딴녁</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>공권력 (발음)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>공꿘녁</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>동원령 (발음)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>동원녕</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>상견례 (발음)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>상견녜</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>횡단로 (발음)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>횡단노</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>이원론 (발음)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>이원논</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>입원료 (발음)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>이붠뇨</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>구근류 (발음)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>구근뉴</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>신문로 (발음)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>신문노</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>남대문로 (발음)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>남대문노</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>추진력 (발음)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>추진녁</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>장맛비 (발음)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>장마삐 | 장맏삐</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>등불 (발음)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>등뿔</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>콧날 (발음)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>콘날</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>예삿일 (발음)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>예산닐</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>집일 (발음)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>짐닐</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>인사말 (발음)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>인사말 |</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>머리말 (발음)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>머리말 |</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>꼬리말 (발음)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>꼬리말 |</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>고무줄 (발음)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>고무줄 |</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>동아줄 (발음)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>동아줄 |</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>회수(回收) (발음)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>회수 | 훼수</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>콩밥 (발음)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>콩밥 |</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>빨랫줄 (발음)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>빨래쭐 | 빨랟쭐</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>횟수(回數) (발음)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>회쑤 | 홷쑤</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>아침밥 (발음)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>아침빱</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>피어 (발음)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>피어 | 피여</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>되어 (발음)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>되어 | 되여</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>이오 (발음)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>이오 | 이요</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>아니오 (발음)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>아니오 | 아니요</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>마천루 (발음)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>마철루</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>영업용 (발음)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>영엄뇽</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>막일 (발음)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>망닐</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>솜이불 (발음)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>솜니불</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>스물여섯 (발음)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>스물려섣</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>[그 동안] 안녕하셨는지요?</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>그동안</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>어줍잖은</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>어쭙잖은</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>연락드릴께요</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>연락드릴게요</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>적쟎은</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>적잖은</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>친구가 "나는 학교에 안 가겠다"[고] 말했다</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>라고</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>대통령은 진지한 연설[로서] 국민을 설득했다</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>로써</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>아침부터 흐린 게 비가 [올런지] 몰라 우산을 미리 챙겨 나갔다</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>올른지</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>길을 나서자 갑자기 곧 [햇님]이 모습을 드러냈다</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>해님</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>시장 입구에는 [앳띤] 소녀들이 우산을 들고 왁자지걸 이야기를 하며 지나가고 있었다</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>앳된</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>다음 문제를 [풀어라]</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>풀라</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>정부는 빈곤 문제에 대한 대책을 [세워라]</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>세우라</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>보기를 읽고 알맞은 답을 [골라라]</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>고르라</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>아버지께서는 생각이 [계신다]</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>있으시다</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>교장 선생님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>있으시겠습니다</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 [계신] 분, 계세요?</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>있으신</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>계세요?</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>문의하신 상품은 [품절이십니다]</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>품절입니다</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>말씀하신 사이즈가 [없으십니다]</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>없습니다</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>(상점에서) [포장이세요?]</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>포장해 드릴까요?</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>손님, 여기 주문하신 물건이 [있으시겠습니다]</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>이 물건의 가격은 만 원[되시겠습니다]</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>입니다</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>할아버지, [아버지께서 오셨습니다]</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>아버지가 왔습니다</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>어머니, [할머니가 왔습니다]</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>할머니께서 오셨습니다</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>(평사원이) 사장님, [이 과장 어디갔습니까?]</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>이 과장님 어디 가셨습니까?</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>나는 아버지를 [데리고] 집으로 왔다</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>모시고</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>나는 그 고구마를 선생님께 [주었다]</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>드렸다</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>나는 그것을 선생님께 [물었다]</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>여쭈었다</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>당랑거철(발음)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>당낭거철</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>금란지계(발음)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>금난지계 | 금난지게</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>동가홍상(발음)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>동까홍상</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>득롱망촉(발음)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>등농망촉</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>김밥(형태소)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>김/밥</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>국밥(형태소)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>국/밥</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>선생님의 [말]을 먼저 듣고, 제 말씀을 전하겠습니다</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>선생님의 말씀을 먼저 듣고, 제 [말]을 전하겠습니다</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>딸 아이가 학교에서 돌아오기만 하면 꼭 저에게 [여쭈어봐요]</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>물어봐요</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>다음으로 오늘의 주인공 공지철 씨를 [모시겠습니다]</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>소개하겠습니다</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>아버님, 아범(아비)이 아직 안 [들어오셨어요]</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>들어왔습니다</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>그이가 아버님께 말씀드린다고 [하셨습니다]</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>했습니다</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>제 [부인]을 소개하겠습니다</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>집사람 | 안사람 | 처</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>이쪽에 잠깐 앉아 [계실게요]</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>주시기 바랍니다</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>선생님, [수고하세요]</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>고맙습니다</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>아버지에게 [야단을 맞았다]</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>꾸중을 들었다 | 꾸지람을 들었다 | 걱정을 들었다</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>자신의 살아 있는 아버지</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>아버지</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>자신의 살아 있는 어머니</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>어머니</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>아버님</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>어머님</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>부모 앞에서 아내를 기리킬 때</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>어멈 | 어미 | 집사람 | 안사람 | ㅇㅇ 엄마</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>남편의 형</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>남편의 형의 아내</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>남편의 아우 (미혼)</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>도련님</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>남편의 아우 (기혼)</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>남편의 아우의 아내</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>동서</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>남자의 경우, 누나</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>누나 | 누님</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>누나의 남편</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>여동생의 남편</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>남편의 누나 (손위 시누이)</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>남편의 누나의 남편</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>남편의 누이동생 (손아래 시누이)</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>아가씨 | 아기씨</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>남편의 누이동생의 남편</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>(여자의 경우) 여동생의 남편</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>제부 | ㅇ서방</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>자신의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>가친 | 엄친</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>춘부장 | 춘장 | 춘당 | 어르신 | 어르신네</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>선친 | 선고 | 선부군</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>선대인 | 선고장 | 선장</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>자신의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>자친 | 가자 | 모친</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>자당 | 훤당 | 모당 | 모부인</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>선비 | 선자</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>선대부인</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>부장님의 따님은 집에 [계신가요]?</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>있으신가요</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>아버님께서는 집안의 대소사에 대해 항상 아랫사람들에게 [여쭈어 보십니다]</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>물어보십니다</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>이것이 바로 생전에 당신께서 [아끼던] 벼루입니다</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>아끼시던</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="inlineStr">
         <is>
           <t>큰아버지, 오늘 약주를 많이 드셨는데, 제가 [집]까지 모셔다 드리겠습니다</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>댁</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>문제가 잘 [풀려지다]</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>풀리다</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>[먹혀지다]</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>먹히다</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>[읽혀지다]</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>읽히다</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>아직 그 일을 [해결되어지지] 않았다</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>해결되지</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>[패인] 땅</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>팬 | 파인</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="inlineStr">
         <is>
           <t>철수는 여자친구에게 [채였다]</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>차였다</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>앞으로 경제가 좋아질 것으로 [보여집니다]</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>보입니다</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>이 책의 글씨는 잘 [읽혀지지] 않아요</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>읽히지</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="inlineStr">
         <is>
           <t>이 문제가 잘 [풀려지지] 않는다</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>풀리지</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>내가 합격한 것이 사실인지 [믿겨지지] 않았다</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>믿기지</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="inlineStr">
         <is>
           <t>그는 훌륭한 가수로 [불리웠다]</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>불렸다</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>[잘리워진] 국토의 아픔을 잊지 말자</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>잘린</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>그 여자를 [소개시켜줘]</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>소개해줘</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>형사는 두 사건을 [연결시켰다]</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>연결하였다 | 연결했다</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>그는 직접 직원을 [교육시켰다]</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>교육하였다 | 교육했다</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>장비를 밤새 [가동시켜] 납품을 맞췄다</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>가동해 | 가동하여</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="inlineStr">
         <is>
           <t>보검이의 귀여운 모습에 소희는 [설레였다]</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>설렜다</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="inlineStr">
         <is>
           <t>재웠다(형태소)</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>자/이/우/었/다</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="inlineStr">
         <is>
           <t>태웠다(형태소)</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>타/이/우/었/다</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="inlineStr">
         <is>
           <t>세웠다(형태소)</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>서/이/우/었/다</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" t="inlineStr">
         <is>
           <t>밤을 [새다]</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>새우다</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" t="inlineStr">
         <is>
           <t>담배를 [피다]</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>피우다</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="inlineStr">
         <is>
           <t>들판을 [헤매이며] 돌아다니는 사람들</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>헤매며</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" t="inlineStr">
         <is>
           <t>그는 그 말을 몇 번이고 [되뇌였다]</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>되뇌었다</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>이 공간을 [분리시킬] 벽을 설치했다</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>분리할</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" t="inlineStr">
         <is>
           <t>기계를 하루 종일 [가동시켜서] 기일을 맞추다</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>가동해서</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>[헤매이다]</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>헤매다</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" t="inlineStr">
         <is>
           <t>[목메이다]</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>목메다</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>140</v>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t>[설레이다]</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>141</v>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>[붙박히다]</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>붙박이다</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>142</v>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>[개이다]</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>143</v>
+      </c>
+      <c r="C145" t="inlineStr">
         <is>
           <t>[되뇌이다]</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>되뇌다</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>돌려졌다(형태소)</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>돌리/어/지/었/다</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>145</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>장작 한 [강다리]
 마늘 한 [접]
@@ -3364,537 +4245,693 @@
 -&gt; 각자 몇 개?</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>백개</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>146</v>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>선생님에 너에게 [물을] 일이 있다고 하셔</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>물으실</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>147</v>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>선생님에 너에게 물으실 일이 있다고 [해]</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>하셔</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>148</v>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" t="inlineStr">
         <is>
           <t>담임 선생님은 키가 굉장히 [크다]</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>크시다</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>150</v>
+      </c>
+      <c r="C152" t="inlineStr">
         <is>
           <t>할아버지, 지팡이가 아주 [멋져요]</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>멋지세요</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>151</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>선생님, 비가 오는데 우산 [있어요]?</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>있으세요</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>152</v>
+      </c>
+      <c r="C154" t="inlineStr">
         <is>
           <t>고객님이 주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>153</v>
+      </c>
+      <c r="C155" t="inlineStr">
         <is>
           <t>지금부터 사장님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>있으시겠습니다 | 있겠습니다</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>154</v>
+      </c>
+      <c r="C156" t="inlineStr">
         <is>
           <t>어머니께서 제게 시간을 [여쭈어] 보셨어요</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>물어</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>155</v>
+      </c>
+      <c r="C157" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 [오시라는데] 오후에 시간 있으십니까?</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>오라시는데</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>156</v>
+      </c>
+      <c r="C158" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 오라시는데 오후에 시간 [계십니까]?</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>있으십니까</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>157</v>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t>차에 [치다]</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>치이다</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>158</v>
+      </c>
+      <c r="C160" t="inlineStr">
         <is>
           <t>날이 [개이다]</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>159</v>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>마음이 [설레이다]</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>160</v>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>습관처럼 중요한 말을 [되뇌이는] 버릇이 있다</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>되뇌는</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>161</v>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>나는 친구 집을 찾아 골목을 [헤매이고] 다녔다</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>헤매고</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>162</v>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>너무 급하게 밥을 먹으면 목이 [메이기] 마련이다</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>메기</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>163</v>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>그는 어린 시절 기계에 손가락이 [끼는] 사고를 당했다</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>끼이는</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>164</v>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>밀다(피동)</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>밀리다</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>165</v>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>밀다(사동)</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>밀게 하다</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>166</v>
+      </c>
+      <c r="C168" t="inlineStr">
         <is>
           <t>그는 김 교수에게 박 군을 [소개시켰다]</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>소개했다</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>167</v>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t>생각이 다른 타인을 [설득시킨다]는 건 참 힘든 일이다</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>설득한다</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>168</v>
+      </c>
+      <c r="C170" t="inlineStr">
         <is>
           <t>우리는 토론을 거쳐 다양한 사회적 갈등을 [해소시킨다]</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>해소한다</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>169</v>
+      </c>
+      <c r="C171" t="inlineStr">
         <is>
           <t>[닫혀진] 마음을 열 길이 없구나</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>닫힌</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>170</v>
+      </c>
+      <c r="C172" t="inlineStr">
         <is>
           <t>저쪽 복도에 [놓여진] 화분은 엄청 예쁘구나</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>놓인</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>171</v>
+      </c>
+      <c r="C173" t="inlineStr">
         <is>
           <t>장마로 인해 [끊겨진] 통신 선로가 드디어 복구되었다</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>끊긴</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
         <v>0</v>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2929 +434,3367 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>의견란 (발음)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>의견난</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>임진란 (발음)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>임진난</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>생산량 (발음)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>생산냥</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>결단력 (발음)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>결딴녁</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>공권력 (발음)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>공꿘녁</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>동원령 (발음)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>동원녕</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>상견례 (발음)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>상견녜</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>횡단로 (발음)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>횡단노</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>이원론 (발음)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>이원논</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>입원료 (발음)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>이붠뇨</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>구근류 (발음)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구근뉴</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>신문로 (발음)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>신문노</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>남대문로 (발음)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>남대문노</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>추진력 (발음)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>추진녁</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>장맛비 (발음)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>장마삐 | 장맏삐</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>등불 (발음)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>등뿔</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>콧날 (발음)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>콘날</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>예삿일 (발음)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>예산닐</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>집일 (발음)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>짐닐</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>인사말 (발음)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>인사말 |</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>머리말 (발음)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>머리말 |</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>꼬리말 (발음)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>꼬리말 |</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>고무줄 (발음)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>고무줄 |</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>동아줄 (발음)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>동아줄 |</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>회수(回收) (발음)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>회수 | 훼수</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>콩밥 (발음)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>콩밥 |</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>빨랫줄 (발음)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>빨래쭐 | 빨랟쭐</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>횟수(回數) (발음)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>회쑤 | 홷쑤</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>아침밥 (발음)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>아침빱</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>피어 (발음)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>피어 | 피여</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>되어 (발음)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>되어 | 되여</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>이오 (발음)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>이오 | 이요</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>아니오 (발음)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>아니오 | 아니요</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>마천루 (발음)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>마철루</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>영업용 (발음)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>영엄뇽</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>막일 (발음)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>망닐</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>솜이불 (발음)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>솜니불</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>스물여섯 (발음)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>스물려섣</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>[그 동안] 안녕하셨는지요?</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>그동안</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>어줍잖은</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>어쭙잖은</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>연락드릴께요</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>연락드릴게요</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>적쟎은</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>적잖은</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>친구가 "나는 학교에 안 가겠다"[고] 말했다</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>라고</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>대통령은 진지한 연설[로서] 국민을 설득했다</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>로써</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>아침부터 흐린 게 비가 [올런지] 몰라 우산을 미리 챙겨 나갔다</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>올른지</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>길을 나서자 갑자기 곧 [햇님]이 모습을 드러냈다</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>해님</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>시장 입구에는 [앳띤] 소녀들이 우산을 들고 왁자지걸 이야기를 하며 지나가고 있었다</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>앳된</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>다음 문제를 [풀어라]</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>풀라</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>정부는 빈곤 문제에 대한 대책을 [세워라]</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>세우라</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>보기를 읽고 알맞은 답을 [골라라]</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>고르라</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>아버지께서는 생각이 [계신다]</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>있으시다</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>교장 선생님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>있으시겠습니다</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 [계신] 분, 계세요?</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>있으신</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>계세요?</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>문의하신 상품은 [품절이십니다]</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>품절입니다</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>말씀하신 사이즈가 [없으십니다]</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>없습니다</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>(상점에서) [포장이세요?]</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>포장해 드릴까요?</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>손님, 여기 주문하신 물건이 [있으시겠습니다]</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>이 물건의 가격은 만 원[되시겠습니다]</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>입니다</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>할아버지, [아버지께서 오셨습니다]</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>아버지가 왔습니다</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>어머니, [할머니가 왔습니다]</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>할머니께서 오셨습니다</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>(평사원이) 사장님, [이 과장 어디갔습니까?]</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>이 과장님 어디 가셨습니까?</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>나는 아버지를 [데리고] 집으로 왔다</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>모시고</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>나는 그 고구마를 선생님께 [주었다]</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>드렸다</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>나는 그것을 선생님께 [물었다]</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>여쭈었다</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>당랑거철(발음)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>당낭거철</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>금란지계(발음)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>금난지계 | 금난지게</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>동가홍상(발음)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>동까홍상</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>득롱망촉(발음)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>등농망촉</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>김밥(형태소)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>김/밥</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>국밥(형태소)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>국/밥</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>선생님의 [말]을 먼저 듣고, 제 말씀을 전하겠습니다</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>선생님의 말씀을 먼저 듣고, 제 [말]을 전하겠습니다</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>딸 아이가 학교에서 돌아오기만 하면 꼭 저에게 [여쭈어봐요]</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>물어봐요</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>다음으로 오늘의 주인공 공지철 씨를 [모시겠습니다]</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>소개하겠습니다</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>아버님, 아범(아비)이 아직 안 [들어오셨어요]</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>들어왔습니다</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>그이가 아버님께 말씀드린다고 [하셨습니다]</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>했습니다</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>제 [부인]을 소개하겠습니다</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>집사람 | 안사람 | 처</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>이쪽에 잠깐 앉아 [계실게요]</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>주시기 바랍니다</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>선생님, [수고하세요]</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>고맙습니다</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>아버지에게 [야단을 맞았다]</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>꾸중을 들었다 | 꾸지람을 들었다 | 걱정을 들었다</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>자신의 살아 있는 아버지</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>아버지</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>자신의 살아 있는 어머니</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>어머니</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>아버님</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>어머님</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>부모 앞에서 아내를 기리킬 때</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>어멈 | 어미 | 집사람 | 안사람 | ㅇㅇ 엄마</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>남편의 형</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>남편의 형의 아내</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>남편의 아우 (미혼)</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>도련님</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>남편의 아우 (기혼)</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>남편의 아우의 아내</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>동서</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>남자의 경우, 누나</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>누나 | 누님</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>누나의 남편</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>여동생의 남편</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>남편의 누나 (손위 시누이)</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>남편의 누나의 남편</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>남편의 누이동생 (손아래 시누이)</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>아가씨 | 아기씨</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>남편의 누이동생의 남편</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>(여자의 경우) 여동생의 남편</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>제부 | ㅇ서방</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>자신의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>가친 | 엄친</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>춘부장 | 춘장 | 춘당 | 어르신 | 어르신네</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>선친 | 선고 | 선부군</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>선대인 | 선고장 | 선장</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>자신의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>자친 | 가자 | 모친</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>자당 | 훤당 | 모당 | 모부인</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>선비 | 선자</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>선대부인</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>부장님의 따님은 집에 [계신가요]?</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>있으신가요</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>아버님께서는 집안의 대소사에 대해 항상 아랫사람들에게 [여쭈어 보십니다]</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>물어보십니다</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>이것이 바로 생전에 당신께서 [아끼던] 벼루입니다</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>아끼시던</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>큰아버지, 오늘 약주를 많이 드셨는데, 제가 [집]까지 모셔다 드리겠습니다</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>댁</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>문제가 잘 [풀려지다]</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>풀리다</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>[먹혀지다]</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>먹히다</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>[읽혀지다]</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>읽히다</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>아직 그 일을 [해결되어지지] 않았다</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>해결되지</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>[패인] 땅</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>팬 | 파인</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>철수는 여자친구에게 [채였다]</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>차였다</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>앞으로 경제가 좋아질 것으로 [보여집니다]</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>보입니다</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>이 책의 글씨는 잘 [읽혀지지] 않아요</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>읽히지</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>이 문제가 잘 [풀려지지] 않는다</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>풀리지</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>내가 합격한 것이 사실인지 [믿겨지지] 않았다</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>믿기지</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>그는 훌륭한 가수로 [불리웠다]</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>불렸다</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>[잘리워진] 국토의 아픔을 잊지 말자</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>잘린</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>그 여자를 [소개시켜줘]</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>소개해줘</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>형사는 두 사건을 [연결시켰다]</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>연결하였다 | 연결했다</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>그는 직접 직원을 [교육시켰다]</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>교육하였다 | 교육했다</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>장비를 밤새 [가동시켜] 납품을 맞췄다</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>가동해 | 가동하여</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>보검이의 귀여운 모습에 소희는 [설레였다]</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>설렜다</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>재웠다(형태소)</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>자/이/우/었/다</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>태웠다(형태소)</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>타/이/우/었/다</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>세웠다(형태소)</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>서/이/우/었/다</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>밤을 [새다]</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>새우다</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>담배를 [피다]</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>피우다</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>들판을 [헤매이며] 돌아다니는 사람들</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>헤매며</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>그는 그 말을 몇 번이고 [되뇌였다]</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>되뇌었다</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>이 공간을 [분리시킬] 벽을 설치했다</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>분리할</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>기계를 하루 종일 [가동시켜서] 기일을 맞추다</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>가동해서</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>[헤매이다]</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>헤매다</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>[목메이다]</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>목메다</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>[설레이다]</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>[붙박히다]</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>붙박이다</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>[개이다]</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>[되뇌이다]</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>되뇌다</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>돌려졌다(형태소)</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>돌리/어/지/었/다</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>장작 한 [강다리]
 마늘 한 [접]
@@ -3364,537 +3802,615 @@
 -&gt; 각자 몇 개?</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>백개</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t>선생님에 너에게 [물을] 일이 있다고 하셔</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>물으실</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>선생님에 너에게 물으실 일이 있다고 [해]</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>하셔</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>담임 선생님은 키가 굉장히 [크다]</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>크시다</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t>할아버지, 지팡이가 아주 [멋져요]</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>멋지세요</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>선생님, 비가 오는데 우산 [있어요]?</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>있으세요</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>고객님이 주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
         <is>
           <t>지금부터 사장님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>있으시겠습니다 | 있겠습니다</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
         <is>
           <t>어머니께서 제게 시간을 [여쭈어] 보셨어요</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>물어</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 [오시라는데] 오후에 시간 있으십니까?</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>오라시는데</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 오라시는데 오후에 시간 [계십니까]?</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>있으십니까</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
         <is>
           <t>차에 [치다]</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>치이다</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
         <is>
           <t>날이 [개이다]</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
         <is>
           <t>마음이 [설레이다]</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
         <is>
           <t>습관처럼 중요한 말을 [되뇌이는] 버릇이 있다</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>되뇌는</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
         <is>
           <t>나는 친구 집을 찾아 골목을 [헤매이고] 다녔다</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>헤매고</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
         <is>
           <t>너무 급하게 밥을 먹으면 목이 [메이기] 마련이다</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>메기</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
         <is>
           <t>그는 어린 시절 기계에 손가락이 [끼는] 사고를 당했다</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>끼이는</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
         <is>
           <t>밀다(피동)</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>밀리다</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
         <is>
           <t>밀다(사동)</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>밀게 하다</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
         <is>
           <t>그는 김 교수에게 박 군을 [소개시켰다]</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>소개했다</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
         <is>
           <t>생각이 다른 타인을 [설득시킨다]는 건 참 힘든 일이다</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>설득한다</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
         <is>
           <t>우리는 토론을 거쳐 다양한 사회적 갈등을 [해소시킨다]</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>해소한다</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
         <is>
           <t>[닫혀진] 마음을 열 길이 없구나</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>닫힌</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
         <is>
           <t>저쪽 복도에 [놓여진] 화분은 엄청 예쁘구나</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>놓인</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
         <is>
           <t>장마로 인해 [끊겨진] 통신 선로가 드디어 복구되었다</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>끊긴</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
         </is>
@@ -459,22 +464,25 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>의견란 (발음)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>의견난</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -482,22 +490,25 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>임진란 (발음)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>임진난</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -505,22 +516,25 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>생산량 (발음)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>생산냥</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -528,22 +542,25 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>결단력 (발음)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>결딴녁</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -551,22 +568,25 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>공권력 (발음)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>공꿘녁</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -574,22 +594,25 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>동원령 (발음)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>동원녕</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -597,22 +620,25 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>상견례 (발음)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>상견녜</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -620,22 +646,25 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>횡단로 (발음)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>횡단노</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -643,22 +672,25 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>이원론 (발음)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>이원논</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -666,22 +698,25 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>입원료 (발음)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>이붠뇨</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -689,22 +724,25 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>구근류 (발음)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>구근뉴</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -712,22 +750,25 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>신문로 (발음)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>신문노</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -735,22 +776,25 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>남대문로 (발음)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>남대문노</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -758,22 +802,25 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>추진력 (발음)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>추진녁</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -781,22 +828,25 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>장맛비 (발음)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>장마삐 | 장맏삐</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -804,22 +854,25 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>등불 (발음)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>등뿔</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,22 +880,25 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>콧날 (발음)</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>콘날</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -850,22 +906,25 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>예삿일 (발음)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>예산닐</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -873,22 +932,25 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>집일 (발음)</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>짐닐</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -896,22 +958,25 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>인사말 (발음)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>인사말 |</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -919,22 +984,25 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>머리말 (발음)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>머리말 |</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -942,22 +1010,25 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>꼬리말 (발음)</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>꼬리말 |</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -965,22 +1036,25 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>고무줄 (발음)</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>고무줄 |</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -988,22 +1062,25 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>동아줄 (발음)</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>동아줄 |</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1011,22 +1088,25 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>회수(回收) (발음)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>회수 | 훼수</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1034,22 +1114,25 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>콩밥 (발음)</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>콩밥 |</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1057,22 +1140,25 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>빨랫줄 (발음)</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>빨래쭐 | 빨랟쭐</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1080,22 +1166,25 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>횟수(回數) (발음)</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>회쑤 | 홷쑤</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1103,22 +1192,25 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>아침밥 (발음)</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>아침빱</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1126,22 +1218,25 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>피어 (발음)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>피어 | 피여</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1149,22 +1244,25 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>되어 (발음)</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>되어 | 되여</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1172,22 +1270,25 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>이오 (발음)</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>이오 | 이요</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1195,22 +1296,25 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>아니오 (발음)</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>아니오 | 아니요</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1218,22 +1322,25 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>마천루 (발음)</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>마철루</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1241,22 +1348,25 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>영업용 (발음)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>영엄뇽</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1264,22 +1374,25 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>막일 (발음)</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>망닐</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1287,22 +1400,25 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>솜이불 (발음)</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>솜니불</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1310,22 +1426,25 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>스물여섯 (발음)</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>스물려섣</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1333,22 +1452,25 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>[그 동안] 안녕하셨는지요?</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>그동안</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1356,22 +1478,25 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>어줍잖은</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>어쭙잖은</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1379,22 +1504,25 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>연락드릴께요</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>연락드릴게요</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1402,22 +1530,25 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>적쟎은</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>적잖은</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1425,22 +1556,25 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>친구가 "나는 학교에 안 가겠다"[고] 말했다</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>라고</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1448,22 +1582,25 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>대통령은 진지한 연설[로서] 국민을 설득했다</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>로써</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1471,22 +1608,25 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>아침부터 흐린 게 비가 [올런지] 몰라 우산을 미리 챙겨 나갔다</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>올른지</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1494,22 +1634,25 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>길을 나서자 갑자기 곧 [햇님]이 모습을 드러냈다</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>해님</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1517,22 +1660,25 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>시장 입구에는 [앳띤] 소녀들이 우산을 들고 왁자지걸 이야기를 하며 지나가고 있었다</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>앳된</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1540,22 +1686,25 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>다음 문제를 [풀어라]</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>풀라</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1563,22 +1712,25 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>정부는 빈곤 문제에 대한 대책을 [세워라]</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>세우라</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1586,22 +1738,25 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>보기를 읽고 알맞은 답을 [골라라]</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>고르라</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1609,22 +1764,25 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>아버지께서는 생각이 [계신다]</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>있으시다</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1632,22 +1790,25 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>교장 선생님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>있으시겠습니다</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1655,22 +1816,25 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 [계신] 분, 계세요?</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>있으신</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1678,22 +1842,25 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>계세요?</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1701,22 +1868,25 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1724,22 +1894,25 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>문의하신 상품은 [품절이십니다]</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>품절입니다</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1747,22 +1920,25 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>말씀하신 사이즈가 [없으십니다]</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>없습니다</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1770,22 +1946,25 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>(상점에서) [포장이세요?]</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>포장해 드릴까요?</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1793,22 +1972,25 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>손님, 여기 주문하신 물건이 [있으시겠습니다]</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1816,22 +1998,25 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>이 물건의 가격은 만 원[되시겠습니다]</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>입니다</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1839,22 +2024,25 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>할아버지, [아버지께서 오셨습니다]</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>아버지가 왔습니다</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1862,22 +2050,25 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>어머니, [할머니가 왔습니다]</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>할머니께서 오셨습니다</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1885,22 +2076,25 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>(평사원이) 사장님, [이 과장 어디갔습니까?]</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>이 과장님 어디 가셨습니까?</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1908,22 +2102,25 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>나는 아버지를 [데리고] 집으로 왔다</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>모시고</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1931,22 +2128,25 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>나는 그 고구마를 선생님께 [주었다]</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>드렸다</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1954,22 +2154,25 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>나는 그것을 선생님께 [물었다]</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>여쭈었다</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1977,22 +2180,25 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>당랑거철(발음)</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>당낭거철</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2000,22 +2206,25 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>금란지계(발음)</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>금난지계 | 금난지게</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,22 +2232,25 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>동가홍상(발음)</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>동까홍상</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2046,22 +2258,25 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>득롱망촉(발음)</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>등농망촉</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2069,22 +2284,25 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>김밥(형태소)</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>김/밥</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2092,22 +2310,25 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>국밥(형태소)</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>국/밥</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2115,22 +2336,25 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>선생님의 [말]을 먼저 듣고, 제 말씀을 전하겠습니다</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2138,22 +2362,25 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>선생님의 말씀을 먼저 듣고, 제 [말]을 전하겠습니다</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2161,22 +2388,25 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>딸 아이가 학교에서 돌아오기만 하면 꼭 저에게 [여쭈어봐요]</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>물어봐요</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2184,22 +2414,25 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>다음으로 오늘의 주인공 공지철 씨를 [모시겠습니다]</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>소개하겠습니다</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2207,22 +2440,25 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>아버님, 아범(아비)이 아직 안 [들어오셨어요]</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>들어왔습니다</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2230,22 +2466,25 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>그이가 아버님께 말씀드린다고 [하셨습니다]</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>했습니다</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2253,22 +2492,25 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>제 [부인]을 소개하겠습니다</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>집사람 | 안사람 | 처</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2276,22 +2518,25 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>이쪽에 잠깐 앉아 [계실게요]</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>주시기 바랍니다</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2299,22 +2544,25 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>선생님, [수고하세요]</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>고맙습니다</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2322,22 +2570,25 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>아버지에게 [야단을 맞았다]</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>꾸중을 들었다 | 꾸지람을 들었다 | 걱정을 들었다</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2345,22 +2596,25 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>자신의 살아 있는 아버지</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>아버지</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2368,22 +2622,25 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>자신의 살아 있는 어머니</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>어머니</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2391,22 +2648,25 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>아버님</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,22 +2674,25 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>어머님</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2437,22 +2700,25 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>부모 앞에서 아내를 기리킬 때</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>어멈 | 어미 | 집사람 | 안사람 | ㅇㅇ 엄마</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2460,22 +2726,25 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>남편의 형</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2483,22 +2752,25 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>남편의 형의 아내</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2506,22 +2778,25 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>남편의 아우 (미혼)</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>도련님</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2529,22 +2804,25 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>남편의 아우 (기혼)</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,22 +2830,25 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>남편의 아우의 아내</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>동서</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2575,22 +2856,25 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>남자의 경우, 누나</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>누나 | 누님</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2598,22 +2882,25 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>누나의 남편</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2621,22 +2908,25 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>여동생의 남편</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2644,22 +2934,25 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>남편의 누나 (손위 시누이)</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2667,22 +2960,25 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>남편의 누나의 남편</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2690,22 +2986,25 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>남편의 누이동생 (손아래 시누이)</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>아가씨 | 아기씨</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2713,22 +3012,25 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>남편의 누이동생의 남편</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2736,22 +3038,25 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>(여자의 경우) 여동생의 남편</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>제부 | ㅇ서방</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2759,22 +3064,25 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>자신의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>가친 | 엄친</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2782,22 +3090,25 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>춘부장 | 춘장 | 춘당 | 어르신 | 어르신네</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2805,22 +3116,25 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>선친 | 선고 | 선부군</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2828,22 +3142,25 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>선대인 | 선고장 | 선장</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2851,22 +3168,25 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>자신의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>자친 | 가자 | 모친</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2874,22 +3194,25 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>자당 | 훤당 | 모당 | 모부인</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2897,22 +3220,25 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>선비 | 선자</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2920,22 +3246,25 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>선대부인</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2943,22 +3272,25 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>부장님의 따님은 집에 [계신가요]?</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>있으신가요</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2966,22 +3298,25 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>아버님께서는 집안의 대소사에 대해 항상 아랫사람들에게 [여쭈어 보십니다]</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>물어보십니다</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2989,22 +3324,25 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>이것이 바로 생전에 당신께서 [아끼던] 벼루입니다</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>아끼시던</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3012,22 +3350,25 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="inlineStr">
         <is>
           <t>큰아버지, 오늘 약주를 많이 드셨는데, 제가 [집]까지 모셔다 드리겠습니다</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>댁</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3035,22 +3376,25 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>문제가 잘 [풀려지다]</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>풀리다</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3058,22 +3402,25 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>[먹혀지다]</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>먹히다</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3081,22 +3428,25 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>[읽혀지다]</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>읽히다</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3104,22 +3454,25 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>아직 그 일을 [해결되어지지] 않았다</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>해결되지</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3127,22 +3480,25 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>[패인] 땅</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>팬 | 파인</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3150,22 +3506,25 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="inlineStr">
         <is>
           <t>철수는 여자친구에게 [채였다]</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>차였다</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3173,22 +3532,25 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>앞으로 경제가 좋아질 것으로 [보여집니다]</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>보입니다</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3196,22 +3558,25 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>이 책의 글씨는 잘 [읽혀지지] 않아요</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>읽히지</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3219,22 +3584,25 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="inlineStr">
         <is>
           <t>이 문제가 잘 [풀려지지] 않는다</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>풀리지</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3242,22 +3610,25 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>내가 합격한 것이 사실인지 [믿겨지지] 않았다</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>믿기지</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3265,22 +3636,25 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="inlineStr">
         <is>
           <t>그는 훌륭한 가수로 [불리웠다]</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>불렸다</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3288,22 +3662,25 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>[잘리워진] 국토의 아픔을 잊지 말자</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>잘린</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3311,22 +3688,25 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>그 여자를 [소개시켜줘]</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>소개해줘</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3334,22 +3714,25 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>형사는 두 사건을 [연결시켰다]</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>연결하였다 | 연결했다</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3357,22 +3740,25 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>그는 직접 직원을 [교육시켰다]</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>교육하였다 | 교육했다</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3380,22 +3766,25 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>장비를 밤새 [가동시켜] 납품을 맞췄다</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>가동해 | 가동하여</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3403,22 +3792,25 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="inlineStr">
         <is>
           <t>보검이의 귀여운 모습에 소희는 [설레였다]</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>설렜다</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3426,22 +3818,25 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="inlineStr">
         <is>
           <t>재웠다(형태소)</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>자/이/우/었/다</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3449,22 +3844,25 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="inlineStr">
         <is>
           <t>태웠다(형태소)</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>타/이/우/었/다</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3472,22 +3870,25 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="inlineStr">
         <is>
           <t>세웠다(형태소)</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>서/이/우/었/다</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3495,22 +3896,25 @@
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" t="inlineStr">
         <is>
           <t>밤을 [새다]</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>새우다</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3518,22 +3922,25 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" t="inlineStr">
         <is>
           <t>담배를 [피다]</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>피우다</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3541,22 +3948,25 @@
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="inlineStr">
         <is>
           <t>들판을 [헤매이며] 돌아다니는 사람들</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>헤매며</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3564,22 +3974,25 @@
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" t="inlineStr">
         <is>
           <t>그는 그 말을 몇 번이고 [되뇌였다]</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>되뇌었다</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3587,22 +4000,25 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>이 공간을 [분리시킬] 벽을 설치했다</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>분리할</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3610,22 +4026,25 @@
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" t="inlineStr">
         <is>
           <t>기계를 하루 종일 [가동시켜서] 기일을 맞추다</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>가동해서</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3633,22 +4052,25 @@
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>[헤매이다]</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>헤매다</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3656,22 +4078,25 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" t="inlineStr">
         <is>
           <t>[목메이다]</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>목메다</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3679,22 +4104,25 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" t="n">
+        <v>140</v>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t>[설레이다]</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3702,22 +4130,25 @@
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" t="n">
+        <v>141</v>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>[붙박히다]</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>붙박이다</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3725,22 +4156,25 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" t="n">
+        <v>142</v>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>[개이다]</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3748,22 +4182,25 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" t="n">
+        <v>143</v>
+      </c>
+      <c r="C145" t="inlineStr">
         <is>
           <t>[되뇌이다]</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>되뇌다</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3771,22 +4208,25 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>돌려졌다(형태소)</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>돌리/어/지/었/다</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3794,7 +4234,10 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" t="n">
+        <v>145</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>장작 한 [강다리]
 마늘 한 [접]
@@ -3802,17 +4245,17 @@
 -&gt; 각자 몇 개?</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>백개</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3820,22 +4263,25 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" t="n">
+        <v>146</v>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>선생님에 너에게 [물을] 일이 있다고 하셔</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>물으실</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,22 +4289,25 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" t="n">
+        <v>147</v>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>선생님에 너에게 물으실 일이 있다고 [해]</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>하셔</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3866,22 +4315,25 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" t="n">
+        <v>148</v>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3889,22 +4341,25 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" t="inlineStr">
         <is>
           <t>담임 선생님은 키가 굉장히 [크다]</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>크시다</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3912,22 +4367,25 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" t="n">
+        <v>150</v>
+      </c>
+      <c r="C152" t="inlineStr">
         <is>
           <t>할아버지, 지팡이가 아주 [멋져요]</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>멋지세요</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3935,22 +4393,25 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" t="n">
+        <v>151</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>선생님, 비가 오는데 우산 [있어요]?</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>있으세요</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3958,22 +4419,25 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" t="n">
+        <v>152</v>
+      </c>
+      <c r="C154" t="inlineStr">
         <is>
           <t>고객님이 주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3981,22 +4445,25 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" t="n">
+        <v>153</v>
+      </c>
+      <c r="C155" t="inlineStr">
         <is>
           <t>지금부터 사장님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>있으시겠습니다 | 있겠습니다</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4004,22 +4471,25 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" t="n">
+        <v>154</v>
+      </c>
+      <c r="C156" t="inlineStr">
         <is>
           <t>어머니께서 제게 시간을 [여쭈어] 보셨어요</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>물어</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4027,22 +4497,25 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" t="n">
+        <v>155</v>
+      </c>
+      <c r="C157" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 [오시라는데] 오후에 시간 있으십니까?</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>오라시는데</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4050,22 +4523,25 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" t="n">
+        <v>156</v>
+      </c>
+      <c r="C158" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 오라시는데 오후에 시간 [계십니까]?</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>있으십니까</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4073,22 +4549,25 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" t="n">
+        <v>157</v>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t>차에 [치다]</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>치이다</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4096,22 +4575,25 @@
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" t="n">
+        <v>158</v>
+      </c>
+      <c r="C160" t="inlineStr">
         <is>
           <t>날이 [개이다]</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4119,22 +4601,25 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" t="n">
+        <v>159</v>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>마음이 [설레이다]</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4142,22 +4627,25 @@
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" t="n">
+        <v>160</v>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>습관처럼 중요한 말을 [되뇌이는] 버릇이 있다</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>되뇌는</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4165,22 +4653,25 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" t="n">
+        <v>161</v>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>나는 친구 집을 찾아 골목을 [헤매이고] 다녔다</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>헤매고</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4188,22 +4679,25 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" t="n">
+        <v>162</v>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>너무 급하게 밥을 먹으면 목이 [메이기] 마련이다</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>메기</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4211,22 +4705,25 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" t="n">
+        <v>163</v>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>그는 어린 시절 기계에 손가락이 [끼는] 사고를 당했다</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>끼이는</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4234,22 +4731,25 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B166" t="n">
+        <v>164</v>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>밀다(피동)</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>밀리다</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4257,22 +4757,25 @@
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" t="n">
+        <v>165</v>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>밀다(사동)</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>밀게 하다</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4280,22 +4783,25 @@
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" t="n">
+        <v>166</v>
+      </c>
+      <c r="C168" t="inlineStr">
         <is>
           <t>그는 김 교수에게 박 군을 [소개시켰다]</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>소개했다</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4303,22 +4809,25 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" t="n">
+        <v>167</v>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t>생각이 다른 타인을 [설득시킨다]는 건 참 힘든 일이다</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>설득한다</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4326,22 +4835,25 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" t="n">
+        <v>168</v>
+      </c>
+      <c r="C170" t="inlineStr">
         <is>
           <t>우리는 토론을 거쳐 다양한 사회적 갈등을 [해소시킨다]</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>해소한다</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4349,22 +4861,25 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" t="n">
+        <v>169</v>
+      </c>
+      <c r="C171" t="inlineStr">
         <is>
           <t>[닫혀진] 마음을 열 길이 없구나</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>닫힌</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4372,22 +4887,25 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" t="n">
+        <v>170</v>
+      </c>
+      <c r="C172" t="inlineStr">
         <is>
           <t>저쪽 복도에 [놓여진] 화분은 엄청 예쁘구나</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>놓인</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4395,24 +4913,997 @@
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" t="n">
+        <v>171</v>
+      </c>
+      <c r="C173" t="inlineStr">
         <is>
           <t>장마로 인해 [끊겨진] 통신 선로가 드디어 복구되었다</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>끊긴</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>-1</v>
-      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>花無十日紅</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>화무십일홍| 1. 「열흘 붉은 꽃이 없다.」는 뜻으로,
+2. 「한 번 성한 것이 얼마 못 가서 반드시 쇠(衰)하여짐.」을 이르는 말.
+3. 권세(權勢)나 세력(勢力)의 성(盛)함이 오래 가지 않는다는 말.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>學而時習之不亦說乎</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>학이시습지불역열호|배우고 때때로 익히면 또한 기쁘지 아니한가?</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>[핼쑥]하다</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>해쓱</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>[국쑤]</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>국수</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>국수(발음)</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>국쑤</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>[깍뚜기]</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>깍두기</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>깍두기(발음)</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>깍두기</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>[법썩]</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>법석</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>법석(발음)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>법썩</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>[짭잘]하다</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>짭짤</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>[씁슬]하다</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>씁쓸</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>[딱찌]</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>딱지</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>딱지(발음)</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>딱찌</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>[싹뚝]</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>싹둑</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>싹둑(발음)</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>싹뚝</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>[몹씨]</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>몹시</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>몹시(발음)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>몹씨</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>[신녀성]</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>신여성</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>[공념불]</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>공염불</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>[남존녀비]</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>남존여비</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>[실락원]</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>실낙원</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>나는 [자랑스런] 태극기 앞에</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>자랑스러운</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>선수들은 [만족스런] 경기를 펼쳤다</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>만족스러운</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>[어둔] 방에서 책을 읽었다</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>어두운</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>잘 [군] 감자를 먹었다</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>구운</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>더 놀다 [가려므나]</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>가려무나</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>요즘은 손님이 전혀 [없쑤]</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>없우</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>일을 [할려면] 제대로 해야지</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>하려면</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>그 연인은 [뗄려야] 뗄 수 없는 사이다</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>떼려야</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>그는 예의를 [지키고저] 스승을 찾았다</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>지키고자</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>오늘은 일진이 [좋을런지] 기분이 좋다</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>좋을는지</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>그 사람이 과연 이 일을 [맡을런지]</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>맡을는지</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>다시는 두말 못 [하렸다]</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>하렷다</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>너도 [아다시피] 내게 무슨 힘이 있니?</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>알다시피</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>정말 깨끗한 [동네이구료]</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>동네이구려</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>누가 [왔관대] 이리 소란스러울까?</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>왔관데</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>하늘을 [날으는] 비행기</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>나는</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>아름다운 서울에서 [살으렵니다]</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>살렵니다</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>우리 부부는 둘 다 돈을 [벌으므로] 여유가 있습니다</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>벌므로</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>모두 힘을 모아 차를 [밀읍시다]</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>밉시다</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>이 방의 길이가 [짧으네요]</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>짧네요</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>이 방은 참 [넓으네요]</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>넓네요</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>짧네요(발음)</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>짤레요</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>넓네요(발음)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>널레요</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,45 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.4</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
         </is>
@@ -467,22 +487,34 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>의견란 (발음)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>의견난</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -493,22 +525,34 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>임진란 (발음)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>임진난</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -519,22 +563,34 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>생산량 (발음)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>생산냥</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -545,22 +601,34 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>결단력 (발음)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>결딴녁</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -571,22 +639,34 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>공권력 (발음)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>공꿘녁</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -597,22 +677,34 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>동원령 (발음)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>동원녕</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -623,22 +715,34 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>상견례 (발음)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>상견녜</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -649,22 +753,34 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>횡단로 (발음)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>횡단노</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -675,22 +791,34 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>이원론 (발음)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>이원논</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -701,22 +829,34 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>입원료 (발음)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>이붠뇨</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -727,22 +867,34 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>구근류 (발음)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>구근뉴</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -753,22 +905,34 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>신문로 (발음)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>신문노</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -779,22 +943,34 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>남대문로 (발음)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>남대문노</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -805,22 +981,34 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>추진력 (발음)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>추진녁</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -831,22 +1019,34 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>장맛비 (발음)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>장마삐 | 장맏삐</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,22 +1057,34 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>등불 (발음)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>등뿔</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -883,22 +1095,34 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>콧날 (발음)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>콘날</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -909,22 +1133,34 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>예삿일 (발음)</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>예산닐</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -935,22 +1171,34 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>집일 (발음)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>짐닐</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -961,22 +1209,34 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>인사말 (발음)</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>인사말 |</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -987,22 +1247,34 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>머리말 (발음)</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>머리말 |</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1013,22 +1285,34 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>꼬리말 (발음)</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>꼬리말 |</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1039,22 +1323,34 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>고무줄 (발음)</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>고무줄 |</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1065,22 +1361,34 @@
       <c r="B25" t="n">
         <v>23</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>동아줄 (발음)</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>동아줄 |</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1091,22 +1399,34 @@
       <c r="B26" t="n">
         <v>24</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>회수(回收) (발음)</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>회수 | 훼수</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1117,22 +1437,34 @@
       <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>콩밥 (발음)</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>콩밥 |</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1143,22 +1475,34 @@
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>빨랫줄 (발음)</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>빨래쭐 | 빨랟쭐</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1169,22 +1513,34 @@
       <c r="B29" t="n">
         <v>27</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>횟수(回數) (발음)</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>회쑤 | 홷쑤</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1195,22 +1551,34 @@
       <c r="B30" t="n">
         <v>28</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="n">
+        <v>28</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>아침밥 (발음)</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>아침빱</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1221,22 +1589,34 @@
       <c r="B31" t="n">
         <v>29</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
+        <v>29</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>피어 (발음)</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>피어 | 피여</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1247,22 +1627,34 @@
       <c r="B32" t="n">
         <v>30</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>되어 (발음)</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>되어 | 되여</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1273,22 +1665,34 @@
       <c r="B33" t="n">
         <v>31</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="n">
+        <v>31</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>이오 (발음)</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>이오 | 이요</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1299,22 +1703,34 @@
       <c r="B34" t="n">
         <v>32</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
+        <v>32</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>아니오 (발음)</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>아니오 | 아니요</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1325,22 +1741,34 @@
       <c r="B35" t="n">
         <v>33</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" t="n">
+        <v>33</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>마천루 (발음)</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>마철루</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1351,22 +1779,34 @@
       <c r="B36" t="n">
         <v>34</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>34</v>
+      </c>
+      <c r="F36" t="n">
+        <v>34</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>영업용 (발음)</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>영엄뇽</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1377,22 +1817,34 @@
       <c r="B37" t="n">
         <v>35</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35</v>
+      </c>
+      <c r="F37" t="n">
+        <v>35</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>막일 (발음)</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>망닐</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1403,22 +1855,34 @@
       <c r="B38" t="n">
         <v>36</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>36</v>
+      </c>
+      <c r="F38" t="n">
+        <v>36</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>솜이불 (발음)</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>솜니불</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1429,22 +1893,34 @@
       <c r="B39" t="n">
         <v>37</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>스물여섯 (발음)</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>스물려섣</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1455,22 +1931,34 @@
       <c r="B40" t="n">
         <v>38</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>38</v>
+      </c>
+      <c r="F40" t="n">
+        <v>38</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>[그 동안] 안녕하셨는지요?</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>그동안</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1481,22 +1969,34 @@
       <c r="B41" t="n">
         <v>39</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
+        <v>39</v>
+      </c>
+      <c r="F41" t="n">
+        <v>39</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>어줍잖은</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>어쭙잖은</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1507,22 +2007,34 @@
       <c r="B42" t="n">
         <v>40</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40</v>
+      </c>
+      <c r="F42" t="n">
+        <v>40</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>연락드릴께요</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>연락드릴게요</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1533,22 +2045,34 @@
       <c r="B43" t="n">
         <v>41</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="n">
+        <v>41</v>
+      </c>
+      <c r="F43" t="n">
+        <v>41</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>적쟎은</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>적잖은</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1559,22 +2083,34 @@
       <c r="B44" t="n">
         <v>42</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>42</v>
+      </c>
+      <c r="F44" t="n">
+        <v>42</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>친구가 "나는 학교에 안 가겠다"[고] 말했다</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>라고</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1585,22 +2121,34 @@
       <c r="B45" t="n">
         <v>43</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>43</v>
+      </c>
+      <c r="F45" t="n">
+        <v>43</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>대통령은 진지한 연설[로서] 국민을 설득했다</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>로써</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1611,22 +2159,34 @@
       <c r="B46" t="n">
         <v>44</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
+        <v>44</v>
+      </c>
+      <c r="F46" t="n">
+        <v>44</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>아침부터 흐린 게 비가 [올런지] 몰라 우산을 미리 챙겨 나갔다</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>올른지</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1637,22 +2197,34 @@
       <c r="B47" t="n">
         <v>45</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
+        <v>45</v>
+      </c>
+      <c r="F47" t="n">
+        <v>45</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>길을 나서자 갑자기 곧 [햇님]이 모습을 드러냈다</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>해님</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1663,22 +2235,34 @@
       <c r="B48" t="n">
         <v>46</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>46</v>
+      </c>
+      <c r="F48" t="n">
+        <v>46</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>시장 입구에는 [앳띤] 소녀들이 우산을 들고 왁자지걸 이야기를 하며 지나가고 있었다</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>앳된</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1689,22 +2273,34 @@
       <c r="B49" t="n">
         <v>47</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47</v>
+      </c>
+      <c r="F49" t="n">
+        <v>47</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>다음 문제를 [풀어라]</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>풀라</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1715,22 +2311,34 @@
       <c r="B50" t="n">
         <v>48</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
+        <v>48</v>
+      </c>
+      <c r="F50" t="n">
+        <v>48</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>정부는 빈곤 문제에 대한 대책을 [세워라]</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>세우라</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1741,22 +2349,34 @@
       <c r="B51" t="n">
         <v>49</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
+        <v>49</v>
+      </c>
+      <c r="F51" t="n">
+        <v>49</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>보기를 읽고 알맞은 답을 [골라라]</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>고르라</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1767,22 +2387,34 @@
       <c r="B52" t="n">
         <v>50</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" t="n">
+        <v>50</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>아버지께서는 생각이 [계신다]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>있으시다</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1793,22 +2425,34 @@
       <c r="B53" t="n">
         <v>51</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="n">
+        <v>51</v>
+      </c>
+      <c r="F53" t="n">
+        <v>51</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>교장 선생님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>있으시겠습니다</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1819,22 +2463,34 @@
       <c r="B54" t="n">
         <v>52</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>52</v>
+      </c>
+      <c r="F54" t="n">
+        <v>52</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 [계신] 분, 계세요?</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>있으신</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1845,22 +2501,34 @@
       <c r="B55" t="n">
         <v>53</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" t="n">
+        <v>53</v>
+      </c>
+      <c r="F55" t="n">
+        <v>53</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>계세요?</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1871,22 +2539,34 @@
       <c r="B56" t="n">
         <v>54</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>54</v>
+      </c>
+      <c r="F56" t="n">
+        <v>54</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1897,22 +2577,34 @@
       <c r="B57" t="n">
         <v>55</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>55</v>
+      </c>
+      <c r="F57" t="n">
+        <v>55</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>문의하신 상품은 [품절이십니다]</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>품절입니다</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1923,22 +2615,34 @@
       <c r="B58" t="n">
         <v>56</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="n">
+        <v>56</v>
+      </c>
+      <c r="F58" t="n">
+        <v>56</v>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>말씀하신 사이즈가 [없으십니다]</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>없습니다</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1949,22 +2653,34 @@
       <c r="B59" t="n">
         <v>57</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>57</v>
+      </c>
+      <c r="F59" t="n">
+        <v>57</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>(상점에서) [포장이세요?]</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>포장해 드릴까요?</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1975,22 +2691,34 @@
       <c r="B60" t="n">
         <v>58</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>58</v>
+      </c>
+      <c r="F60" t="n">
+        <v>58</v>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>손님, 여기 주문하신 물건이 [있으시겠습니다]</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2001,22 +2729,34 @@
       <c r="B61" t="n">
         <v>59</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" t="n">
+        <v>59</v>
+      </c>
+      <c r="F61" t="n">
+        <v>59</v>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>이 물건의 가격은 만 원[되시겠습니다]</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>입니다</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2027,22 +2767,34 @@
       <c r="B62" t="n">
         <v>60</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="n">
+        <v>60</v>
+      </c>
+      <c r="F62" t="n">
+        <v>60</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>할아버지, [아버지께서 오셨습니다]</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>아버지가 왔습니다</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2053,22 +2805,34 @@
       <c r="B63" t="n">
         <v>61</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" t="n">
+        <v>61</v>
+      </c>
+      <c r="F63" t="n">
+        <v>61</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>어머니, [할머니가 왔습니다]</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>할머니께서 오셨습니다</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2079,22 +2843,34 @@
       <c r="B64" t="n">
         <v>62</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="n">
+        <v>62</v>
+      </c>
+      <c r="E64" t="n">
+        <v>62</v>
+      </c>
+      <c r="F64" t="n">
+        <v>62</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>(평사원이) 사장님, [이 과장 어디갔습니까?]</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>이 과장님 어디 가셨습니까?</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2105,22 +2881,34 @@
       <c r="B65" t="n">
         <v>63</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65" t="n">
+        <v>63</v>
+      </c>
+      <c r="F65" t="n">
+        <v>63</v>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>나는 아버지를 [데리고] 집으로 왔다</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>모시고</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2131,22 +2919,34 @@
       <c r="B66" t="n">
         <v>64</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="n">
+        <v>64</v>
+      </c>
+      <c r="E66" t="n">
+        <v>64</v>
+      </c>
+      <c r="F66" t="n">
+        <v>64</v>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>나는 그 고구마를 선생님께 [주었다]</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>드렸다</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2157,22 +2957,34 @@
       <c r="B67" t="n">
         <v>65</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>65</v>
+      </c>
+      <c r="F67" t="n">
+        <v>65</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>나는 그것을 선생님께 [물었다]</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>여쭈었다</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2183,22 +2995,34 @@
       <c r="B68" t="n">
         <v>66</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="n">
+        <v>66</v>
+      </c>
+      <c r="E68" t="n">
+        <v>66</v>
+      </c>
+      <c r="F68" t="n">
+        <v>66</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>당랑거철(발음)</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>당낭거철</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2209,22 +3033,34 @@
       <c r="B69" t="n">
         <v>67</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="n">
+        <v>67</v>
+      </c>
+      <c r="E69" t="n">
+        <v>67</v>
+      </c>
+      <c r="F69" t="n">
+        <v>67</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>금란지계(발음)</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>금난지계 | 금난지게</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2235,22 +3071,34 @@
       <c r="B70" t="n">
         <v>68</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="n">
+        <v>68</v>
+      </c>
+      <c r="E70" t="n">
+        <v>68</v>
+      </c>
+      <c r="F70" t="n">
+        <v>68</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>동가홍상(발음)</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>동까홍상</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2261,22 +3109,34 @@
       <c r="B71" t="n">
         <v>69</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="n">
+        <v>69</v>
+      </c>
+      <c r="E71" t="n">
+        <v>69</v>
+      </c>
+      <c r="F71" t="n">
+        <v>69</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>득롱망촉(발음)</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>등농망촉</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2287,22 +3147,34 @@
       <c r="B72" t="n">
         <v>70</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="n">
+        <v>70</v>
+      </c>
+      <c r="E72" t="n">
+        <v>70</v>
+      </c>
+      <c r="F72" t="n">
+        <v>70</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>김밥(형태소)</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>김/밥</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2313,22 +3185,34 @@
       <c r="B73" t="n">
         <v>71</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="n">
+        <v>71</v>
+      </c>
+      <c r="E73" t="n">
+        <v>71</v>
+      </c>
+      <c r="F73" t="n">
+        <v>71</v>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>국밥(형태소)</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>국/밥</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2339,22 +3223,34 @@
       <c r="B74" t="n">
         <v>72</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="n">
+        <v>72</v>
+      </c>
+      <c r="E74" t="n">
+        <v>72</v>
+      </c>
+      <c r="F74" t="n">
+        <v>72</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>선생님의 [말]을 먼저 듣고, 제 말씀을 전하겠습니다</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2365,22 +3261,34 @@
       <c r="B75" t="n">
         <v>73</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="n">
+        <v>73</v>
+      </c>
+      <c r="E75" t="n">
+        <v>73</v>
+      </c>
+      <c r="F75" t="n">
+        <v>73</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>선생님의 말씀을 먼저 듣고, 제 [말]을 전하겠습니다</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2391,22 +3299,34 @@
       <c r="B76" t="n">
         <v>74</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="n">
+        <v>74</v>
+      </c>
+      <c r="E76" t="n">
+        <v>74</v>
+      </c>
+      <c r="F76" t="n">
+        <v>74</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>딸 아이가 학교에서 돌아오기만 하면 꼭 저에게 [여쭈어봐요]</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>물어봐요</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2417,22 +3337,34 @@
       <c r="B77" t="n">
         <v>75</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="n">
+        <v>75</v>
+      </c>
+      <c r="E77" t="n">
+        <v>75</v>
+      </c>
+      <c r="F77" t="n">
+        <v>75</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>다음으로 오늘의 주인공 공지철 씨를 [모시겠습니다]</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>소개하겠습니다</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2443,22 +3375,34 @@
       <c r="B78" t="n">
         <v>76</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="n">
+        <v>76</v>
+      </c>
+      <c r="E78" t="n">
+        <v>76</v>
+      </c>
+      <c r="F78" t="n">
+        <v>76</v>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>아버님, 아범(아비)이 아직 안 [들어오셨어요]</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>들어왔습니다</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2469,22 +3413,34 @@
       <c r="B79" t="n">
         <v>77</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="n">
+        <v>77</v>
+      </c>
+      <c r="E79" t="n">
+        <v>77</v>
+      </c>
+      <c r="F79" t="n">
+        <v>77</v>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>그이가 아버님께 말씀드린다고 [하셨습니다]</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>했습니다</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2495,22 +3451,34 @@
       <c r="B80" t="n">
         <v>78</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="n">
+        <v>78</v>
+      </c>
+      <c r="E80" t="n">
+        <v>78</v>
+      </c>
+      <c r="F80" t="n">
+        <v>78</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>제 [부인]을 소개하겠습니다</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>집사람 | 안사람 | 처</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2521,22 +3489,34 @@
       <c r="B81" t="n">
         <v>79</v>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="n">
+        <v>79</v>
+      </c>
+      <c r="E81" t="n">
+        <v>79</v>
+      </c>
+      <c r="F81" t="n">
+        <v>79</v>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>이쪽에 잠깐 앉아 [계실게요]</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>주시기 바랍니다</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2547,22 +3527,34 @@
       <c r="B82" t="n">
         <v>80</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="n">
+        <v>80</v>
+      </c>
+      <c r="E82" t="n">
+        <v>80</v>
+      </c>
+      <c r="F82" t="n">
+        <v>80</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>선생님, [수고하세요]</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>고맙습니다</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2573,22 +3565,34 @@
       <c r="B83" t="n">
         <v>81</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="n">
+        <v>81</v>
+      </c>
+      <c r="E83" t="n">
+        <v>81</v>
+      </c>
+      <c r="F83" t="n">
+        <v>81</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>아버지에게 [야단을 맞았다]</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>꾸중을 들었다 | 꾸지람을 들었다 | 걱정을 들었다</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2599,22 +3603,34 @@
       <c r="B84" t="n">
         <v>82</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="n">
+        <v>82</v>
+      </c>
+      <c r="E84" t="n">
+        <v>82</v>
+      </c>
+      <c r="F84" t="n">
+        <v>82</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>자신의 살아 있는 아버지</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>아버지</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2625,22 +3641,34 @@
       <c r="B85" t="n">
         <v>83</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="n">
+        <v>83</v>
+      </c>
+      <c r="E85" t="n">
+        <v>83</v>
+      </c>
+      <c r="F85" t="n">
+        <v>83</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>자신의 살아 있는 어머니</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>어머니</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2651,22 +3679,34 @@
       <c r="B86" t="n">
         <v>84</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="n">
+        <v>84</v>
+      </c>
+      <c r="E86" t="n">
+        <v>84</v>
+      </c>
+      <c r="F86" t="n">
+        <v>84</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>아버님</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2677,22 +3717,34 @@
       <c r="B87" t="n">
         <v>85</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="n">
+        <v>85</v>
+      </c>
+      <c r="E87" t="n">
+        <v>85</v>
+      </c>
+      <c r="F87" t="n">
+        <v>85</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>어머님</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2703,22 +3755,34 @@
       <c r="B88" t="n">
         <v>86</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" t="n">
+        <v>86</v>
+      </c>
+      <c r="F88" t="n">
+        <v>86</v>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>부모 앞에서 아내를 기리킬 때</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>어멈 | 어미 | 집사람 | 안사람 | ㅇㅇ 엄마</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2729,22 +3793,34 @@
       <c r="B89" t="n">
         <v>87</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" t="n">
+        <v>87</v>
+      </c>
+      <c r="F89" t="n">
+        <v>87</v>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>남편의 형</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2755,22 +3831,34 @@
       <c r="B90" t="n">
         <v>88</v>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="n">
+        <v>88</v>
+      </c>
+      <c r="E90" t="n">
+        <v>88</v>
+      </c>
+      <c r="F90" t="n">
+        <v>88</v>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>남편의 형의 아내</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2781,22 +3869,34 @@
       <c r="B91" t="n">
         <v>89</v>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="n">
+        <v>89</v>
+      </c>
+      <c r="E91" t="n">
+        <v>89</v>
+      </c>
+      <c r="F91" t="n">
+        <v>89</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>남편의 아우 (미혼)</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>도련님</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2807,22 +3907,34 @@
       <c r="B92" t="n">
         <v>90</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
+      <c r="E92" t="n">
+        <v>90</v>
+      </c>
+      <c r="F92" t="n">
+        <v>90</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>남편의 아우 (기혼)</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2833,22 +3945,34 @@
       <c r="B93" t="n">
         <v>91</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="n">
+        <v>91</v>
+      </c>
+      <c r="E93" t="n">
+        <v>91</v>
+      </c>
+      <c r="F93" t="n">
+        <v>91</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>남편의 아우의 아내</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>동서</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2859,22 +3983,34 @@
       <c r="B94" t="n">
         <v>92</v>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="n">
+        <v>92</v>
+      </c>
+      <c r="E94" t="n">
+        <v>92</v>
+      </c>
+      <c r="F94" t="n">
+        <v>92</v>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>남자의 경우, 누나</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>누나 | 누님</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2885,22 +4021,34 @@
       <c r="B95" t="n">
         <v>93</v>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="n">
+        <v>93</v>
+      </c>
+      <c r="E95" t="n">
+        <v>93</v>
+      </c>
+      <c r="F95" t="n">
+        <v>93</v>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>누나의 남편</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2911,22 +4059,34 @@
       <c r="B96" t="n">
         <v>94</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="n">
+        <v>94</v>
+      </c>
+      <c r="E96" t="n">
+        <v>94</v>
+      </c>
+      <c r="F96" t="n">
+        <v>94</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>여동생의 남편</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2937,22 +4097,34 @@
       <c r="B97" t="n">
         <v>95</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="n">
+        <v>95</v>
+      </c>
+      <c r="E97" t="n">
+        <v>95</v>
+      </c>
+      <c r="F97" t="n">
+        <v>95</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>남편의 누나 (손위 시누이)</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2963,22 +4135,34 @@
       <c r="B98" t="n">
         <v>96</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="n">
+        <v>96</v>
+      </c>
+      <c r="E98" t="n">
+        <v>96</v>
+      </c>
+      <c r="F98" t="n">
+        <v>96</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>남편의 누나의 남편</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2989,22 +4173,34 @@
       <c r="B99" t="n">
         <v>97</v>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="n">
+        <v>97</v>
+      </c>
+      <c r="E99" t="n">
+        <v>97</v>
+      </c>
+      <c r="F99" t="n">
+        <v>97</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>남편의 누이동생 (손아래 시누이)</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>아가씨 | 아기씨</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3015,22 +4211,34 @@
       <c r="B100" t="n">
         <v>98</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" t="n">
+        <v>98</v>
+      </c>
+      <c r="F100" t="n">
+        <v>98</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>남편의 누이동생의 남편</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3041,22 +4249,34 @@
       <c r="B101" t="n">
         <v>99</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="n">
+        <v>99</v>
+      </c>
+      <c r="E101" t="n">
+        <v>99</v>
+      </c>
+      <c r="F101" t="n">
+        <v>99</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>(여자의 경우) 여동생의 남편</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>제부 | ㅇ서방</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3067,22 +4287,34 @@
       <c r="B102" t="n">
         <v>100</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>100</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>자신의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>가친 | 엄친</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3093,22 +4325,34 @@
       <c r="B103" t="n">
         <v>101</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="n">
+        <v>101</v>
+      </c>
+      <c r="E103" t="n">
+        <v>101</v>
+      </c>
+      <c r="F103" t="n">
+        <v>101</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>춘부장 | 춘장 | 춘당 | 어르신 | 어르신네</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3119,22 +4363,34 @@
       <c r="B104" t="n">
         <v>102</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="n">
+        <v>102</v>
+      </c>
+      <c r="E104" t="n">
+        <v>102</v>
+      </c>
+      <c r="F104" t="n">
+        <v>102</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>선친 | 선고 | 선부군</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3145,22 +4401,34 @@
       <c r="B105" t="n">
         <v>103</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="n">
+        <v>103</v>
+      </c>
+      <c r="E105" t="n">
+        <v>103</v>
+      </c>
+      <c r="F105" t="n">
+        <v>103</v>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>선대인 | 선고장 | 선장</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3171,22 +4439,34 @@
       <c r="B106" t="n">
         <v>104</v>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="n">
+        <v>104</v>
+      </c>
+      <c r="E106" t="n">
+        <v>104</v>
+      </c>
+      <c r="F106" t="n">
+        <v>104</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>자신의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>자친 | 가자 | 모친</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3197,22 +4477,34 @@
       <c r="B107" t="n">
         <v>105</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="n">
+        <v>105</v>
+      </c>
+      <c r="E107" t="n">
+        <v>105</v>
+      </c>
+      <c r="F107" t="n">
+        <v>105</v>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>자당 | 훤당 | 모당 | 모부인</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3223,22 +4515,34 @@
       <c r="B108" t="n">
         <v>106</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="n">
+        <v>106</v>
+      </c>
+      <c r="E108" t="n">
+        <v>106</v>
+      </c>
+      <c r="F108" t="n">
+        <v>106</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>선비 | 선자</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3249,22 +4553,34 @@
       <c r="B109" t="n">
         <v>107</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="n">
+        <v>107</v>
+      </c>
+      <c r="E109" t="n">
+        <v>107</v>
+      </c>
+      <c r="F109" t="n">
+        <v>107</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>선대부인</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3275,22 +4591,34 @@
       <c r="B110" t="n">
         <v>108</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" t="n">
+        <v>108</v>
+      </c>
+      <c r="F110" t="n">
+        <v>108</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>부장님의 따님은 집에 [계신가요]?</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>있으신가요</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3301,22 +4629,34 @@
       <c r="B111" t="n">
         <v>109</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="n">
+        <v>109</v>
+      </c>
+      <c r="E111" t="n">
+        <v>109</v>
+      </c>
+      <c r="F111" t="n">
+        <v>109</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>아버님께서는 집안의 대소사에 대해 항상 아랫사람들에게 [여쭈어 보십니다]</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>물어보십니다</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3327,22 +4667,34 @@
       <c r="B112" t="n">
         <v>110</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="n">
+        <v>110</v>
+      </c>
+      <c r="E112" t="n">
+        <v>110</v>
+      </c>
+      <c r="F112" t="n">
+        <v>110</v>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>이것이 바로 생전에 당신께서 [아끼던] 벼루입니다</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>아끼시던</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3353,22 +4705,34 @@
       <c r="B113" t="n">
         <v>111</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="n">
+        <v>111</v>
+      </c>
+      <c r="E113" t="n">
+        <v>111</v>
+      </c>
+      <c r="F113" t="n">
+        <v>111</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>큰아버지, 오늘 약주를 많이 드셨는데, 제가 [집]까지 모셔다 드리겠습니다</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>댁</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3379,22 +4743,34 @@
       <c r="B114" t="n">
         <v>112</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="n">
+        <v>112</v>
+      </c>
+      <c r="E114" t="n">
+        <v>112</v>
+      </c>
+      <c r="F114" t="n">
+        <v>112</v>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>문제가 잘 [풀려지다]</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>풀리다</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3405,22 +4781,34 @@
       <c r="B115" t="n">
         <v>113</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="n">
+        <v>113</v>
+      </c>
+      <c r="E115" t="n">
+        <v>113</v>
+      </c>
+      <c r="F115" t="n">
+        <v>113</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>[먹혀지다]</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>먹히다</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3431,22 +4819,34 @@
       <c r="B116" t="n">
         <v>114</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="n">
+        <v>114</v>
+      </c>
+      <c r="E116" t="n">
+        <v>114</v>
+      </c>
+      <c r="F116" t="n">
+        <v>114</v>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>[읽혀지다]</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>읽히다</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3457,22 +4857,34 @@
       <c r="B117" t="n">
         <v>115</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="n">
+        <v>115</v>
+      </c>
+      <c r="E117" t="n">
+        <v>115</v>
+      </c>
+      <c r="F117" t="n">
+        <v>115</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>아직 그 일을 [해결되어지지] 않았다</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>해결되지</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3483,22 +4895,34 @@
       <c r="B118" t="n">
         <v>116</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="n">
+        <v>116</v>
+      </c>
+      <c r="E118" t="n">
+        <v>116</v>
+      </c>
+      <c r="F118" t="n">
+        <v>116</v>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>[패인] 땅</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>팬 | 파인</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3509,22 +4933,34 @@
       <c r="B119" t="n">
         <v>117</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="n">
+        <v>117</v>
+      </c>
+      <c r="E119" t="n">
+        <v>117</v>
+      </c>
+      <c r="F119" t="n">
+        <v>117</v>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>철수는 여자친구에게 [채였다]</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>차였다</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3535,22 +4971,34 @@
       <c r="B120" t="n">
         <v>118</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="n">
+        <v>118</v>
+      </c>
+      <c r="E120" t="n">
+        <v>118</v>
+      </c>
+      <c r="F120" t="n">
+        <v>118</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>앞으로 경제가 좋아질 것으로 [보여집니다]</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>보입니다</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3561,22 +5009,34 @@
       <c r="B121" t="n">
         <v>119</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="n">
+        <v>119</v>
+      </c>
+      <c r="E121" t="n">
+        <v>119</v>
+      </c>
+      <c r="F121" t="n">
+        <v>119</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>이 책의 글씨는 잘 [읽혀지지] 않아요</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>읽히지</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3587,22 +5047,34 @@
       <c r="B122" t="n">
         <v>120</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="n">
+        <v>120</v>
+      </c>
+      <c r="E122" t="n">
+        <v>120</v>
+      </c>
+      <c r="F122" t="n">
+        <v>120</v>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>이 문제가 잘 [풀려지지] 않는다</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>풀리지</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3613,22 +5085,34 @@
       <c r="B123" t="n">
         <v>121</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="n">
+        <v>121</v>
+      </c>
+      <c r="E123" t="n">
+        <v>121</v>
+      </c>
+      <c r="F123" t="n">
+        <v>121</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>내가 합격한 것이 사실인지 [믿겨지지] 않았다</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>믿기지</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3639,22 +5123,34 @@
       <c r="B124" t="n">
         <v>122</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="n">
+        <v>122</v>
+      </c>
+      <c r="E124" t="n">
+        <v>122</v>
+      </c>
+      <c r="F124" t="n">
+        <v>122</v>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>그는 훌륭한 가수로 [불리웠다]</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>불렸다</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3665,22 +5161,34 @@
       <c r="B125" t="n">
         <v>123</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="n">
+        <v>123</v>
+      </c>
+      <c r="E125" t="n">
+        <v>123</v>
+      </c>
+      <c r="F125" t="n">
+        <v>123</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>[잘리워진] 국토의 아픔을 잊지 말자</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>잘린</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3691,22 +5199,34 @@
       <c r="B126" t="n">
         <v>124</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="n">
+        <v>124</v>
+      </c>
+      <c r="E126" t="n">
+        <v>124</v>
+      </c>
+      <c r="F126" t="n">
+        <v>124</v>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>그 여자를 [소개시켜줘]</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>소개해줘</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3717,22 +5237,34 @@
       <c r="B127" t="n">
         <v>125</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="n">
+        <v>125</v>
+      </c>
+      <c r="E127" t="n">
+        <v>125</v>
+      </c>
+      <c r="F127" t="n">
+        <v>125</v>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>형사는 두 사건을 [연결시켰다]</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>연결하였다 | 연결했다</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3743,22 +5275,34 @@
       <c r="B128" t="n">
         <v>126</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="n">
+        <v>126</v>
+      </c>
+      <c r="E128" t="n">
+        <v>126</v>
+      </c>
+      <c r="F128" t="n">
+        <v>126</v>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>그는 직접 직원을 [교육시켰다]</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>교육하였다 | 교육했다</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3769,22 +5313,34 @@
       <c r="B129" t="n">
         <v>127</v>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="n">
+        <v>127</v>
+      </c>
+      <c r="E129" t="n">
+        <v>127</v>
+      </c>
+      <c r="F129" t="n">
+        <v>127</v>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>장비를 밤새 [가동시켜] 납품을 맞췄다</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>가동해 | 가동하여</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3795,22 +5351,34 @@
       <c r="B130" t="n">
         <v>128</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="n">
+        <v>128</v>
+      </c>
+      <c r="E130" t="n">
+        <v>128</v>
+      </c>
+      <c r="F130" t="n">
+        <v>128</v>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>보검이의 귀여운 모습에 소희는 [설레였다]</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>설렜다</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3821,22 +5389,34 @@
       <c r="B131" t="n">
         <v>129</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="n">
+        <v>129</v>
+      </c>
+      <c r="E131" t="n">
+        <v>129</v>
+      </c>
+      <c r="F131" t="n">
+        <v>129</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>재웠다(형태소)</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>자/이/우/었/다</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3847,22 +5427,34 @@
       <c r="B132" t="n">
         <v>130</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="n">
+        <v>130</v>
+      </c>
+      <c r="E132" t="n">
+        <v>130</v>
+      </c>
+      <c r="F132" t="n">
+        <v>130</v>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>태웠다(형태소)</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>타/이/우/었/다</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3873,22 +5465,34 @@
       <c r="B133" t="n">
         <v>131</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="n">
+        <v>131</v>
+      </c>
+      <c r="E133" t="n">
+        <v>131</v>
+      </c>
+      <c r="F133" t="n">
+        <v>131</v>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>세웠다(형태소)</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>서/이/우/었/다</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3899,22 +5503,34 @@
       <c r="B134" t="n">
         <v>132</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" t="n">
+        <v>132</v>
+      </c>
+      <c r="D134" t="n">
+        <v>132</v>
+      </c>
+      <c r="E134" t="n">
+        <v>132</v>
+      </c>
+      <c r="F134" t="n">
+        <v>132</v>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>밤을 [새다]</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>새우다</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3925,22 +5541,34 @@
       <c r="B135" t="n">
         <v>133</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" t="n">
+        <v>133</v>
+      </c>
+      <c r="D135" t="n">
+        <v>133</v>
+      </c>
+      <c r="E135" t="n">
+        <v>133</v>
+      </c>
+      <c r="F135" t="n">
+        <v>133</v>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>담배를 [피다]</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>피우다</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3951,22 +5579,34 @@
       <c r="B136" t="n">
         <v>134</v>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" t="n">
+        <v>134</v>
+      </c>
+      <c r="D136" t="n">
+        <v>134</v>
+      </c>
+      <c r="E136" t="n">
+        <v>134</v>
+      </c>
+      <c r="F136" t="n">
+        <v>134</v>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>들판을 [헤매이며] 돌아다니는 사람들</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>헤매며</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3977,22 +5617,34 @@
       <c r="B137" t="n">
         <v>135</v>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" t="n">
+        <v>135</v>
+      </c>
+      <c r="D137" t="n">
+        <v>135</v>
+      </c>
+      <c r="E137" t="n">
+        <v>135</v>
+      </c>
+      <c r="F137" t="n">
+        <v>135</v>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>그는 그 말을 몇 번이고 [되뇌였다]</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>되뇌었다</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4003,22 +5655,34 @@
       <c r="B138" t="n">
         <v>136</v>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" t="n">
+        <v>136</v>
+      </c>
+      <c r="D138" t="n">
+        <v>136</v>
+      </c>
+      <c r="E138" t="n">
+        <v>136</v>
+      </c>
+      <c r="F138" t="n">
+        <v>136</v>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>이 공간을 [분리시킬] 벽을 설치했다</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>분리할</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4029,22 +5693,34 @@
       <c r="B139" t="n">
         <v>137</v>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" t="n">
+        <v>137</v>
+      </c>
+      <c r="D139" t="n">
+        <v>137</v>
+      </c>
+      <c r="E139" t="n">
+        <v>137</v>
+      </c>
+      <c r="F139" t="n">
+        <v>137</v>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>기계를 하루 종일 [가동시켜서] 기일을 맞추다</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>가동해서</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4055,22 +5731,34 @@
       <c r="B140" t="n">
         <v>138</v>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" t="n">
+        <v>138</v>
+      </c>
+      <c r="D140" t="n">
+        <v>138</v>
+      </c>
+      <c r="E140" t="n">
+        <v>138</v>
+      </c>
+      <c r="F140" t="n">
+        <v>138</v>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>[헤매이다]</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>헤매다</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4081,22 +5769,34 @@
       <c r="B141" t="n">
         <v>139</v>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" t="n">
+        <v>139</v>
+      </c>
+      <c r="D141" t="n">
+        <v>139</v>
+      </c>
+      <c r="E141" t="n">
+        <v>139</v>
+      </c>
+      <c r="F141" t="n">
+        <v>139</v>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>[목메이다]</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>목메다</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4107,22 +5807,34 @@
       <c r="B142" t="n">
         <v>140</v>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" t="n">
+        <v>140</v>
+      </c>
+      <c r="D142" t="n">
+        <v>140</v>
+      </c>
+      <c r="E142" t="n">
+        <v>140</v>
+      </c>
+      <c r="F142" t="n">
+        <v>140</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>[설레이다]</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4133,22 +5845,34 @@
       <c r="B143" t="n">
         <v>141</v>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" t="n">
+        <v>141</v>
+      </c>
+      <c r="D143" t="n">
+        <v>141</v>
+      </c>
+      <c r="E143" t="n">
+        <v>141</v>
+      </c>
+      <c r="F143" t="n">
+        <v>141</v>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>[붙박히다]</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>붙박이다</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4159,22 +5883,34 @@
       <c r="B144" t="n">
         <v>142</v>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" t="n">
+        <v>142</v>
+      </c>
+      <c r="D144" t="n">
+        <v>142</v>
+      </c>
+      <c r="E144" t="n">
+        <v>142</v>
+      </c>
+      <c r="F144" t="n">
+        <v>142</v>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>[개이다]</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4185,22 +5921,34 @@
       <c r="B145" t="n">
         <v>143</v>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" t="n">
+        <v>143</v>
+      </c>
+      <c r="D145" t="n">
+        <v>143</v>
+      </c>
+      <c r="E145" t="n">
+        <v>143</v>
+      </c>
+      <c r="F145" t="n">
+        <v>143</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>[되뇌이다]</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>되뇌다</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4211,22 +5959,34 @@
       <c r="B146" t="n">
         <v>144</v>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" t="n">
+        <v>144</v>
+      </c>
+      <c r="D146" t="n">
+        <v>144</v>
+      </c>
+      <c r="E146" t="n">
+        <v>144</v>
+      </c>
+      <c r="F146" t="n">
+        <v>144</v>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>돌려졌다(형태소)</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>돌리/어/지/었/다</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4237,7 +5997,19 @@
       <c r="B147" t="n">
         <v>145</v>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" t="n">
+        <v>145</v>
+      </c>
+      <c r="D147" t="n">
+        <v>145</v>
+      </c>
+      <c r="E147" t="n">
+        <v>145</v>
+      </c>
+      <c r="F147" t="n">
+        <v>145</v>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>장작 한 [강다리]
 마늘 한 [접]
@@ -4245,17 +6017,17 @@
 -&gt; 각자 몇 개?</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>백개</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4266,22 +6038,34 @@
       <c r="B148" t="n">
         <v>146</v>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C148" t="n">
+        <v>146</v>
+      </c>
+      <c r="D148" t="n">
+        <v>146</v>
+      </c>
+      <c r="E148" t="n">
+        <v>146</v>
+      </c>
+      <c r="F148" t="n">
+        <v>146</v>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>선생님에 너에게 [물을] 일이 있다고 하셔</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>물으실</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4292,22 +6076,34 @@
       <c r="B149" t="n">
         <v>147</v>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" t="n">
+        <v>147</v>
+      </c>
+      <c r="D149" t="n">
+        <v>147</v>
+      </c>
+      <c r="E149" t="n">
+        <v>147</v>
+      </c>
+      <c r="F149" t="n">
+        <v>147</v>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>선생님에 너에게 물으실 일이 있다고 [해]</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>하셔</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4318,22 +6114,34 @@
       <c r="B150" t="n">
         <v>148</v>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" t="n">
+        <v>148</v>
+      </c>
+      <c r="D150" t="n">
+        <v>148</v>
+      </c>
+      <c r="E150" t="n">
+        <v>148</v>
+      </c>
+      <c r="F150" t="n">
+        <v>148</v>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4344,22 +6152,34 @@
       <c r="B151" t="n">
         <v>149</v>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" t="n">
+        <v>149</v>
+      </c>
+      <c r="D151" t="n">
+        <v>149</v>
+      </c>
+      <c r="E151" t="n">
+        <v>149</v>
+      </c>
+      <c r="F151" t="n">
+        <v>149</v>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>담임 선생님은 키가 굉장히 [크다]</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>크시다</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4370,22 +6190,34 @@
       <c r="B152" t="n">
         <v>150</v>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" t="n">
+        <v>150</v>
+      </c>
+      <c r="D152" t="n">
+        <v>150</v>
+      </c>
+      <c r="E152" t="n">
+        <v>150</v>
+      </c>
+      <c r="F152" t="n">
+        <v>150</v>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>할아버지, 지팡이가 아주 [멋져요]</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>멋지세요</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4396,22 +6228,34 @@
       <c r="B153" t="n">
         <v>151</v>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" t="n">
+        <v>151</v>
+      </c>
+      <c r="D153" t="n">
+        <v>151</v>
+      </c>
+      <c r="E153" t="n">
+        <v>151</v>
+      </c>
+      <c r="F153" t="n">
+        <v>151</v>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>선생님, 비가 오는데 우산 [있어요]?</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>있으세요</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4422,22 +6266,34 @@
       <c r="B154" t="n">
         <v>152</v>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" t="n">
+        <v>152</v>
+      </c>
+      <c r="D154" t="n">
+        <v>152</v>
+      </c>
+      <c r="E154" t="n">
+        <v>152</v>
+      </c>
+      <c r="F154" t="n">
+        <v>152</v>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>고객님이 주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4448,22 +6304,34 @@
       <c r="B155" t="n">
         <v>153</v>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" t="n">
+        <v>153</v>
+      </c>
+      <c r="D155" t="n">
+        <v>153</v>
+      </c>
+      <c r="E155" t="n">
+        <v>153</v>
+      </c>
+      <c r="F155" t="n">
+        <v>153</v>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>지금부터 사장님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>있으시겠습니다 | 있겠습니다</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4474,22 +6342,34 @@
       <c r="B156" t="n">
         <v>154</v>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C156" t="n">
+        <v>154</v>
+      </c>
+      <c r="D156" t="n">
+        <v>154</v>
+      </c>
+      <c r="E156" t="n">
+        <v>154</v>
+      </c>
+      <c r="F156" t="n">
+        <v>154</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>어머니께서 제게 시간을 [여쭈어] 보셨어요</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>물어</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F156" t="n">
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4500,22 +6380,34 @@
       <c r="B157" t="n">
         <v>155</v>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" t="n">
+        <v>155</v>
+      </c>
+      <c r="D157" t="n">
+        <v>155</v>
+      </c>
+      <c r="E157" t="n">
+        <v>155</v>
+      </c>
+      <c r="F157" t="n">
+        <v>155</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 [오시라는데] 오후에 시간 있으십니까?</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>오라시는데</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4526,22 +6418,34 @@
       <c r="B158" t="n">
         <v>156</v>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" t="n">
+        <v>156</v>
+      </c>
+      <c r="D158" t="n">
+        <v>156</v>
+      </c>
+      <c r="E158" t="n">
+        <v>156</v>
+      </c>
+      <c r="F158" t="n">
+        <v>156</v>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 오라시는데 오후에 시간 [계십니까]?</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>있으십니까</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F158" t="n">
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4552,22 +6456,34 @@
       <c r="B159" t="n">
         <v>157</v>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" t="n">
+        <v>157</v>
+      </c>
+      <c r="D159" t="n">
+        <v>157</v>
+      </c>
+      <c r="E159" t="n">
+        <v>157</v>
+      </c>
+      <c r="F159" t="n">
+        <v>157</v>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>차에 [치다]</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>치이다</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F159" t="n">
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4578,22 +6494,34 @@
       <c r="B160" t="n">
         <v>158</v>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" t="n">
+        <v>158</v>
+      </c>
+      <c r="D160" t="n">
+        <v>158</v>
+      </c>
+      <c r="E160" t="n">
+        <v>158</v>
+      </c>
+      <c r="F160" t="n">
+        <v>158</v>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>날이 [개이다]</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4604,22 +6532,34 @@
       <c r="B161" t="n">
         <v>159</v>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" t="n">
+        <v>159</v>
+      </c>
+      <c r="D161" t="n">
+        <v>159</v>
+      </c>
+      <c r="E161" t="n">
+        <v>159</v>
+      </c>
+      <c r="F161" t="n">
+        <v>159</v>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t>마음이 [설레이다]</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F161" t="n">
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4630,22 +6570,34 @@
       <c r="B162" t="n">
         <v>160</v>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" t="n">
+        <v>160</v>
+      </c>
+      <c r="D162" t="n">
+        <v>160</v>
+      </c>
+      <c r="E162" t="n">
+        <v>160</v>
+      </c>
+      <c r="F162" t="n">
+        <v>160</v>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>습관처럼 중요한 말을 [되뇌이는] 버릇이 있다</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>되뇌는</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F162" t="n">
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4656,22 +6608,34 @@
       <c r="B163" t="n">
         <v>161</v>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" t="n">
+        <v>161</v>
+      </c>
+      <c r="D163" t="n">
+        <v>161</v>
+      </c>
+      <c r="E163" t="n">
+        <v>161</v>
+      </c>
+      <c r="F163" t="n">
+        <v>161</v>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>나는 친구 집을 찾아 골목을 [헤매이고] 다녔다</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>헤매고</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4682,22 +6646,34 @@
       <c r="B164" t="n">
         <v>162</v>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C164" t="n">
+        <v>162</v>
+      </c>
+      <c r="D164" t="n">
+        <v>162</v>
+      </c>
+      <c r="E164" t="n">
+        <v>162</v>
+      </c>
+      <c r="F164" t="n">
+        <v>162</v>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>너무 급하게 밥을 먹으면 목이 [메이기] 마련이다</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>메기</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F164" t="n">
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4708,22 +6684,34 @@
       <c r="B165" t="n">
         <v>163</v>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C165" t="n">
+        <v>163</v>
+      </c>
+      <c r="D165" t="n">
+        <v>163</v>
+      </c>
+      <c r="E165" t="n">
+        <v>163</v>
+      </c>
+      <c r="F165" t="n">
+        <v>163</v>
+      </c>
+      <c r="G165" t="inlineStr">
         <is>
           <t>그는 어린 시절 기계에 손가락이 [끼는] 사고를 당했다</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>끼이는</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F165" t="n">
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4734,22 +6722,34 @@
       <c r="B166" t="n">
         <v>164</v>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C166" t="n">
+        <v>164</v>
+      </c>
+      <c r="D166" t="n">
+        <v>164</v>
+      </c>
+      <c r="E166" t="n">
+        <v>164</v>
+      </c>
+      <c r="F166" t="n">
+        <v>164</v>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>밀다(피동)</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>밀리다</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F166" t="n">
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4760,22 +6760,34 @@
       <c r="B167" t="n">
         <v>165</v>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C167" t="n">
+        <v>165</v>
+      </c>
+      <c r="D167" t="n">
+        <v>165</v>
+      </c>
+      <c r="E167" t="n">
+        <v>165</v>
+      </c>
+      <c r="F167" t="n">
+        <v>165</v>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>밀다(사동)</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>밀게 하다</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F167" t="n">
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4786,22 +6798,34 @@
       <c r="B168" t="n">
         <v>166</v>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" t="n">
+        <v>166</v>
+      </c>
+      <c r="D168" t="n">
+        <v>166</v>
+      </c>
+      <c r="E168" t="n">
+        <v>166</v>
+      </c>
+      <c r="F168" t="n">
+        <v>166</v>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>그는 김 교수에게 박 군을 [소개시켰다]</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>소개했다</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F168" t="n">
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4812,22 +6836,34 @@
       <c r="B169" t="n">
         <v>167</v>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" t="n">
+        <v>167</v>
+      </c>
+      <c r="D169" t="n">
+        <v>167</v>
+      </c>
+      <c r="E169" t="n">
+        <v>167</v>
+      </c>
+      <c r="F169" t="n">
+        <v>167</v>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>생각이 다른 타인을 [설득시킨다]는 건 참 힘든 일이다</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>설득한다</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F169" t="n">
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4838,22 +6874,34 @@
       <c r="B170" t="n">
         <v>168</v>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" t="n">
+        <v>168</v>
+      </c>
+      <c r="D170" t="n">
+        <v>168</v>
+      </c>
+      <c r="E170" t="n">
+        <v>168</v>
+      </c>
+      <c r="F170" t="n">
+        <v>168</v>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>우리는 토론을 거쳐 다양한 사회적 갈등을 [해소시킨다]</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>해소한다</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F170" t="n">
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4864,22 +6912,34 @@
       <c r="B171" t="n">
         <v>169</v>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" t="n">
+        <v>169</v>
+      </c>
+      <c r="D171" t="n">
+        <v>169</v>
+      </c>
+      <c r="E171" t="n">
+        <v>169</v>
+      </c>
+      <c r="F171" t="n">
+        <v>169</v>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>[닫혀진] 마음을 열 길이 없구나</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>닫힌</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F171" t="n">
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4890,22 +6950,34 @@
       <c r="B172" t="n">
         <v>170</v>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" t="n">
+        <v>170</v>
+      </c>
+      <c r="D172" t="n">
+        <v>170</v>
+      </c>
+      <c r="E172" t="n">
+        <v>170</v>
+      </c>
+      <c r="F172" t="n">
+        <v>170</v>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>저쪽 복도에 [놓여진] 화분은 엄청 예쁘구나</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>놓인</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F172" t="n">
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4916,994 +6988,1630 @@
       <c r="B173" t="n">
         <v>171</v>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" t="n">
+        <v>171</v>
+      </c>
+      <c r="D173" t="n">
+        <v>171</v>
+      </c>
+      <c r="E173" t="n">
+        <v>171</v>
+      </c>
+      <c r="F173" t="n">
+        <v>171</v>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>장마로 인해 [끊겨진] 통신 선로가 드디어 복구되었다</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>끊긴</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F173" t="n">
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>172</v>
+      </c>
+      <c r="C174" t="n">
+        <v>172</v>
+      </c>
+      <c r="D174" t="n">
+        <v>172</v>
+      </c>
+      <c r="E174" t="n">
         <v>205</v>
       </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr">
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
         <is>
           <t>花無十日紅</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>화무십일홍| 1. 「열흘 붉은 꽃이 없다.」는 뜻으로,
 2. 「한 번 성한 것이 얼마 못 가서 반드시 쇠(衰)하여짐.」을 이르는 말.
 3. 권세(權勢)나 세력(勢力)의 성(盛)함이 오래 가지 않는다는 말.</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>173</v>
+      </c>
+      <c r="C175" t="n">
+        <v>173</v>
+      </c>
+      <c r="D175" t="n">
+        <v>173</v>
+      </c>
+      <c r="E175" t="n">
         <v>345</v>
       </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr">
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
         <is>
           <t>學而時習之不亦說乎</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>학이시습지불역열호|배우고 때때로 익히면 또한 기쁘지 아니한가?</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>174</v>
+      </c>
+      <c r="C176" t="n">
+        <v>174</v>
+      </c>
+      <c r="D176" t="n">
+        <v>174</v>
+      </c>
+      <c r="E176" t="n">
         <v>346</v>
       </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr">
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
         <is>
           <t>[핼쑥]하다</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>해쓱</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>175</v>
+      </c>
+      <c r="C177" t="n">
+        <v>175</v>
+      </c>
+      <c r="D177" t="n">
+        <v>175</v>
+      </c>
+      <c r="E177" t="n">
         <v>347</v>
       </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr">
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
         <is>
           <t>[국쑤]</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>국수</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>176</v>
+      </c>
+      <c r="C178" t="n">
+        <v>176</v>
+      </c>
+      <c r="D178" t="n">
+        <v>176</v>
+      </c>
+      <c r="E178" t="n">
         <v>348</v>
       </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr">
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
         <is>
           <t>국수(발음)</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>국쑤</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>177</v>
+      </c>
+      <c r="C179" t="n">
+        <v>177</v>
+      </c>
+      <c r="D179" t="n">
+        <v>177</v>
+      </c>
+      <c r="E179" t="n">
         <v>349</v>
       </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr">
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
         <is>
           <t>[깍뚜기]</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>깍두기</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>178</v>
+      </c>
+      <c r="C180" t="n">
+        <v>178</v>
+      </c>
+      <c r="D180" t="n">
+        <v>178</v>
+      </c>
+      <c r="E180" t="n">
         <v>350</v>
       </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr">
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
         <is>
           <t>깍두기(발음)</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>깍두기</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>179</v>
+      </c>
+      <c r="C181" t="n">
+        <v>179</v>
+      </c>
+      <c r="D181" t="n">
+        <v>179</v>
+      </c>
+      <c r="E181" t="n">
         <v>351</v>
       </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr">
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
         <is>
           <t>[법썩]</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>법석</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>180</v>
+      </c>
+      <c r="C182" t="n">
+        <v>180</v>
+      </c>
+      <c r="D182" t="n">
+        <v>180</v>
+      </c>
+      <c r="E182" t="n">
         <v>352</v>
       </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr">
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
         <is>
           <t>법석(발음)</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>법썩</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>181</v>
+      </c>
+      <c r="C183" t="n">
+        <v>181</v>
+      </c>
+      <c r="D183" t="n">
+        <v>181</v>
+      </c>
+      <c r="E183" t="n">
         <v>353</v>
       </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr">
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
         <is>
           <t>[짭잘]하다</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>짭짤</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>182</v>
+      </c>
+      <c r="C184" t="n">
+        <v>182</v>
+      </c>
+      <c r="D184" t="n">
+        <v>182</v>
+      </c>
+      <c r="E184" t="n">
         <v>354</v>
       </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr">
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
         <is>
           <t>[씁슬]하다</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>씁쓸</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>183</v>
+      </c>
+      <c r="C185" t="n">
+        <v>183</v>
+      </c>
+      <c r="D185" t="n">
+        <v>183</v>
+      </c>
+      <c r="E185" t="n">
         <v>355</v>
       </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr">
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
         <is>
           <t>[딱찌]</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>딱지</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>184</v>
+      </c>
+      <c r="C186" t="n">
+        <v>184</v>
+      </c>
+      <c r="D186" t="n">
+        <v>184</v>
+      </c>
+      <c r="E186" t="n">
         <v>356</v>
       </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr">
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
         <is>
           <t>딱지(발음)</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>딱찌</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>185</v>
+      </c>
+      <c r="C187" t="n">
+        <v>185</v>
+      </c>
+      <c r="D187" t="n">
+        <v>185</v>
+      </c>
+      <c r="E187" t="n">
         <v>357</v>
       </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr">
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
         <is>
           <t>[싹뚝]</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>싹둑</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>186</v>
+      </c>
+      <c r="C188" t="n">
+        <v>186</v>
+      </c>
+      <c r="D188" t="n">
+        <v>186</v>
+      </c>
+      <c r="E188" t="n">
         <v>358</v>
       </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr">
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
         <is>
           <t>싹둑(발음)</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>싹뚝</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>187</v>
+      </c>
+      <c r="C189" t="n">
+        <v>187</v>
+      </c>
+      <c r="D189" t="n">
+        <v>187</v>
+      </c>
+      <c r="E189" t="n">
         <v>359</v>
       </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr">
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
         <is>
           <t>[몹씨]</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>몹시</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>188</v>
+      </c>
+      <c r="C190" t="n">
+        <v>188</v>
+      </c>
+      <c r="D190" t="n">
+        <v>188</v>
+      </c>
+      <c r="E190" t="n">
         <v>360</v>
       </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr">
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
         <is>
           <t>몹시(발음)</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>몹씨</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>189</v>
+      </c>
+      <c r="C191" t="n">
+        <v>189</v>
+      </c>
+      <c r="D191" t="n">
+        <v>189</v>
+      </c>
+      <c r="E191" t="n">
         <v>361</v>
       </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr">
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
         <is>
           <t>[신녀성]</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>신여성</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>190</v>
+      </c>
+      <c r="C192" t="n">
+        <v>190</v>
+      </c>
+      <c r="D192" t="n">
+        <v>190</v>
+      </c>
+      <c r="E192" t="n">
         <v>362</v>
       </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr">
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
         <is>
           <t>[공념불]</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>공염불</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>191</v>
+      </c>
+      <c r="C193" t="n">
+        <v>191</v>
+      </c>
+      <c r="D193" t="n">
+        <v>191</v>
+      </c>
+      <c r="E193" t="n">
         <v>363</v>
       </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr">
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
         <is>
           <t>[남존녀비]</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>남존여비</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>192</v>
+      </c>
+      <c r="C194" t="n">
+        <v>192</v>
+      </c>
+      <c r="D194" t="n">
+        <v>192</v>
+      </c>
+      <c r="E194" t="n">
         <v>364</v>
       </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr">
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
         <is>
           <t>[실락원]</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>실낙원</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>193</v>
+      </c>
+      <c r="C195" t="n">
+        <v>193</v>
+      </c>
+      <c r="D195" t="n">
+        <v>193</v>
+      </c>
+      <c r="E195" t="n">
         <v>365</v>
       </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr">
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
         <is>
           <t>나는 [자랑스런] 태극기 앞에</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>자랑스러운</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>194</v>
+      </c>
+      <c r="C196" t="n">
+        <v>194</v>
+      </c>
+      <c r="D196" t="n">
+        <v>194</v>
+      </c>
+      <c r="E196" t="n">
         <v>366</v>
       </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr">
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
         <is>
           <t>선수들은 [만족스런] 경기를 펼쳤다</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>만족스러운</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>195</v>
+      </c>
+      <c r="C197" t="n">
+        <v>195</v>
+      </c>
+      <c r="D197" t="n">
+        <v>195</v>
+      </c>
+      <c r="E197" t="n">
         <v>367</v>
       </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr">
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
         <is>
           <t>[어둔] 방에서 책을 읽었다</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>어두운</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>196</v>
+      </c>
+      <c r="C198" t="n">
+        <v>196</v>
+      </c>
+      <c r="D198" t="n">
+        <v>196</v>
+      </c>
+      <c r="E198" t="n">
         <v>368</v>
       </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr">
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
         <is>
           <t>잘 [군] 감자를 먹었다</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>구운</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>197</v>
+      </c>
+      <c r="C199" t="n">
+        <v>197</v>
+      </c>
+      <c r="D199" t="n">
+        <v>197</v>
+      </c>
+      <c r="E199" t="n">
         <v>369</v>
       </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr">
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
         <is>
           <t>더 놀다 [가려므나]</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>가려무나</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>198</v>
+      </c>
+      <c r="C200" t="n">
+        <v>198</v>
+      </c>
+      <c r="D200" t="n">
+        <v>198</v>
+      </c>
+      <c r="E200" t="n">
         <v>370</v>
       </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr">
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
         <is>
           <t>요즘은 손님이 전혀 [없쑤]</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>없우</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>199</v>
+      </c>
+      <c r="C201" t="n">
+        <v>199</v>
+      </c>
+      <c r="D201" t="n">
+        <v>199</v>
+      </c>
+      <c r="E201" t="n">
         <v>371</v>
       </c>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr">
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
         <is>
           <t>일을 [할려면] 제대로 해야지</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>하려면</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>200</v>
+      </c>
+      <c r="C202" t="n">
+        <v>200</v>
+      </c>
+      <c r="D202" t="n">
+        <v>200</v>
+      </c>
+      <c r="E202" t="n">
         <v>372</v>
       </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr">
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
         <is>
           <t>그 연인은 [뗄려야] 뗄 수 없는 사이다</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>떼려야</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>201</v>
+      </c>
+      <c r="C203" t="n">
+        <v>201</v>
+      </c>
+      <c r="D203" t="n">
+        <v>201</v>
+      </c>
+      <c r="E203" t="n">
         <v>373</v>
       </c>
-      <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr">
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
         <is>
           <t>그는 예의를 [지키고저] 스승을 찾았다</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>지키고자</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>202</v>
+      </c>
+      <c r="C204" t="n">
+        <v>202</v>
+      </c>
+      <c r="D204" t="n">
+        <v>202</v>
+      </c>
+      <c r="E204" t="n">
         <v>374</v>
       </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr">
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
         <is>
           <t>오늘은 일진이 [좋을런지] 기분이 좋다</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>좋을는지</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>203</v>
+      </c>
+      <c r="C205" t="n">
+        <v>203</v>
+      </c>
+      <c r="D205" t="n">
+        <v>203</v>
+      </c>
+      <c r="E205" t="n">
         <v>375</v>
       </c>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr">
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr">
         <is>
           <t>그 사람이 과연 이 일을 [맡을런지]</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>맡을는지</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>204</v>
+      </c>
+      <c r="C206" t="n">
+        <v>204</v>
+      </c>
+      <c r="D206" t="n">
+        <v>204</v>
+      </c>
+      <c r="E206" t="n">
         <v>376</v>
       </c>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr">
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
         <is>
           <t>다시는 두말 못 [하렸다]</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>하렷다</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>205</v>
+      </c>
+      <c r="C207" t="n">
+        <v>205</v>
+      </c>
+      <c r="D207" t="n">
+        <v>205</v>
+      </c>
+      <c r="E207" t="n">
         <v>377</v>
       </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr">
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
         <is>
           <t>너도 [아다시피] 내게 무슨 힘이 있니?</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>알다시피</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>206</v>
+      </c>
+      <c r="C208" t="n">
+        <v>206</v>
+      </c>
+      <c r="D208" t="n">
+        <v>206</v>
+      </c>
+      <c r="E208" t="n">
         <v>378</v>
       </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr">
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
         <is>
           <t>정말 깨끗한 [동네이구료]</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>동네이구려</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>207</v>
+      </c>
+      <c r="C209" t="n">
+        <v>207</v>
+      </c>
+      <c r="D209" t="n">
+        <v>207</v>
+      </c>
+      <c r="E209" t="n">
         <v>379</v>
       </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr">
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr">
         <is>
           <t>누가 [왔관대] 이리 소란스러울까?</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>왔관데</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>208</v>
+      </c>
+      <c r="C210" t="n">
+        <v>208</v>
+      </c>
+      <c r="D210" t="n">
+        <v>208</v>
+      </c>
+      <c r="E210" t="n">
         <v>380</v>
       </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr">
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr">
         <is>
           <t>하늘을 [날으는] 비행기</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>나는</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>209</v>
+      </c>
+      <c r="C211" t="n">
+        <v>209</v>
+      </c>
+      <c r="D211" t="n">
+        <v>209</v>
+      </c>
+      <c r="E211" t="n">
         <v>381</v>
       </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr">
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr">
         <is>
           <t>아름다운 서울에서 [살으렵니다]</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>살렵니다</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>210</v>
+      </c>
+      <c r="C212" t="n">
+        <v>210</v>
+      </c>
+      <c r="D212" t="n">
+        <v>210</v>
+      </c>
+      <c r="E212" t="n">
         <v>382</v>
       </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr">
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
         <is>
           <t>우리 부부는 둘 다 돈을 [벌으므로] 여유가 있습니다</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>벌므로</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr"/>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>211</v>
+      </c>
+      <c r="C213" t="n">
+        <v>211</v>
+      </c>
+      <c r="D213" t="n">
+        <v>211</v>
+      </c>
+      <c r="E213" t="n">
         <v>383</v>
       </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr">
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr">
         <is>
           <t>모두 힘을 모아 차를 [밀읍시다]</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>밉시다</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>212</v>
+      </c>
+      <c r="C214" t="n">
+        <v>212</v>
+      </c>
+      <c r="D214" t="n">
+        <v>212</v>
+      </c>
+      <c r="E214" t="n">
         <v>384</v>
       </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr">
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
         <is>
           <t>이 방의 길이가 [짧으네요]</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>짧네요</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>213</v>
+      </c>
+      <c r="C215" t="n">
+        <v>213</v>
+      </c>
+      <c r="D215" t="n">
+        <v>213</v>
+      </c>
+      <c r="E215" t="n">
         <v>385</v>
       </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr">
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
         <is>
           <t>이 방은 참 [넓으네요]</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>넓네요</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>214</v>
+      </c>
+      <c r="C216" t="n">
+        <v>214</v>
+      </c>
+      <c r="D216" t="n">
+        <v>214</v>
+      </c>
+      <c r="E216" t="n">
         <v>386</v>
       </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr">
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
         <is>
           <t>짧네요(발음)</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>짤레요</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>215</v>
+      </c>
+      <c r="C217" t="n">
+        <v>215</v>
+      </c>
+      <c r="D217" t="n">
+        <v>215</v>
+      </c>
+      <c r="E217" t="n">
         <v>387</v>
       </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr">
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
         <is>
           <t>넓네요(발음)</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>널레요</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>216</v>
+      </c>
+      <c r="C218" t="n">
+        <v>216</v>
+      </c>
+      <c r="D218" t="n">
+        <v>432</v>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>6시가 [안되서] 일어났다</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>안 돼서</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>217</v>
+      </c>
+      <c r="C219" t="n">
+        <v>217</v>
+      </c>
+      <c r="D219" t="n">
+        <v>433</v>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>우리는 본 행사를 통해 더 많은 국민들이 녹색 관광을 즐기고 [참여하는 계기가 되기를 바란다]</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>참여하게 되기를 바란다</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>218</v>
+      </c>
+      <c r="C220" t="n">
+        <v>218</v>
+      </c>
+      <c r="D220" t="n">
+        <v>434</v>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>우리는 모바일 서비스를 제공하여 [이용자들에게] 이 사업의 미래상에 대해 보다 쉽게 다가갈 수 있도록 하였다</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>이용자들이</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2929 +434,4253 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>의견란 (발음)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>의견난</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>임진란 (발음)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>임진난</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>생산량 (발음)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>생산냥</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>결단력 (발음)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>결딴녁</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>공권력 (발음)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>공꿘녁</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>동원령 (발음)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>동원녕</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>상견례 (발음)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>상견녜</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>횡단로 (발음)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>횡단노</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>이원론 (발음)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>이원논</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>입원료 (발음)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>이붠뇨</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>구근류 (발음)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>구근뉴</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>신문로 (발음)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>신문노</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>남대문로 (발음)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>남대문노</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>추진력 (발음)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>추진녁</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>장맛비 (발음)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>장마삐 | 장맏삐</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>등불 (발음)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>등뿔</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>콧날 (발음)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>콘날</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>예삿일 (발음)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>예산닐</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>집일 (발음)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>짐닐</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>인사말 (발음)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>인사말 |</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>머리말 (발음)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>머리말 |</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>꼬리말 (발음)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>꼬리말 |</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>고무줄 (발음)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>고무줄 |</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>동아줄 (발음)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>동아줄 |</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>회수(回收) (발음)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>회수 | 훼수</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>콩밥 (발음)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>콩밥 |</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>빨랫줄 (발음)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>빨래쭐 | 빨랟쭐</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>횟수(回數) (발음)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>회쑤 | 홷쑤</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>아침밥 (발음)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>아침빱</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>피어 (발음)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>피어 | 피여</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>되어 (발음)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>되어 | 되여</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>이오 (발음)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>이오 | 이요</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>아니오 (발음)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>아니오 | 아니요</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>마천루 (발음)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>마철루</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>영업용 (발음)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>영엄뇽</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>막일 (발음)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>망닐</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>솜이불 (발음)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>솜니불</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>스물여섯 (발음)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>스물려섣</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>[그 동안] 안녕하셨는지요?</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>그동안</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>어줍잖은</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>어쭙잖은</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>연락드릴께요</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>연락드릴게요</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>적쟎은</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>적잖은</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>친구가 "나는 학교에 안 가겠다"[고] 말했다</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>라고</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>대통령은 진지한 연설[로서] 국민을 설득했다</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>로써</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>아침부터 흐린 게 비가 [올런지] 몰라 우산을 미리 챙겨 나갔다</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>올른지</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>길을 나서자 갑자기 곧 [햇님]이 모습을 드러냈다</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>해님</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>시장 입구에는 [앳띤] 소녀들이 우산을 들고 왁자지걸 이야기를 하며 지나가고 있었다</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>앳된</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>다음 문제를 [풀어라]</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>풀라</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>정부는 빈곤 문제에 대한 대책을 [세워라]</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>세우라</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>보기를 읽고 알맞은 답을 [골라라]</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>고르라</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>아버지께서는 생각이 [계신다]</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>있으시다</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>교장 선생님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>있으시겠습니다</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 [계신] 분, 계세요?</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>있으신</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>계세요?</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>문의하신 상품은 [품절이십니다]</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>품절입니다</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>말씀하신 사이즈가 [없으십니다]</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>없습니다</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>(상점에서) [포장이세요?]</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>포장해 드릴까요?</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>손님, 여기 주문하신 물건이 [있으시겠습니다]</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>이 물건의 가격은 만 원[되시겠습니다]</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>입니다</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>할아버지, [아버지께서 오셨습니다]</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>아버지가 왔습니다</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>어머니, [할머니가 왔습니다]</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>할머니께서 오셨습니다</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>(평사원이) 사장님, [이 과장 어디갔습니까?]</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>이 과장님 어디 가셨습니까?</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>나는 아버지를 [데리고] 집으로 왔다</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>모시고</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>나는 그 고구마를 선생님께 [주었다]</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>드렸다</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>나는 그것을 선생님께 [물었다]</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>여쭈었다</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>당랑거철(발음)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>당낭거철</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>금란지계(발음)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>금난지계 | 금난지게</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>동가홍상(발음)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>동까홍상</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>득롱망촉(발음)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>등농망촉</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>김밥(형태소)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>김/밥</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>국밥(형태소)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>국/밥</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>선생님의 [말]을 먼저 듣고, 제 말씀을 전하겠습니다</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>선생님의 말씀을 먼저 듣고, 제 [말]을 전하겠습니다</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>딸 아이가 학교에서 돌아오기만 하면 꼭 저에게 [여쭈어봐요]</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>물어봐요</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>다음으로 오늘의 주인공 공지철 씨를 [모시겠습니다]</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>소개하겠습니다</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>아버님, 아범(아비)이 아직 안 [들어오셨어요]</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>들어왔습니다</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>그이가 아버님께 말씀드린다고 [하셨습니다]</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>했습니다</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>제 [부인]을 소개하겠습니다</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>집사람 | 안사람 | 처</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>이쪽에 잠깐 앉아 [계실게요]</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>주시기 바랍니다</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>선생님, [수고하세요]</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>고맙습니다</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>아버지에게 [야단을 맞았다]</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>꾸중을 들었다 | 꾸지람을 들었다 | 걱정을 들었다</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>자신의 살아 있는 아버지</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>아버지</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>자신의 살아 있는 어머니</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>어머니</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>아버님</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>어머님</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>부모 앞에서 아내를 기리킬 때</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>어멈 | 어미 | 집사람 | 안사람 | ㅇㅇ 엄마</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>남편의 형</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>남편의 형의 아내</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>남편의 아우 (미혼)</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>도련님</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>남편의 아우 (기혼)</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>남편의 아우의 아내</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>동서</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>남자의 경우, 누나</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>누나 | 누님</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>누나의 남편</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>여동생의 남편</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>남편의 누나 (손위 시누이)</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>남편의 누나의 남편</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>남편의 누이동생 (손아래 시누이)</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>아가씨 | 아기씨</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>남편의 누이동생의 남편</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>(여자의 경우) 여동생의 남편</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>제부 | ㅇ서방</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>자신의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>가친 | 엄친</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>춘부장 | 춘장 | 춘당 | 어르신 | 어르신네</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>선친 | 선고 | 선부군</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>선대인 | 선고장 | 선장</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>자신의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>자친 | 가자 | 모친</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>자당 | 훤당 | 모당 | 모부인</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>선비 | 선자</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>선대부인</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>부장님의 따님은 집에 [계신가요]?</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>있으신가요</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>아버님께서는 집안의 대소사에 대해 항상 아랫사람들에게 [여쭈어 보십니다]</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>물어보십니다</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>이것이 바로 생전에 당신께서 [아끼던] 벼루입니다</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>아끼시던</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>큰아버지, 오늘 약주를 많이 드셨는데, 제가 [집]까지 모셔다 드리겠습니다</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>댁</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>문제가 잘 [풀려지다]</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>풀리다</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>[먹혀지다]</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>먹히다</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>[읽혀지다]</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>읽히다</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>아직 그 일을 [해결되어지지] 않았다</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>해결되지</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>[패인] 땅</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>팬 | 파인</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>철수는 여자친구에게 [채였다]</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>차였다</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>앞으로 경제가 좋아질 것으로 [보여집니다]</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>보입니다</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>이 책의 글씨는 잘 [읽혀지지] 않아요</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>읽히지</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>이 문제가 잘 [풀려지지] 않는다</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>풀리지</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>내가 합격한 것이 사실인지 [믿겨지지] 않았다</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>믿기지</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>그는 훌륭한 가수로 [불리웠다]</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>불렸다</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>[잘리워진] 국토의 아픔을 잊지 말자</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>잘린</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>그 여자를 [소개시켜줘]</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>소개해줘</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>형사는 두 사건을 [연결시켰다]</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>연결하였다 | 연결했다</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>그는 직접 직원을 [교육시켰다]</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>교육하였다 | 교육했다</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="inlineStr">
         <is>
           <t>장비를 밤새 [가동시켜] 납품을 맞췄다</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>가동해 | 가동하여</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>보검이의 귀여운 모습에 소희는 [설레였다]</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>설렜다</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>재웠다(형태소)</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>자/이/우/었/다</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>태웠다(형태소)</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>타/이/우/었/다</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>세웠다(형태소)</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>서/이/우/었/다</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" t="n">
+        <v>132</v>
+      </c>
+      <c r="D134" t="inlineStr">
         <is>
           <t>밤을 [새다]</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>새우다</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" t="n">
+        <v>133</v>
+      </c>
+      <c r="D135" t="inlineStr">
         <is>
           <t>담배를 [피다]</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>피우다</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="n">
+        <v>134</v>
+      </c>
+      <c r="D136" t="inlineStr">
         <is>
           <t>들판을 [헤매이며] 돌아다니는 사람들</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>헤매며</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" t="n">
+        <v>135</v>
+      </c>
+      <c r="D137" t="inlineStr">
         <is>
           <t>그는 그 말을 몇 번이고 [되뇌였다]</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>되뇌었다</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" t="n">
+        <v>136</v>
+      </c>
+      <c r="D138" t="inlineStr">
         <is>
           <t>이 공간을 [분리시킬] 벽을 설치했다</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>분리할</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" t="n">
+        <v>137</v>
+      </c>
+      <c r="D139" t="inlineStr">
         <is>
           <t>기계를 하루 종일 [가동시켜서] 기일을 맞추다</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>가동해서</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" t="n">
+        <v>138</v>
+      </c>
+      <c r="D140" t="inlineStr">
         <is>
           <t>[헤매이다]</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>헤매다</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" t="n">
+        <v>139</v>
+      </c>
+      <c r="D141" t="inlineStr">
         <is>
           <t>[목메이다]</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>목메다</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>140</v>
+      </c>
+      <c r="C142" t="n">
+        <v>140</v>
+      </c>
+      <c r="D142" t="inlineStr">
         <is>
           <t>[설레이다]</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>141</v>
+      </c>
+      <c r="C143" t="n">
+        <v>141</v>
+      </c>
+      <c r="D143" t="inlineStr">
         <is>
           <t>[붙박히다]</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>붙박이다</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>142</v>
+      </c>
+      <c r="C144" t="n">
+        <v>142</v>
+      </c>
+      <c r="D144" t="inlineStr">
         <is>
           <t>[개이다]</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>143</v>
+      </c>
+      <c r="C145" t="n">
+        <v>143</v>
+      </c>
+      <c r="D145" t="inlineStr">
         <is>
           <t>[되뇌이다]</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>되뇌다</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" t="n">
+        <v>144</v>
+      </c>
+      <c r="D146" t="inlineStr">
         <is>
           <t>돌려졌다(형태소)</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>돌리/어/지/었/다</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>145</v>
+      </c>
+      <c r="C147" t="n">
+        <v>145</v>
+      </c>
+      <c r="D147" t="inlineStr">
         <is>
           <t>장작 한 [강다리]
 마늘 한 [접]
@@ -3364,1481 +4688,2246 @@
 -&gt; 각자 몇 개?</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>백개</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>146</v>
+      </c>
+      <c r="C148" t="n">
+        <v>146</v>
+      </c>
+      <c r="D148" t="inlineStr">
         <is>
           <t>선생님에 너에게 [물을] 일이 있다고 하셔</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>물으실</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>147</v>
+      </c>
+      <c r="C149" t="n">
+        <v>147</v>
+      </c>
+      <c r="D149" t="inlineStr">
         <is>
           <t>선생님에 너에게 물으실 일이 있다고 [해]</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>하셔</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>148</v>
+      </c>
+      <c r="C150" t="n">
+        <v>148</v>
+      </c>
+      <c r="D150" t="inlineStr">
         <is>
           <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" t="n">
+        <v>149</v>
+      </c>
+      <c r="D151" t="inlineStr">
         <is>
           <t>담임 선생님은 키가 굉장히 [크다]</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>크시다</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>150</v>
+      </c>
+      <c r="C152" t="n">
+        <v>150</v>
+      </c>
+      <c r="D152" t="inlineStr">
         <is>
           <t>할아버지, 지팡이가 아주 [멋져요]</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>멋지세요</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>151</v>
+      </c>
+      <c r="C153" t="n">
+        <v>151</v>
+      </c>
+      <c r="D153" t="inlineStr">
         <is>
           <t>선생님, 비가 오는데 우산 [있어요]?</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>있으세요</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>152</v>
+      </c>
+      <c r="C154" t="n">
+        <v>152</v>
+      </c>
+      <c r="D154" t="inlineStr">
         <is>
           <t>고객님이 주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>153</v>
+      </c>
+      <c r="C155" t="n">
+        <v>153</v>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>지금부터 사장님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>있으시겠습니다 | 있겠습니다</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>154</v>
+      </c>
+      <c r="C156" t="n">
+        <v>154</v>
+      </c>
+      <c r="D156" t="inlineStr">
         <is>
           <t>어머니께서 제게 시간을 [여쭈어] 보셨어요</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>물어</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>155</v>
+      </c>
+      <c r="C157" t="n">
+        <v>155</v>
+      </c>
+      <c r="D157" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 [오시라는데] 오후에 시간 있으십니까?</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>오라시는데</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>156</v>
+      </c>
+      <c r="C158" t="n">
+        <v>156</v>
+      </c>
+      <c r="D158" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 오라시는데 오후에 시간 [계십니까]?</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>있으십니까</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>157</v>
+      </c>
+      <c r="C159" t="n">
+        <v>157</v>
+      </c>
+      <c r="D159" t="inlineStr">
         <is>
           <t>차에 [치다]</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>치이다</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>158</v>
+      </c>
+      <c r="C160" t="n">
+        <v>158</v>
+      </c>
+      <c r="D160" t="inlineStr">
         <is>
           <t>날이 [개이다]</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>159</v>
+      </c>
+      <c r="C161" t="n">
+        <v>159</v>
+      </c>
+      <c r="D161" t="inlineStr">
         <is>
           <t>마음이 [설레이다]</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>160</v>
+      </c>
+      <c r="C162" t="n">
+        <v>160</v>
+      </c>
+      <c r="D162" t="inlineStr">
         <is>
           <t>습관처럼 중요한 말을 [되뇌이는] 버릇이 있다</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>되뇌는</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>161</v>
+      </c>
+      <c r="C163" t="n">
+        <v>161</v>
+      </c>
+      <c r="D163" t="inlineStr">
         <is>
           <t>나는 친구 집을 찾아 골목을 [헤매이고] 다녔다</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>헤매고</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>162</v>
+      </c>
+      <c r="C164" t="n">
+        <v>162</v>
+      </c>
+      <c r="D164" t="inlineStr">
         <is>
           <t>너무 급하게 밥을 먹으면 목이 [메이기] 마련이다</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>메기</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>163</v>
+      </c>
+      <c r="C165" t="n">
+        <v>163</v>
+      </c>
+      <c r="D165" t="inlineStr">
         <is>
           <t>그는 어린 시절 기계에 손가락이 [끼는] 사고를 당했다</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>끼이는</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>164</v>
+      </c>
+      <c r="C166" t="n">
+        <v>164</v>
+      </c>
+      <c r="D166" t="inlineStr">
         <is>
           <t>밀다(피동)</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>밀리다</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>165</v>
+      </c>
+      <c r="C167" t="n">
+        <v>165</v>
+      </c>
+      <c r="D167" t="inlineStr">
         <is>
           <t>밀다(사동)</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>밀게 하다</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>166</v>
+      </c>
+      <c r="C168" t="n">
+        <v>166</v>
+      </c>
+      <c r="D168" t="inlineStr">
         <is>
           <t>그는 김 교수에게 박 군을 [소개시켰다]</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>소개했다</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>167</v>
+      </c>
+      <c r="C169" t="n">
+        <v>167</v>
+      </c>
+      <c r="D169" t="inlineStr">
         <is>
           <t>생각이 다른 타인을 [설득시킨다]는 건 참 힘든 일이다</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>설득한다</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>168</v>
+      </c>
+      <c r="C170" t="n">
+        <v>168</v>
+      </c>
+      <c r="D170" t="inlineStr">
         <is>
           <t>우리는 토론을 거쳐 다양한 사회적 갈등을 [해소시킨다]</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>해소한다</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>169</v>
+      </c>
+      <c r="C171" t="n">
+        <v>169</v>
+      </c>
+      <c r="D171" t="inlineStr">
         <is>
           <t>[닫혀진] 마음을 열 길이 없구나</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>닫힌</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>170</v>
+      </c>
+      <c r="C172" t="n">
+        <v>170</v>
+      </c>
+      <c r="D172" t="inlineStr">
         <is>
           <t>저쪽 복도에 [놓여진] 화분은 엄청 예쁘구나</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>놓인</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>171</v>
+      </c>
+      <c r="C173" t="n">
+        <v>171</v>
+      </c>
+      <c r="D173" t="inlineStr">
         <is>
           <t>장마로 인해 [끊겨진] 통신 선로가 드디어 복구되었다</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>끊긴</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>172</v>
+      </c>
+      <c r="C174" t="n">
+        <v>172</v>
+      </c>
+      <c r="D174" t="inlineStr">
         <is>
           <t>花無十日紅</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>화무십일홍| 1. 「열흘 붉은 꽃이 없다.」는 뜻으로,
 2. 「한 번 성한 것이 얼마 못 가서 반드시 쇠(衰)하여짐.」을 이르는 말.
 3. 권세(權勢)나 세력(勢力)의 성(盛)함이 오래 가지 않는다는 말.</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>173</v>
+      </c>
+      <c r="C175" t="n">
+        <v>173</v>
+      </c>
+      <c r="D175" t="inlineStr">
         <is>
           <t>學而時習之不亦說乎</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>학이시습지불역열호|배우고 때때로 익히면 또한 기쁘지 아니한가?</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>174</v>
+      </c>
+      <c r="C176" t="n">
+        <v>174</v>
+      </c>
+      <c r="D176" t="inlineStr">
         <is>
           <t>[핼쑥]하다</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>해쓱</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>175</v>
+      </c>
+      <c r="C177" t="n">
+        <v>175</v>
+      </c>
+      <c r="D177" t="inlineStr">
         <is>
           <t>[국쑤]</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>국수</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>176</v>
+      </c>
+      <c r="C178" t="n">
+        <v>176</v>
+      </c>
+      <c r="D178" t="inlineStr">
         <is>
           <t>국수(발음)</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>국쑤</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>177</v>
+      </c>
+      <c r="C179" t="n">
+        <v>177</v>
+      </c>
+      <c r="D179" t="inlineStr">
         <is>
           <t>[깍뚜기]</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>깍두기</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>178</v>
+      </c>
+      <c r="C180" t="n">
+        <v>178</v>
+      </c>
+      <c r="D180" t="inlineStr">
         <is>
           <t>깍두기(발음)</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>깍두기</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>179</v>
+      </c>
+      <c r="C181" t="n">
+        <v>179</v>
+      </c>
+      <c r="D181" t="inlineStr">
         <is>
           <t>[법썩]</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>법석</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>180</v>
+      </c>
+      <c r="C182" t="n">
+        <v>180</v>
+      </c>
+      <c r="D182" t="inlineStr">
         <is>
           <t>법석(발음)</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>법썩</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>181</v>
+      </c>
+      <c r="C183" t="n">
+        <v>181</v>
+      </c>
+      <c r="D183" t="inlineStr">
         <is>
           <t>[짭잘]하다</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>짭짤</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>182</v>
+      </c>
+      <c r="C184" t="n">
+        <v>182</v>
+      </c>
+      <c r="D184" t="inlineStr">
         <is>
           <t>[씁슬]하다</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>씁쓸</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>183</v>
+      </c>
+      <c r="C185" t="n">
+        <v>183</v>
+      </c>
+      <c r="D185" t="inlineStr">
         <is>
           <t>[딱찌]</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>딱지</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>184</v>
+      </c>
+      <c r="C186" t="n">
+        <v>184</v>
+      </c>
+      <c r="D186" t="inlineStr">
         <is>
           <t>딱지(발음)</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>딱찌</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>185</v>
+      </c>
+      <c r="C187" t="n">
+        <v>185</v>
+      </c>
+      <c r="D187" t="inlineStr">
         <is>
           <t>[싹뚝]</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>싹둑</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>186</v>
+      </c>
+      <c r="C188" t="n">
+        <v>186</v>
+      </c>
+      <c r="D188" t="inlineStr">
         <is>
           <t>싹둑(발음)</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>싹뚝</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>187</v>
+      </c>
+      <c r="C189" t="n">
+        <v>187</v>
+      </c>
+      <c r="D189" t="inlineStr">
         <is>
           <t>[몹씨]</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>몹시</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>188</v>
+      </c>
+      <c r="C190" t="n">
+        <v>188</v>
+      </c>
+      <c r="D190" t="inlineStr">
         <is>
           <t>몹시(발음)</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>몹씨</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>189</v>
+      </c>
+      <c r="C191" t="n">
+        <v>189</v>
+      </c>
+      <c r="D191" t="inlineStr">
         <is>
           <t>[신녀성]</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>신여성</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>190</v>
+      </c>
+      <c r="C192" t="n">
+        <v>190</v>
+      </c>
+      <c r="D192" t="inlineStr">
         <is>
           <t>[공념불]</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>공염불</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>191</v>
+      </c>
+      <c r="C193" t="n">
+        <v>191</v>
+      </c>
+      <c r="D193" t="inlineStr">
         <is>
           <t>[남존녀비]</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>남존여비</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>192</v>
+      </c>
+      <c r="C194" t="n">
+        <v>192</v>
+      </c>
+      <c r="D194" t="inlineStr">
         <is>
           <t>[실락원]</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>실낙원</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>193</v>
+      </c>
+      <c r="C195" t="n">
+        <v>193</v>
+      </c>
+      <c r="D195" t="inlineStr">
         <is>
           <t>나는 [자랑스런] 태극기 앞에</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>자랑스러운</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>194</v>
+      </c>
+      <c r="C196" t="n">
+        <v>194</v>
+      </c>
+      <c r="D196" t="inlineStr">
         <is>
           <t>선수들은 [만족스런] 경기를 펼쳤다</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>만족스러운</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>195</v>
+      </c>
+      <c r="C197" t="n">
+        <v>195</v>
+      </c>
+      <c r="D197" t="inlineStr">
         <is>
           <t>[어둔] 방에서 책을 읽었다</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>어두운</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>196</v>
+      </c>
+      <c r="C198" t="n">
+        <v>196</v>
+      </c>
+      <c r="D198" t="inlineStr">
         <is>
           <t>잘 [군] 감자를 먹었다</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>구운</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>197</v>
+      </c>
+      <c r="C199" t="n">
+        <v>197</v>
+      </c>
+      <c r="D199" t="inlineStr">
         <is>
           <t>더 놀다 [가려므나]</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>가려무나</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>198</v>
+      </c>
+      <c r="C200" t="n">
+        <v>198</v>
+      </c>
+      <c r="D200" t="inlineStr">
         <is>
           <t>요즘은 손님이 전혀 [없쑤]</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>없우</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>199</v>
+      </c>
+      <c r="C201" t="n">
+        <v>199</v>
+      </c>
+      <c r="D201" t="inlineStr">
         <is>
           <t>일을 [할려면] 제대로 해야지</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>하려면</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>200</v>
+      </c>
+      <c r="C202" t="n">
+        <v>200</v>
+      </c>
+      <c r="D202" t="inlineStr">
         <is>
           <t>그 연인은 [뗄려야] 뗄 수 없는 사이다</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>떼려야</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>201</v>
+      </c>
+      <c r="C203" t="n">
+        <v>201</v>
+      </c>
+      <c r="D203" t="inlineStr">
         <is>
           <t>그는 예의를 [지키고저] 스승을 찾았다</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>지키고자</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>202</v>
+      </c>
+      <c r="C204" t="n">
+        <v>202</v>
+      </c>
+      <c r="D204" t="inlineStr">
         <is>
           <t>오늘은 일진이 [좋을런지] 기분이 좋다</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>좋을는지</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>203</v>
+      </c>
+      <c r="C205" t="n">
+        <v>203</v>
+      </c>
+      <c r="D205" t="inlineStr">
         <is>
           <t>그 사람이 과연 이 일을 [맡을런지]</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>맡을는지</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>204</v>
+      </c>
+      <c r="C206" t="n">
+        <v>204</v>
+      </c>
+      <c r="D206" t="inlineStr">
         <is>
           <t>다시는 두말 못 [하렸다]</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>하렷다</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>205</v>
+      </c>
+      <c r="C207" t="n">
+        <v>205</v>
+      </c>
+      <c r="D207" t="inlineStr">
         <is>
           <t>너도 [아다시피] 내게 무슨 힘이 있니?</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>알다시피</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>206</v>
+      </c>
+      <c r="C208" t="n">
+        <v>206</v>
+      </c>
+      <c r="D208" t="inlineStr">
         <is>
           <t>정말 깨끗한 [동네이구료]</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>동네이구려</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>207</v>
+      </c>
+      <c r="C209" t="n">
+        <v>207</v>
+      </c>
+      <c r="D209" t="inlineStr">
         <is>
           <t>누가 [왔관대] 이리 소란스러울까?</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>왔관데</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>208</v>
+      </c>
+      <c r="C210" t="n">
+        <v>208</v>
+      </c>
+      <c r="D210" t="inlineStr">
         <is>
           <t>하늘을 [날으는] 비행기</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>나는</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>209</v>
+      </c>
+      <c r="C211" t="n">
+        <v>209</v>
+      </c>
+      <c r="D211" t="inlineStr">
         <is>
           <t>아름다운 서울에서 [살으렵니다]</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>살렵니다</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>210</v>
+      </c>
+      <c r="C212" t="n">
+        <v>210</v>
+      </c>
+      <c r="D212" t="inlineStr">
         <is>
           <t>우리 부부는 둘 다 돈을 [벌으므로] 여유가 있습니다</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>벌므로</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>211</v>
+      </c>
+      <c r="C213" t="n">
+        <v>211</v>
+      </c>
+      <c r="D213" t="inlineStr">
         <is>
           <t>모두 힘을 모아 차를 [밀읍시다]</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>밉시다</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>212</v>
+      </c>
+      <c r="C214" t="n">
+        <v>212</v>
+      </c>
+      <c r="D214" t="inlineStr">
         <is>
           <t>이 방의 길이가 [짧으네요]</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>짧네요</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>213</v>
+      </c>
+      <c r="C215" t="n">
+        <v>213</v>
+      </c>
+      <c r="D215" t="inlineStr">
         <is>
           <t>이 방은 참 [넓으네요]</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>넓네요</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>214</v>
+      </c>
+      <c r="C216" t="n">
+        <v>214</v>
+      </c>
+      <c r="D216" t="inlineStr">
         <is>
           <t>짧네요(발음)</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>짤레요</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>215</v>
+      </c>
+      <c r="C217" t="n">
+        <v>215</v>
+      </c>
+      <c r="D217" t="inlineStr">
         <is>
           <t>넓네요(발음)</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>널레요</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>216</v>
+      </c>
+      <c r="C218" t="n">
+        <v>216</v>
+      </c>
+      <c r="D218" t="inlineStr">
         <is>
           <t>6시가 [안되서] 일어났다</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>안 돼서</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>217</v>
+      </c>
+      <c r="C219" t="n">
+        <v>217</v>
+      </c>
+      <c r="D219" t="inlineStr">
         <is>
           <t>우리는 본 행사를 통해 더 많은 국민들이 녹색 관광을 즐기고 [참여하는 계기가 되기를 바란다]</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>참여하게 되기를 바란다</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>218</v>
+      </c>
+      <c r="C220" t="n">
+        <v>218</v>
+      </c>
+      <c r="D220" t="inlineStr">
         <is>
           <t>우리는 모바일 서비스를 제공하여 [이용자들에게] 이 사업의 미래상에 대해 보다 쉽게 다가갈 수 있도록 하였다</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>이용자들이</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
         <v>1</v>
       </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>219</v>
+      </c>
+      <c r="C221" t="n">
+        <v>438</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>다음 주에 [뵈요]</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>봬요, 뵈어요</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>220</v>
+      </c>
+      <c r="C222" t="n">
+        <v>439</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>이 자리를 [빌어] 감사의 말씀을 드립니다</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>빌려</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>221</v>
+      </c>
+      <c r="C223" t="n">
+        <v>440</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>술을 마신 다음날 그는 [북어국]을 먹었다</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>북엇국</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>222</v>
+      </c>
+      <c r="C224" t="n">
+        <v>441</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>네가 그 내용을 [요약토록] 해라</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>요약도록</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
         </is>
@@ -475,22 +480,25 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>의견란 (발음)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>의견난</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -504,22 +512,25 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>임진란 (발음)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>임진난</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -533,22 +544,25 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>생산량 (발음)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>생산냥</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -562,22 +576,25 @@
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>결단력 (발음)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>결딴녁</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -591,22 +608,25 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>공권력 (발음)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>공꿘녁</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -620,22 +640,25 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>동원령 (발음)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>동원녕</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -649,22 +672,25 @@
       <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>상견례 (발음)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>상견녜</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -678,22 +704,25 @@
       <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>횡단로 (발음)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>횡단노</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -707,22 +736,25 @@
       <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>이원론 (발음)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>이원논</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -736,22 +768,25 @@
       <c r="C11" t="n">
         <v>9</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>입원료 (발음)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>이붠뇨</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -765,22 +800,25 @@
       <c r="C12" t="n">
         <v>10</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>구근류 (발음)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>구근뉴</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -794,22 +832,25 @@
       <c r="C13" t="n">
         <v>11</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>신문로 (발음)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>신문노</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -823,22 +864,25 @@
       <c r="C14" t="n">
         <v>12</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>남대문로 (발음)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>남대문노</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -852,22 +896,25 @@
       <c r="C15" t="n">
         <v>13</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>추진력 (발음)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>추진녁</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -881,22 +928,25 @@
       <c r="C16" t="n">
         <v>14</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>장맛비 (발음)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>장마삐 | 장맏삐</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -910,22 +960,25 @@
       <c r="C17" t="n">
         <v>15</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>등불 (발음)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>등뿔</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -939,22 +992,25 @@
       <c r="C18" t="n">
         <v>16</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>콧날 (발음)</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>콘날</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -968,22 +1024,25 @@
       <c r="C19" t="n">
         <v>17</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>예삿일 (발음)</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>예산닐</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,22 +1056,25 @@
       <c r="C20" t="n">
         <v>18</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>집일 (발음)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>짐닐</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1026,22 +1088,25 @@
       <c r="C21" t="n">
         <v>19</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>인사말 (발음)</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>인사말 |</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1055,22 +1120,25 @@
       <c r="C22" t="n">
         <v>20</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>머리말 (발음)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>머리말 |</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1084,22 +1152,25 @@
       <c r="C23" t="n">
         <v>21</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>꼬리말 (발음)</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>꼬리말 |</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1113,22 +1184,25 @@
       <c r="C24" t="n">
         <v>22</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>고무줄 (발음)</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>고무줄 |</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1142,22 +1216,25 @@
       <c r="C25" t="n">
         <v>23</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>동아줄 (발음)</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>동아줄 |</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1171,22 +1248,25 @@
       <c r="C26" t="n">
         <v>24</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>회수(回收) (발음)</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>회수 | 훼수</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1200,22 +1280,25 @@
       <c r="C27" t="n">
         <v>25</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>콩밥 (발음)</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>콩밥 |</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1229,22 +1312,25 @@
       <c r="C28" t="n">
         <v>26</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>빨랫줄 (발음)</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>빨래쭐 | 빨랟쭐</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1258,22 +1344,25 @@
       <c r="C29" t="n">
         <v>27</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>횟수(回數) (발음)</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>회쑤 | 홷쑤</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1287,22 +1376,25 @@
       <c r="C30" t="n">
         <v>28</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>아침밥 (발음)</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>아침빱</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1316,22 +1408,25 @@
       <c r="C31" t="n">
         <v>29</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>피어 (발음)</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>피어 | 피여</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1345,22 +1440,25 @@
       <c r="C32" t="n">
         <v>30</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>되어 (발음)</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>되어 | 되여</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1374,22 +1472,25 @@
       <c r="C33" t="n">
         <v>31</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>이오 (발음)</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>이오 | 이요</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1403,22 +1504,25 @@
       <c r="C34" t="n">
         <v>32</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>아니오 (발음)</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>아니오 | 아니요</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1432,22 +1536,25 @@
       <c r="C35" t="n">
         <v>33</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>마천루 (발음)</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>마철루</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1461,22 +1568,25 @@
       <c r="C36" t="n">
         <v>34</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>영업용 (발음)</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>영엄뇽</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1490,22 +1600,25 @@
       <c r="C37" t="n">
         <v>35</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>막일 (발음)</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>망닐</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1519,22 +1632,25 @@
       <c r="C38" t="n">
         <v>36</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>솜이불 (발음)</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>솜니불</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1548,22 +1664,25 @@
       <c r="C39" t="n">
         <v>37</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>스물여섯 (발음)</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>스물려섣</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1577,22 +1696,25 @@
       <c r="C40" t="n">
         <v>38</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>[그 동안] 안녕하셨는지요?</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>그동안</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1606,22 +1728,25 @@
       <c r="C41" t="n">
         <v>39</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>어줍잖은</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>어쭙잖은</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1635,22 +1760,25 @@
       <c r="C42" t="n">
         <v>40</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>연락드릴께요</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>연락드릴게요</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1664,22 +1792,25 @@
       <c r="C43" t="n">
         <v>41</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>적쟎은</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>적잖은</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1693,22 +1824,25 @@
       <c r="C44" t="n">
         <v>42</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>친구가 "나는 학교에 안 가겠다"[고] 말했다</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>라고</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1722,22 +1856,25 @@
       <c r="C45" t="n">
         <v>43</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>대통령은 진지한 연설[로서] 국민을 설득했다</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>로써</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1751,22 +1888,25 @@
       <c r="C46" t="n">
         <v>44</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>아침부터 흐린 게 비가 [올런지] 몰라 우산을 미리 챙겨 나갔다</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>올른지</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1780,22 +1920,25 @@
       <c r="C47" t="n">
         <v>45</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>길을 나서자 갑자기 곧 [햇님]이 모습을 드러냈다</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>해님</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1809,22 +1952,25 @@
       <c r="C48" t="n">
         <v>46</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>시장 입구에는 [앳띤] 소녀들이 우산을 들고 왁자지걸 이야기를 하며 지나가고 있었다</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>앳된</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1838,22 +1984,25 @@
       <c r="C49" t="n">
         <v>47</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>다음 문제를 [풀어라]</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>풀라</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,22 +2016,25 @@
       <c r="C50" t="n">
         <v>48</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>정부는 빈곤 문제에 대한 대책을 [세워라]</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>세우라</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1896,22 +2048,25 @@
       <c r="C51" t="n">
         <v>49</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>보기를 읽고 알맞은 답을 [골라라]</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>고르라</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1925,22 +2080,25 @@
       <c r="C52" t="n">
         <v>50</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>아버지께서는 생각이 [계신다]</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>있으시다</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1954,22 +2112,25 @@
       <c r="C53" t="n">
         <v>51</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>교장 선생님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>있으시겠습니다</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1983,22 +2144,25 @@
       <c r="C54" t="n">
         <v>52</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 [계신] 분, 계세요?</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>있으신</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2012,22 +2176,25 @@
       <c r="C55" t="n">
         <v>53</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>계세요?</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,22 +2208,25 @@
       <c r="C56" t="n">
         <v>54</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2070,22 +2240,25 @@
       <c r="C57" t="n">
         <v>55</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>문의하신 상품은 [품절이십니다]</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>품절입니다</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2099,22 +2272,25 @@
       <c r="C58" t="n">
         <v>56</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>말씀하신 사이즈가 [없으십니다]</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>없습니다</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2128,22 +2304,25 @@
       <c r="C59" t="n">
         <v>57</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>(상점에서) [포장이세요?]</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>포장해 드릴까요?</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2157,22 +2336,25 @@
       <c r="C60" t="n">
         <v>58</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>손님, 여기 주문하신 물건이 [있으시겠습니다]</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2186,22 +2368,25 @@
       <c r="C61" t="n">
         <v>59</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>이 물건의 가격은 만 원[되시겠습니다]</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>입니다</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2215,22 +2400,25 @@
       <c r="C62" t="n">
         <v>60</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>할아버지, [아버지께서 오셨습니다]</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>아버지가 왔습니다</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2244,22 +2432,25 @@
       <c r="C63" t="n">
         <v>61</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>어머니, [할머니가 왔습니다]</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>할머니께서 오셨습니다</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2273,22 +2464,25 @@
       <c r="C64" t="n">
         <v>62</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="n">
+        <v>62</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>(평사원이) 사장님, [이 과장 어디갔습니까?]</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>이 과장님 어디 가셨습니까?</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2302,22 +2496,25 @@
       <c r="C65" t="n">
         <v>63</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>나는 아버지를 [데리고] 집으로 왔다</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>모시고</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2331,22 +2528,25 @@
       <c r="C66" t="n">
         <v>64</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="n">
+        <v>64</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>나는 그 고구마를 선생님께 [주었다]</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>드렸다</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2360,22 +2560,25 @@
       <c r="C67" t="n">
         <v>65</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>나는 그것을 선생님께 [물었다]</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>여쭈었다</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2389,22 +2592,25 @@
       <c r="C68" t="n">
         <v>66</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="n">
+        <v>66</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>당랑거철(발음)</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>당낭거철</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2418,22 +2624,25 @@
       <c r="C69" t="n">
         <v>67</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="n">
+        <v>67</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>금란지계(발음)</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>금난지계 | 금난지게</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2447,22 +2656,25 @@
       <c r="C70" t="n">
         <v>68</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="n">
+        <v>68</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>동가홍상(발음)</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>동까홍상</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2476,22 +2688,25 @@
       <c r="C71" t="n">
         <v>69</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="n">
+        <v>69</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>득롱망촉(발음)</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>등농망촉</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2505,22 +2720,25 @@
       <c r="C72" t="n">
         <v>70</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" t="n">
+        <v>70</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>김밥(형태소)</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>김/밥</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2534,22 +2752,25 @@
       <c r="C73" t="n">
         <v>71</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="n">
+        <v>71</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>국밥(형태소)</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>국/밥</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2563,22 +2784,25 @@
       <c r="C74" t="n">
         <v>72</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="n">
+        <v>72</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>선생님의 [말]을 먼저 듣고, 제 말씀을 전하겠습니다</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2592,22 +2816,25 @@
       <c r="C75" t="n">
         <v>73</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="n">
+        <v>73</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>선생님의 말씀을 먼저 듣고, 제 [말]을 전하겠습니다</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>말씀</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2621,22 +2848,25 @@
       <c r="C76" t="n">
         <v>74</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="n">
+        <v>74</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>딸 아이가 학교에서 돌아오기만 하면 꼭 저에게 [여쭈어봐요]</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>물어봐요</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2650,22 +2880,25 @@
       <c r="C77" t="n">
         <v>75</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="n">
+        <v>75</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>다음으로 오늘의 주인공 공지철 씨를 [모시겠습니다]</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>소개하겠습니다</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2679,22 +2912,25 @@
       <c r="C78" t="n">
         <v>76</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="n">
+        <v>76</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>아버님, 아범(아비)이 아직 안 [들어오셨어요]</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>들어왔습니다</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2708,22 +2944,25 @@
       <c r="C79" t="n">
         <v>77</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="n">
+        <v>77</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>그이가 아버님께 말씀드린다고 [하셨습니다]</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>했습니다</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2737,22 +2976,25 @@
       <c r="C80" t="n">
         <v>78</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="n">
+        <v>78</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>제 [부인]을 소개하겠습니다</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>집사람 | 안사람 | 처</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2766,22 +3008,25 @@
       <c r="C81" t="n">
         <v>79</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" t="n">
+        <v>79</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>이쪽에 잠깐 앉아 [계실게요]</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>주시기 바랍니다</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2795,22 +3040,25 @@
       <c r="C82" t="n">
         <v>80</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="n">
+        <v>80</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>선생님, [수고하세요]</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>고맙습니다</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2824,22 +3072,25 @@
       <c r="C83" t="n">
         <v>81</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="n">
+        <v>81</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>아버지에게 [야단을 맞았다]</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>꾸중을 들었다 | 꾸지람을 들었다 | 걱정을 들었다</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2853,22 +3104,25 @@
       <c r="C84" t="n">
         <v>82</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="n">
+        <v>82</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>자신의 살아 있는 아버지</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>아버지</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2882,22 +3136,25 @@
       <c r="C85" t="n">
         <v>83</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="n">
+        <v>83</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>자신의 살아 있는 어머니</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>어머니</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2911,22 +3168,25 @@
       <c r="C86" t="n">
         <v>84</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="n">
+        <v>84</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>아버님</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2940,22 +3200,25 @@
       <c r="C87" t="n">
         <v>85</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="n">
+        <v>85</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>어머님</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2969,22 +3232,25 @@
       <c r="C88" t="n">
         <v>86</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>부모 앞에서 아내를 기리킬 때</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>어멈 | 어미 | 집사람 | 안사람 | ㅇㅇ 엄마</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2998,22 +3264,25 @@
       <c r="C89" t="n">
         <v>87</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>남편의 형</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3027,22 +3296,25 @@
       <c r="C90" t="n">
         <v>88</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="n">
+        <v>88</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>남편의 형의 아내</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3056,22 +3328,25 @@
       <c r="C91" t="n">
         <v>89</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="n">
+        <v>89</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>남편의 아우 (미혼)</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>도련님</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3085,22 +3360,25 @@
       <c r="C92" t="n">
         <v>90</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>남편의 아우 (기혼)</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3114,22 +3392,25 @@
       <c r="C93" t="n">
         <v>91</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="n">
+        <v>91</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>남편의 아우의 아내</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>동서</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3143,22 +3424,25 @@
       <c r="C94" t="n">
         <v>92</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="n">
+        <v>92</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>남자의 경우, 누나</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>누나 | 누님</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3172,22 +3456,25 @@
       <c r="C95" t="n">
         <v>93</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="n">
+        <v>93</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>누나의 남편</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3201,22 +3488,25 @@
       <c r="C96" t="n">
         <v>94</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" t="n">
+        <v>94</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>여동생의 남편</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>매부 | 매형 | 자형</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3230,22 +3520,25 @@
       <c r="C97" t="n">
         <v>95</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="n">
+        <v>95</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>남편의 누나 (손위 시누이)</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>형님</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3259,22 +3552,25 @@
       <c r="C98" t="n">
         <v>96</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="n">
+        <v>96</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>남편의 누나의 남편</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>아주버님</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3288,22 +3584,25 @@
       <c r="C99" t="n">
         <v>97</v>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" t="n">
+        <v>97</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>남편의 누이동생 (손아래 시누이)</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>아가씨 | 아기씨</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3317,22 +3616,25 @@
       <c r="C100" t="n">
         <v>98</v>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>남편의 누이동생의 남편</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>서방님</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3346,22 +3648,25 @@
       <c r="C101" t="n">
         <v>99</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="n">
+        <v>99</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>(여자의 경우) 여동생의 남편</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>제부 | ㅇ서방</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,22 +3680,25 @@
       <c r="C102" t="n">
         <v>100</v>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>자신의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>가친 | 엄친</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3404,22 +3712,25 @@
       <c r="C103" t="n">
         <v>101</v>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" t="n">
+        <v>101</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 아버지</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>춘부장 | 춘장 | 춘당 | 어르신 | 어르신네</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3433,22 +3744,25 @@
       <c r="C104" t="n">
         <v>102</v>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" t="n">
+        <v>102</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>자신의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>선친 | 선고 | 선부군</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3462,22 +3776,25 @@
       <c r="C105" t="n">
         <v>103</v>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" t="n">
+        <v>103</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 아버지</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>선대인 | 선고장 | 선장</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3491,22 +3808,25 @@
       <c r="C106" t="n">
         <v>104</v>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D106" t="n">
+        <v>104</v>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>자신의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>자친 | 가자 | 모친</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3520,22 +3840,25 @@
       <c r="C107" t="n">
         <v>105</v>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" t="n">
+        <v>105</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>다른 사람의 살아있는 어머니</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>자당 | 훤당 | 모당 | 모부인</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3549,22 +3872,25 @@
       <c r="C108" t="n">
         <v>106</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D108" t="n">
+        <v>106</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>자신의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>선비 | 선자</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3578,22 +3904,25 @@
       <c r="C109" t="n">
         <v>107</v>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D109" t="n">
+        <v>107</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>다른 사람의 돌아가신 어머니</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>선대부인</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3607,22 +3936,25 @@
       <c r="C110" t="n">
         <v>108</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D110" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>부장님의 따님은 집에 [계신가요]?</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>있으신가요</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3636,22 +3968,25 @@
       <c r="C111" t="n">
         <v>109</v>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D111" t="n">
+        <v>109</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>아버님께서는 집안의 대소사에 대해 항상 아랫사람들에게 [여쭈어 보십니다]</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>물어보십니다</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3665,22 +4000,25 @@
       <c r="C112" t="n">
         <v>110</v>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" t="n">
+        <v>110</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>이것이 바로 생전에 당신께서 [아끼던] 벼루입니다</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>아끼시던</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3694,22 +4032,25 @@
       <c r="C113" t="n">
         <v>111</v>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="n">
+        <v>111</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>큰아버지, 오늘 약주를 많이 드셨는데, 제가 [집]까지 모셔다 드리겠습니다</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>댁</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,22 +4064,25 @@
       <c r="C114" t="n">
         <v>112</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="n">
+        <v>112</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>문제가 잘 [풀려지다]</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>풀리다</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3752,22 +4096,25 @@
       <c r="C115" t="n">
         <v>113</v>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D115" t="n">
+        <v>113</v>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>[먹혀지다]</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>먹히다</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3781,22 +4128,25 @@
       <c r="C116" t="n">
         <v>114</v>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" t="n">
+        <v>114</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>[읽혀지다]</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>읽히다</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3810,22 +4160,25 @@
       <c r="C117" t="n">
         <v>115</v>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D117" t="n">
+        <v>115</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>아직 그 일을 [해결되어지지] 않았다</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>해결되지</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3839,22 +4192,25 @@
       <c r="C118" t="n">
         <v>116</v>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D118" t="n">
+        <v>116</v>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>[패인] 땅</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>팬 | 파인</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3868,22 +4224,25 @@
       <c r="C119" t="n">
         <v>117</v>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D119" t="n">
+        <v>117</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>철수는 여자친구에게 [채였다]</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>차였다</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3897,22 +4256,25 @@
       <c r="C120" t="n">
         <v>118</v>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D120" t="n">
+        <v>118</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>앞으로 경제가 좋아질 것으로 [보여집니다]</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>보입니다</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3926,22 +4288,25 @@
       <c r="C121" t="n">
         <v>119</v>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D121" t="n">
+        <v>119</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>이 책의 글씨는 잘 [읽혀지지] 않아요</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>읽히지</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3955,22 +4320,25 @@
       <c r="C122" t="n">
         <v>120</v>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D122" t="n">
+        <v>120</v>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>이 문제가 잘 [풀려지지] 않는다</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>풀리지</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3984,22 +4352,25 @@
       <c r="C123" t="n">
         <v>121</v>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D123" t="n">
+        <v>121</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>내가 합격한 것이 사실인지 [믿겨지지] 않았다</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>믿기지</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4013,22 +4384,25 @@
       <c r="C124" t="n">
         <v>122</v>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D124" t="n">
+        <v>122</v>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>그는 훌륭한 가수로 [불리웠다]</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>불렸다</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4042,22 +4416,25 @@
       <c r="C125" t="n">
         <v>123</v>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D125" t="n">
+        <v>123</v>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>[잘리워진] 국토의 아픔을 잊지 말자</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>잘린</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4071,22 +4448,25 @@
       <c r="C126" t="n">
         <v>124</v>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D126" t="n">
+        <v>124</v>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t>그 여자를 [소개시켜줘]</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>소개해줘</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4100,22 +4480,25 @@
       <c r="C127" t="n">
         <v>125</v>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D127" t="n">
+        <v>125</v>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t>형사는 두 사건을 [연결시켰다]</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>연결하였다 | 연결했다</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4129,22 +4512,25 @@
       <c r="C128" t="n">
         <v>126</v>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D128" t="n">
+        <v>126</v>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>그는 직접 직원을 [교육시켰다]</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>교육하였다 | 교육했다</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4158,22 +4544,25 @@
       <c r="C129" t="n">
         <v>127</v>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D129" t="n">
+        <v>127</v>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t>장비를 밤새 [가동시켜] 납품을 맞췄다</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>가동해 | 가동하여</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4187,22 +4576,25 @@
       <c r="C130" t="n">
         <v>128</v>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D130" t="n">
+        <v>128</v>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>보검이의 귀여운 모습에 소희는 [설레였다]</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>설렜다</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4216,22 +4608,25 @@
       <c r="C131" t="n">
         <v>129</v>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D131" t="n">
+        <v>129</v>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>재웠다(형태소)</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>자/이/우/었/다</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4245,22 +4640,25 @@
       <c r="C132" t="n">
         <v>130</v>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D132" t="n">
+        <v>130</v>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>태웠다(형태소)</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>타/이/우/었/다</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4274,22 +4672,25 @@
       <c r="C133" t="n">
         <v>131</v>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D133" t="n">
+        <v>131</v>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>세웠다(형태소)</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>서/이/우/었/다</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4303,22 +4704,25 @@
       <c r="C134" t="n">
         <v>132</v>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D134" t="n">
+        <v>132</v>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t>밤을 [새다]</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>새우다</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4332,22 +4736,25 @@
       <c r="C135" t="n">
         <v>133</v>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D135" t="n">
+        <v>133</v>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t>담배를 [피다]</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>피우다</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4361,22 +4768,25 @@
       <c r="C136" t="n">
         <v>134</v>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D136" t="n">
+        <v>134</v>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>들판을 [헤매이며] 돌아다니는 사람들</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>헤매며</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4390,22 +4800,25 @@
       <c r="C137" t="n">
         <v>135</v>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D137" t="n">
+        <v>135</v>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t>그는 그 말을 몇 번이고 [되뇌였다]</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>되뇌었다</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4419,22 +4832,25 @@
       <c r="C138" t="n">
         <v>136</v>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D138" t="n">
+        <v>136</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>이 공간을 [분리시킬] 벽을 설치했다</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>분리할</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4448,22 +4864,25 @@
       <c r="C139" t="n">
         <v>137</v>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D139" t="n">
+        <v>137</v>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t>기계를 하루 종일 [가동시켜서] 기일을 맞추다</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>가동해서</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4477,22 +4896,25 @@
       <c r="C140" t="n">
         <v>138</v>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D140" t="n">
+        <v>138</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>[헤매이다]</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>헤매다</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4506,22 +4928,25 @@
       <c r="C141" t="n">
         <v>139</v>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D141" t="n">
+        <v>139</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>[목메이다]</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>목메다</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4535,22 +4960,25 @@
       <c r="C142" t="n">
         <v>140</v>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D142" t="n">
+        <v>140</v>
+      </c>
+      <c r="E142" t="inlineStr">
         <is>
           <t>[설레이다]</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4564,22 +4992,25 @@
       <c r="C143" t="n">
         <v>141</v>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D143" t="n">
+        <v>141</v>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t>[붙박히다]</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>붙박이다</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4593,22 +5024,25 @@
       <c r="C144" t="n">
         <v>142</v>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D144" t="n">
+        <v>142</v>
+      </c>
+      <c r="E144" t="inlineStr">
         <is>
           <t>[개이다]</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4622,22 +5056,25 @@
       <c r="C145" t="n">
         <v>143</v>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D145" t="n">
+        <v>143</v>
+      </c>
+      <c r="E145" t="inlineStr">
         <is>
           <t>[되뇌이다]</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>되뇌다</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4651,22 +5088,25 @@
       <c r="C146" t="n">
         <v>144</v>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D146" t="n">
+        <v>144</v>
+      </c>
+      <c r="E146" t="inlineStr">
         <is>
           <t>돌려졌다(형태소)</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>돌리/어/지/었/다</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4680,7 +5120,10 @@
       <c r="C147" t="n">
         <v>145</v>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D147" t="n">
+        <v>145</v>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>장작 한 [강다리]
 마늘 한 [접]
@@ -4688,17 +5131,17 @@
 -&gt; 각자 몇 개?</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>백개</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4712,22 +5155,25 @@
       <c r="C148" t="n">
         <v>146</v>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D148" t="n">
+        <v>146</v>
+      </c>
+      <c r="E148" t="inlineStr">
         <is>
           <t>선생님에 너에게 [물을] 일이 있다고 하셔</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>물으실</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4741,22 +5187,25 @@
       <c r="C149" t="n">
         <v>147</v>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D149" t="n">
+        <v>147</v>
+      </c>
+      <c r="E149" t="inlineStr">
         <is>
           <t>선생님에 너에게 물으실 일이 있다고 [해]</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>하셔</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4770,22 +5219,25 @@
       <c r="C150" t="n">
         <v>148</v>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D150" t="n">
+        <v>148</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>할머니의 유지가 이곳에 머물러 [계십니다]</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>있습니다</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4799,22 +5251,25 @@
       <c r="C151" t="n">
         <v>149</v>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D151" t="n">
+        <v>149</v>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t>담임 선생님은 키가 굉장히 [크다]</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>크시다</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4828,22 +5283,25 @@
       <c r="C152" t="n">
         <v>150</v>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D152" t="n">
+        <v>150</v>
+      </c>
+      <c r="E152" t="inlineStr">
         <is>
           <t>할아버지, 지팡이가 아주 [멋져요]</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>멋지세요</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4857,22 +5315,25 @@
       <c r="C153" t="n">
         <v>151</v>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D153" t="n">
+        <v>151</v>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>선생님, 비가 오는데 우산 [있어요]?</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>있으세요</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4886,22 +5347,25 @@
       <c r="C154" t="n">
         <v>152</v>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D154" t="n">
+        <v>152</v>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t>고객님이 주문하신 커피 [나오셨습니다]</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>나왔습니다</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4915,22 +5379,25 @@
       <c r="C155" t="n">
         <v>153</v>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D155" t="n">
+        <v>153</v>
+      </c>
+      <c r="E155" t="inlineStr">
         <is>
           <t>지금부터 사장님의 말씀이 [계시겠습니다]</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>있으시겠습니다 | 있겠습니다</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4944,22 +5411,25 @@
       <c r="C156" t="n">
         <v>154</v>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D156" t="n">
+        <v>154</v>
+      </c>
+      <c r="E156" t="inlineStr">
         <is>
           <t>어머니께서 제게 시간을 [여쭈어] 보셨어요</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>물어</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4973,22 +5443,25 @@
       <c r="C157" t="n">
         <v>155</v>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D157" t="n">
+        <v>155</v>
+      </c>
+      <c r="E157" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 [오시라는데] 오후에 시간 있으십니까?</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>오라시는데</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5002,22 +5475,25 @@
       <c r="C158" t="n">
         <v>156</v>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D158" t="n">
+        <v>156</v>
+      </c>
+      <c r="E158" t="inlineStr">
         <is>
           <t>김과장님, 부장님께서 빨리 오라시는데 오후에 시간 [계십니까]?</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>있으십니까</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5031,22 +5507,25 @@
       <c r="C159" t="n">
         <v>157</v>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D159" t="n">
+        <v>157</v>
+      </c>
+      <c r="E159" t="inlineStr">
         <is>
           <t>차에 [치다]</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>치이다</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5060,22 +5539,25 @@
       <c r="C160" t="n">
         <v>158</v>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D160" t="n">
+        <v>158</v>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t>날이 [개이다]</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>개다</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5089,22 +5571,25 @@
       <c r="C161" t="n">
         <v>159</v>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D161" t="n">
+        <v>159</v>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t>마음이 [설레이다]</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>설레다</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5118,22 +5603,25 @@
       <c r="C162" t="n">
         <v>160</v>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D162" t="n">
+        <v>160</v>
+      </c>
+      <c r="E162" t="inlineStr">
         <is>
           <t>습관처럼 중요한 말을 [되뇌이는] 버릇이 있다</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>되뇌는</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5147,22 +5635,25 @@
       <c r="C163" t="n">
         <v>161</v>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D163" t="n">
+        <v>161</v>
+      </c>
+      <c r="E163" t="inlineStr">
         <is>
           <t>나는 친구 집을 찾아 골목을 [헤매이고] 다녔다</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>헤매고</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5176,22 +5667,25 @@
       <c r="C164" t="n">
         <v>162</v>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D164" t="n">
+        <v>162</v>
+      </c>
+      <c r="E164" t="inlineStr">
         <is>
           <t>너무 급하게 밥을 먹으면 목이 [메이기] 마련이다</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>메기</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5205,22 +5699,25 @@
       <c r="C165" t="n">
         <v>163</v>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D165" t="n">
+        <v>163</v>
+      </c>
+      <c r="E165" t="inlineStr">
         <is>
           <t>그는 어린 시절 기계에 손가락이 [끼는] 사고를 당했다</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>끼이는</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5234,22 +5731,25 @@
       <c r="C166" t="n">
         <v>164</v>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D166" t="n">
+        <v>164</v>
+      </c>
+      <c r="E166" t="inlineStr">
         <is>
           <t>밀다(피동)</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>밀리다</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5263,22 +5763,25 @@
       <c r="C167" t="n">
         <v>165</v>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D167" t="n">
+        <v>165</v>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>밀다(사동)</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>밀게 하다</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5292,22 +5795,25 @@
       <c r="C168" t="n">
         <v>166</v>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D168" t="n">
+        <v>166</v>
+      </c>
+      <c r="E168" t="inlineStr">
         <is>
           <t>그는 김 교수에게 박 군을 [소개시켰다]</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>소개했다</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5321,22 +5827,25 @@
       <c r="C169" t="n">
         <v>167</v>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D169" t="n">
+        <v>167</v>
+      </c>
+      <c r="E169" t="inlineStr">
         <is>
           <t>생각이 다른 타인을 [설득시킨다]는 건 참 힘든 일이다</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>설득한다</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5350,22 +5859,25 @@
       <c r="C170" t="n">
         <v>168</v>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D170" t="n">
+        <v>168</v>
+      </c>
+      <c r="E170" t="inlineStr">
         <is>
           <t>우리는 토론을 거쳐 다양한 사회적 갈등을 [해소시킨다]</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>해소한다</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5379,22 +5891,25 @@
       <c r="C171" t="n">
         <v>169</v>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D171" t="n">
+        <v>169</v>
+      </c>
+      <c r="E171" t="inlineStr">
         <is>
           <t>[닫혀진] 마음을 열 길이 없구나</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>닫힌</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5408,22 +5923,25 @@
       <c r="C172" t="n">
         <v>170</v>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D172" t="n">
+        <v>170</v>
+      </c>
+      <c r="E172" t="inlineStr">
         <is>
           <t>저쪽 복도에 [놓여진] 화분은 엄청 예쁘구나</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>놓인</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5437,22 +5955,25 @@
       <c r="C173" t="n">
         <v>171</v>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D173" t="n">
+        <v>171</v>
+      </c>
+      <c r="E173" t="inlineStr">
         <is>
           <t>장마로 인해 [끊겨진] 통신 선로가 드디어 복구되었다</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>끊긴</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5466,24 +5987,27 @@
       <c r="C174" t="n">
         <v>172</v>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D174" t="n">
+        <v>172</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>花無十日紅</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>화무십일홍| 1. 「열흘 붉은 꽃이 없다.」는 뜻으로,
 2. 「한 번 성한 것이 얼마 못 가서 반드시 쇠(衰)하여짐.」을 이르는 말.
 3. 권세(權勢)나 세력(勢力)의 성(盛)함이 오래 가지 않는다는 말.</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,22 +6021,25 @@
       <c r="C175" t="n">
         <v>173</v>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D175" t="n">
+        <v>173</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>學而時習之不亦說乎</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>학이시습지불역열호|배우고 때때로 익히면 또한 기쁘지 아니한가?</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5526,22 +6053,25 @@
       <c r="C176" t="n">
         <v>174</v>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D176" t="n">
+        <v>174</v>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>[핼쑥]하다</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>해쓱</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5555,22 +6085,25 @@
       <c r="C177" t="n">
         <v>175</v>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D177" t="n">
+        <v>175</v>
+      </c>
+      <c r="E177" t="inlineStr">
         <is>
           <t>[국쑤]</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>국수</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5584,22 +6117,25 @@
       <c r="C178" t="n">
         <v>176</v>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D178" t="n">
+        <v>176</v>
+      </c>
+      <c r="E178" t="inlineStr">
         <is>
           <t>국수(발음)</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>국쑤</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5613,22 +6149,25 @@
       <c r="C179" t="n">
         <v>177</v>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D179" t="n">
+        <v>177</v>
+      </c>
+      <c r="E179" t="inlineStr">
         <is>
           <t>[깍뚜기]</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>깍두기</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5642,22 +6181,25 @@
       <c r="C180" t="n">
         <v>178</v>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D180" t="n">
+        <v>178</v>
+      </c>
+      <c r="E180" t="inlineStr">
         <is>
           <t>깍두기(발음)</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>깍두기</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5671,22 +6213,25 @@
       <c r="C181" t="n">
         <v>179</v>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D181" t="n">
+        <v>179</v>
+      </c>
+      <c r="E181" t="inlineStr">
         <is>
           <t>[법썩]</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>법석</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5700,22 +6245,25 @@
       <c r="C182" t="n">
         <v>180</v>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D182" t="n">
+        <v>180</v>
+      </c>
+      <c r="E182" t="inlineStr">
         <is>
           <t>법석(발음)</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>법썩</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5729,22 +6277,25 @@
       <c r="C183" t="n">
         <v>181</v>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D183" t="n">
+        <v>181</v>
+      </c>
+      <c r="E183" t="inlineStr">
         <is>
           <t>[짭잘]하다</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>짭짤</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,22 +6309,25 @@
       <c r="C184" t="n">
         <v>182</v>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D184" t="n">
+        <v>182</v>
+      </c>
+      <c r="E184" t="inlineStr">
         <is>
           <t>[씁슬]하다</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>씁쓸</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5787,22 +6341,25 @@
       <c r="C185" t="n">
         <v>183</v>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D185" t="n">
+        <v>183</v>
+      </c>
+      <c r="E185" t="inlineStr">
         <is>
           <t>[딱찌]</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>딱지</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5816,22 +6373,25 @@
       <c r="C186" t="n">
         <v>184</v>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D186" t="n">
+        <v>184</v>
+      </c>
+      <c r="E186" t="inlineStr">
         <is>
           <t>딱지(발음)</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>딱찌</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5845,22 +6405,25 @@
       <c r="C187" t="n">
         <v>185</v>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D187" t="n">
+        <v>185</v>
+      </c>
+      <c r="E187" t="inlineStr">
         <is>
           <t>[싹뚝]</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>싹둑</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,22 +6437,25 @@
       <c r="C188" t="n">
         <v>186</v>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D188" t="n">
+        <v>186</v>
+      </c>
+      <c r="E188" t="inlineStr">
         <is>
           <t>싹둑(발음)</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>싹뚝</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5903,22 +6469,25 @@
       <c r="C189" t="n">
         <v>187</v>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D189" t="n">
+        <v>187</v>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>[몹씨]</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>몹시</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5932,22 +6501,25 @@
       <c r="C190" t="n">
         <v>188</v>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D190" t="n">
+        <v>188</v>
+      </c>
+      <c r="E190" t="inlineStr">
         <is>
           <t>몹시(발음)</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>몹씨</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,22 +6533,25 @@
       <c r="C191" t="n">
         <v>189</v>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D191" t="n">
+        <v>189</v>
+      </c>
+      <c r="E191" t="inlineStr">
         <is>
           <t>[신녀성]</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>신여성</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5990,22 +6565,25 @@
       <c r="C192" t="n">
         <v>190</v>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D192" t="n">
+        <v>190</v>
+      </c>
+      <c r="E192" t="inlineStr">
         <is>
           <t>[공념불]</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>공염불</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6019,22 +6597,25 @@
       <c r="C193" t="n">
         <v>191</v>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D193" t="n">
+        <v>191</v>
+      </c>
+      <c r="E193" t="inlineStr">
         <is>
           <t>[남존녀비]</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>남존여비</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,22 +6629,25 @@
       <c r="C194" t="n">
         <v>192</v>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D194" t="n">
+        <v>192</v>
+      </c>
+      <c r="E194" t="inlineStr">
         <is>
           <t>[실락원]</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>실낙원</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6077,22 +6661,25 @@
       <c r="C195" t="n">
         <v>193</v>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="D195" t="n">
+        <v>193</v>
+      </c>
+      <c r="E195" t="inlineStr">
         <is>
           <t>나는 [자랑스런] 태극기 앞에</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>자랑스러운</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,22 +6693,25 @@
       <c r="C196" t="n">
         <v>194</v>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="D196" t="n">
+        <v>194</v>
+      </c>
+      <c r="E196" t="inlineStr">
         <is>
           <t>선수들은 [만족스런] 경기를 펼쳤다</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>만족스러운</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6135,22 +6725,25 @@
       <c r="C197" t="n">
         <v>195</v>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="D197" t="n">
+        <v>195</v>
+      </c>
+      <c r="E197" t="inlineStr">
         <is>
           <t>[어둔] 방에서 책을 읽었다</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>어두운</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6164,22 +6757,25 @@
       <c r="C198" t="n">
         <v>196</v>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="D198" t="n">
+        <v>196</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>잘 [군] 감자를 먹었다</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>구운</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6193,22 +6789,25 @@
       <c r="C199" t="n">
         <v>197</v>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="D199" t="n">
+        <v>197</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>더 놀다 [가려므나]</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>가려무나</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,22 +6821,25 @@
       <c r="C200" t="n">
         <v>198</v>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D200" t="n">
+        <v>198</v>
+      </c>
+      <c r="E200" t="inlineStr">
         <is>
           <t>요즘은 손님이 전혀 [없쑤]</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>없우</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6251,22 +6853,25 @@
       <c r="C201" t="n">
         <v>199</v>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D201" t="n">
+        <v>199</v>
+      </c>
+      <c r="E201" t="inlineStr">
         <is>
           <t>일을 [할려면] 제대로 해야지</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>하려면</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6280,22 +6885,25 @@
       <c r="C202" t="n">
         <v>200</v>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="D202" t="n">
+        <v>200</v>
+      </c>
+      <c r="E202" t="inlineStr">
         <is>
           <t>그 연인은 [뗄려야] 뗄 수 없는 사이다</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>떼려야</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,22 +6917,25 @@
       <c r="C203" t="n">
         <v>201</v>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="D203" t="n">
+        <v>201</v>
+      </c>
+      <c r="E203" t="inlineStr">
         <is>
           <t>그는 예의를 [지키고저] 스승을 찾았다</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>지키고자</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6338,22 +6949,25 @@
       <c r="C204" t="n">
         <v>202</v>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D204" t="n">
+        <v>202</v>
+      </c>
+      <c r="E204" t="inlineStr">
         <is>
           <t>오늘은 일진이 [좋을런지] 기분이 좋다</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>좋을는지</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6367,22 +6981,25 @@
       <c r="C205" t="n">
         <v>203</v>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D205" t="n">
+        <v>203</v>
+      </c>
+      <c r="E205" t="inlineStr">
         <is>
           <t>그 사람이 과연 이 일을 [맡을런지]</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>맡을는지</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6396,22 +7013,25 @@
       <c r="C206" t="n">
         <v>204</v>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D206" t="n">
+        <v>204</v>
+      </c>
+      <c r="E206" t="inlineStr">
         <is>
           <t>다시는 두말 못 [하렸다]</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>하렷다</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G206" t="n">
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6425,22 +7045,25 @@
       <c r="C207" t="n">
         <v>205</v>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D207" t="n">
+        <v>205</v>
+      </c>
+      <c r="E207" t="inlineStr">
         <is>
           <t>너도 [아다시피] 내게 무슨 힘이 있니?</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>알다시피</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G207" t="n">
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6454,22 +7077,25 @@
       <c r="C208" t="n">
         <v>206</v>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D208" t="n">
+        <v>206</v>
+      </c>
+      <c r="E208" t="inlineStr">
         <is>
           <t>정말 깨끗한 [동네이구료]</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>동네이구려</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G208" t="n">
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6483,22 +7109,25 @@
       <c r="C209" t="n">
         <v>207</v>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="D209" t="n">
+        <v>207</v>
+      </c>
+      <c r="E209" t="inlineStr">
         <is>
           <t>누가 [왔관대] 이리 소란스러울까?</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>왔관데</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G209" t="n">
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6512,22 +7141,25 @@
       <c r="C210" t="n">
         <v>208</v>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="D210" t="n">
+        <v>208</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>하늘을 [날으는] 비행기</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>나는</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6541,22 +7173,25 @@
       <c r="C211" t="n">
         <v>209</v>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="D211" t="n">
+        <v>209</v>
+      </c>
+      <c r="E211" t="inlineStr">
         <is>
           <t>아름다운 서울에서 [살으렵니다]</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>살렵니다</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G211" t="n">
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6570,22 +7205,25 @@
       <c r="C212" t="n">
         <v>210</v>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D212" t="n">
+        <v>210</v>
+      </c>
+      <c r="E212" t="inlineStr">
         <is>
           <t>우리 부부는 둘 다 돈을 [벌으므로] 여유가 있습니다</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>벌므로</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G212" t="n">
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6599,22 +7237,25 @@
       <c r="C213" t="n">
         <v>211</v>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="D213" t="n">
+        <v>211</v>
+      </c>
+      <c r="E213" t="inlineStr">
         <is>
           <t>모두 힘을 모아 차를 [밀읍시다]</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>밉시다</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G213" t="n">
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6628,22 +7269,25 @@
       <c r="C214" t="n">
         <v>212</v>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D214" t="n">
+        <v>212</v>
+      </c>
+      <c r="E214" t="inlineStr">
         <is>
           <t>이 방의 길이가 [짧으네요]</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>짧네요</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G214" t="n">
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6657,22 +7301,25 @@
       <c r="C215" t="n">
         <v>213</v>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D215" t="n">
+        <v>213</v>
+      </c>
+      <c r="E215" t="inlineStr">
         <is>
           <t>이 방은 참 [넓으네요]</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>넓네요</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G215" t="n">
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6686,22 +7333,25 @@
       <c r="C216" t="n">
         <v>214</v>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="D216" t="n">
+        <v>214</v>
+      </c>
+      <c r="E216" t="inlineStr">
         <is>
           <t>짧네요(발음)</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>짤레요</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G216" t="n">
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6715,22 +7365,25 @@
       <c r="C217" t="n">
         <v>215</v>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D217" t="n">
+        <v>215</v>
+      </c>
+      <c r="E217" t="inlineStr">
         <is>
           <t>넓네요(발음)</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>널레요</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G217" t="n">
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6744,22 +7397,25 @@
       <c r="C218" t="n">
         <v>216</v>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D218" t="n">
+        <v>216</v>
+      </c>
+      <c r="E218" t="inlineStr">
         <is>
           <t>6시가 [안되서] 일어났다</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>안 돼서</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G218" t="n">
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6773,22 +7429,25 @@
       <c r="C219" t="n">
         <v>217</v>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D219" t="n">
+        <v>217</v>
+      </c>
+      <c r="E219" t="inlineStr">
         <is>
           <t>우리는 본 행사를 통해 더 많은 국민들이 녹색 관광을 즐기고 [참여하는 계기가 되기를 바란다]</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>참여하게 되기를 바란다</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6802,22 +7461,25 @@
       <c r="C220" t="n">
         <v>218</v>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="D220" t="n">
+        <v>218</v>
+      </c>
+      <c r="E220" t="inlineStr">
         <is>
           <t>우리는 모바일 서비스를 제공하여 [이용자들에게] 이 사업의 미래상에 대해 보다 쉽게 다가갈 수 있도록 하였다</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>이용자들이</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G220" t="n">
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6829,24 +7491,27 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
+        <v>219</v>
+      </c>
+      <c r="D221" t="n">
         <v>438</v>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>다음 주에 [뵈요]</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>봬요, 뵈어요</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -6856,24 +7521,27 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
+        <v>220</v>
+      </c>
+      <c r="D222" t="n">
         <v>439</v>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>이 자리를 [빌어] 감사의 말씀을 드립니다</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>빌려</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6883,24 +7551,27 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
+        <v>221</v>
+      </c>
+      <c r="D223" t="n">
         <v>440</v>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>술을 마신 다음날 그는 [북어국]을 먹었다</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>북엇국</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6910,24 +7581,27 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
+        <v>222</v>
+      </c>
+      <c r="D224" t="n">
         <v>441</v>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>네가 그 내용을 [요약토록] 해라</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>요약도록</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>단답형</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_단답형.xlsx
+++ b/학습자료/단답형/국어_복습_단답형.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K228"/>
+  <dimension ref="A1:K235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9754,6 +9754,181 @@
       </c>
       <c r="K228" t="inlineStr"/>
     </row>
+    <row r="229">
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>자신의 살아있는 아버지</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>가친, 엄친</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr"/>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>다른 사람의 살아있는 아버지</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>춘부장, 춘장, 춘당, 어르신, 어르신네</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>자신의 돌아가신 아버지</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>선친, 선고, 선부군</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr"/>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>다른 사람의 돌아가신 아버지</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>선대인, 선고장, 선장</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>자신의 살아있는 어머니</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>자친, 가자, 모친</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>다른 사람의 살아있는 어머니</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>자당, 훤당, 모당, 모부인</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>자신의 돌아가신 어머니</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>선비, 선자</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>단답형</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
